--- a/NoName Co Modelling.xlsx
+++ b/NoName Co Modelling.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/eliediwa/Desktop/UGENT/FM/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC76AD1A-B237-764C-9DF3-B9D2A063956A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{296C10E9-809D-7B41-864B-C93257ED7A6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16360" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16360" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Start here" sheetId="25" r:id="rId1"/>
@@ -164,7 +164,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="631" uniqueCount="389">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="632" uniqueCount="390">
   <si>
     <t>Guidelines on how to best use this model</t>
   </si>
@@ -1331,6 +1331,9 @@
   </si>
   <si>
     <t>Contains all KPIs for decision making</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total fixed </t>
   </si>
 </sst>
 </file>
@@ -3257,6 +3260,34 @@
       <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="182" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="3" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="172" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
@@ -3295,34 +3326,6 @@
     </xf>
     <xf numFmtId="0" fontId="24" fillId="15" borderId="20" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="10" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="3" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="172" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="top" wrapText="1"/>
-      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -8489,8 +8492,8 @@
   </sheetPr>
   <dimension ref="A2:D23"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView topLeftCell="A11" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.75" defaultRowHeight="16" x14ac:dyDescent="0.15"/>
@@ -8642,11 +8645,6 @@
     </row>
     <row r="23" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -8658,8 +8656,8 @@
   </sheetPr>
   <dimension ref="A1:O76"/>
   <sheetViews>
-    <sheetView showOutlineSymbols="0" topLeftCell="A3" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="I29" sqref="I29"/>
+    <sheetView showOutlineSymbols="0" topLeftCell="A4" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.75" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
@@ -8789,8 +8787,8 @@
       <c r="K8" s="19"/>
       <c r="L8" s="19"/>
       <c r="M8" s="19"/>
-      <c r="N8" s="348"/>
-      <c r="O8" s="348"/>
+      <c r="N8" s="337"/>
+      <c r="O8" s="337"/>
     </row>
     <row r="9" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="14" t="s">
@@ -8812,11 +8810,11 @@
         <v>16.629200000000001</v>
       </c>
       <c r="H9" s="76"/>
-      <c r="I9" s="348"/>
-      <c r="J9" s="348"/>
-      <c r="K9" s="348"/>
-      <c r="L9" s="348"/>
-      <c r="M9" s="348"/>
+      <c r="I9" s="337"/>
+      <c r="J9" s="337"/>
+      <c r="K9" s="337"/>
+      <c r="L9" s="337"/>
+      <c r="M9" s="337"/>
       <c r="N9" s="74"/>
       <c r="O9" s="74"/>
     </row>
@@ -8841,11 +8839,11 @@
         <v>11.6998</v>
       </c>
       <c r="H10" s="76"/>
-      <c r="I10" s="348"/>
-      <c r="J10" s="348"/>
-      <c r="K10" s="348"/>
-      <c r="L10" s="348"/>
-      <c r="M10" s="348"/>
+      <c r="I10" s="337"/>
+      <c r="J10" s="337"/>
+      <c r="K10" s="337"/>
+      <c r="L10" s="337"/>
+      <c r="M10" s="337"/>
       <c r="N10" s="74"/>
       <c r="O10" s="74"/>
     </row>
@@ -8858,11 +8856,11 @@
       <c r="F11" s="52"/>
       <c r="G11" s="52"/>
       <c r="H11" s="76"/>
-      <c r="I11" s="348"/>
-      <c r="J11" s="348"/>
-      <c r="K11" s="348"/>
-      <c r="L11" s="348"/>
-      <c r="M11" s="348"/>
+      <c r="I11" s="337"/>
+      <c r="J11" s="337"/>
+      <c r="K11" s="337"/>
+      <c r="L11" s="337"/>
+      <c r="M11" s="337"/>
       <c r="N11" s="74"/>
       <c r="O11" s="74"/>
     </row>
@@ -8885,11 +8883,11 @@
       <c r="G12" s="52">
         <v>0.45324999999999999</v>
       </c>
-      <c r="I12" s="348"/>
-      <c r="J12" s="348"/>
-      <c r="K12" s="348"/>
-      <c r="L12" s="348"/>
-      <c r="M12" s="348"/>
+      <c r="I12" s="337"/>
+      <c r="J12" s="337"/>
+      <c r="K12" s="337"/>
+      <c r="L12" s="337"/>
+      <c r="M12" s="337"/>
     </row>
     <row r="13" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="18" t="s">
@@ -8911,11 +8909,11 @@
       <c r="G13" s="51">
         <v>9.1220499999999998</v>
       </c>
-      <c r="I13" s="348"/>
-      <c r="J13" s="348"/>
-      <c r="K13" s="348"/>
-      <c r="L13" s="348"/>
-      <c r="M13" s="348"/>
+      <c r="I13" s="337"/>
+      <c r="J13" s="337"/>
+      <c r="K13" s="337"/>
+      <c r="L13" s="337"/>
+      <c r="M13" s="337"/>
     </row>
     <row r="14" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="14" t="s">
@@ -8936,11 +8934,11 @@
       <c r="G14" s="52">
         <v>2.1244999999999989</v>
       </c>
-      <c r="I14" s="348"/>
-      <c r="J14" s="348"/>
-      <c r="K14" s="348"/>
-      <c r="L14" s="348"/>
-      <c r="M14" s="348"/>
+      <c r="I14" s="337"/>
+      <c r="J14" s="337"/>
+      <c r="K14" s="337"/>
+      <c r="L14" s="337"/>
+      <c r="M14" s="337"/>
     </row>
     <row r="15" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C15" s="52"/>
@@ -8948,11 +8946,11 @@
       <c r="E15" s="52"/>
       <c r="F15" s="52"/>
       <c r="G15" s="52"/>
-      <c r="I15" s="348"/>
-      <c r="J15" s="348"/>
-      <c r="K15" s="348"/>
-      <c r="L15" s="348"/>
-      <c r="M15" s="348"/>
+      <c r="I15" s="337"/>
+      <c r="J15" s="337"/>
+      <c r="K15" s="337"/>
+      <c r="L15" s="337"/>
+      <c r="M15" s="337"/>
     </row>
     <row r="16" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="18" t="s">
@@ -8974,11 +8972,11 @@
       <c r="G16" s="51">
         <v>0.9859500000000001</v>
       </c>
-      <c r="I16" s="348"/>
-      <c r="J16" s="348"/>
-      <c r="K16" s="348"/>
-      <c r="L16" s="348"/>
-      <c r="M16" s="348"/>
+      <c r="I16" s="337"/>
+      <c r="J16" s="337"/>
+      <c r="K16" s="337"/>
+      <c r="L16" s="337"/>
+      <c r="M16" s="337"/>
     </row>
     <row r="17" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="14" t="s">
@@ -8999,11 +8997,11 @@
       <c r="G17" s="52">
         <v>1.1385499999999988</v>
       </c>
-      <c r="I17" s="348"/>
-      <c r="J17" s="348"/>
-      <c r="K17" s="348"/>
-      <c r="L17" s="348"/>
-      <c r="M17" s="348"/>
+      <c r="I17" s="337"/>
+      <c r="J17" s="337"/>
+      <c r="K17" s="337"/>
+      <c r="L17" s="337"/>
+      <c r="M17" s="337"/>
     </row>
     <row r="18" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C18" s="52"/>
@@ -9011,11 +9009,11 @@
       <c r="E18" s="52"/>
       <c r="F18" s="52"/>
       <c r="G18" s="52"/>
-      <c r="I18" s="348"/>
-      <c r="J18" s="348"/>
-      <c r="K18" s="348"/>
-      <c r="L18" s="348"/>
-      <c r="M18" s="348"/>
+      <c r="I18" s="337"/>
+      <c r="J18" s="337"/>
+      <c r="K18" s="337"/>
+      <c r="L18" s="337"/>
+      <c r="M18" s="337"/>
     </row>
     <row r="19" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="18" t="s">
@@ -9037,11 +9035,11 @@
       <c r="G19" s="51">
         <v>0.30765000000000003</v>
       </c>
-      <c r="I19" s="348"/>
-      <c r="J19" s="348"/>
-      <c r="K19" s="348"/>
-      <c r="L19" s="348"/>
-      <c r="M19" s="348"/>
+      <c r="I19" s="337"/>
+      <c r="J19" s="337"/>
+      <c r="K19" s="337"/>
+      <c r="L19" s="337"/>
+      <c r="M19" s="337"/>
     </row>
     <row r="20" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="18" t="s">
@@ -9063,11 +9061,11 @@
       <c r="G20" s="54">
         <v>0.83089999999999886</v>
       </c>
-      <c r="I20" s="348"/>
-      <c r="J20" s="348"/>
-      <c r="K20" s="348"/>
-      <c r="L20" s="348"/>
-      <c r="M20" s="348"/>
+      <c r="I20" s="337"/>
+      <c r="J20" s="337"/>
+      <c r="K20" s="337"/>
+      <c r="L20" s="337"/>
+      <c r="M20" s="337"/>
     </row>
     <row r="21" spans="1:13" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="C21" s="42"/>
@@ -9075,11 +9073,11 @@
       <c r="E21" s="42"/>
       <c r="F21" s="42"/>
       <c r="G21" s="42"/>
-      <c r="I21" s="348"/>
-      <c r="J21" s="348"/>
-      <c r="K21" s="348"/>
-      <c r="L21" s="348"/>
-      <c r="M21" s="348"/>
+      <c r="I21" s="337"/>
+      <c r="J21" s="337"/>
+      <c r="K21" s="337"/>
+      <c r="L21" s="337"/>
+      <c r="M21" s="337"/>
     </row>
     <row r="22" spans="1:13" s="73" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="69" t="s">
@@ -9104,26 +9102,26 @@
         <v>0.18999661849243554</v>
       </c>
       <c r="H22" s="72"/>
-      <c r="I22" s="348"/>
-      <c r="J22" s="348"/>
-      <c r="K22" s="348"/>
-      <c r="L22" s="348"/>
-      <c r="M22" s="348"/>
+      <c r="I22" s="337"/>
+      <c r="J22" s="337"/>
+      <c r="K22" s="337"/>
+      <c r="L22" s="337"/>
+      <c r="M22" s="337"/>
     </row>
     <row r="23" spans="1:13" s="73" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="67"/>
-      <c r="B23" s="349"/>
-      <c r="C23" s="349"/>
-      <c r="D23" s="350"/>
-      <c r="E23" s="350"/>
-      <c r="F23" s="350"/>
-      <c r="G23" s="350"/>
+      <c r="B23" s="338"/>
+      <c r="C23" s="338"/>
+      <c r="D23" s="339"/>
+      <c r="E23" s="339"/>
+      <c r="F23" s="339"/>
+      <c r="G23" s="339"/>
       <c r="H23" s="72"/>
-      <c r="I23" s="348"/>
-      <c r="J23" s="348"/>
-      <c r="K23" s="348"/>
-      <c r="L23" s="348"/>
-      <c r="M23" s="348"/>
+      <c r="I23" s="337"/>
+      <c r="J23" s="337"/>
+      <c r="K23" s="337"/>
+      <c r="L23" s="337"/>
+      <c r="M23" s="337"/>
     </row>
     <row r="24" spans="1:13" s="73" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="14" t="s">
@@ -9138,11 +9136,11 @@
         <v>407865</v>
       </c>
       <c r="H24" s="72"/>
-      <c r="I24" s="348"/>
-      <c r="J24" s="348"/>
-      <c r="K24" s="348"/>
-      <c r="L24" s="348"/>
-      <c r="M24" s="348"/>
+      <c r="I24" s="337"/>
+      <c r="J24" s="337"/>
+      <c r="K24" s="337"/>
+      <c r="L24" s="337"/>
+      <c r="M24" s="337"/>
     </row>
     <row r="25" spans="1:13" s="73" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="14" t="s">
@@ -9158,11 +9156,11 @@
         <v>2.037193679281132</v>
       </c>
       <c r="H25" s="72"/>
-      <c r="I25" s="348"/>
-      <c r="J25" s="348"/>
-      <c r="K25" s="348"/>
-      <c r="L25" s="348"/>
-      <c r="M25" s="348"/>
+      <c r="I25" s="337"/>
+      <c r="J25" s="337"/>
+      <c r="K25" s="337"/>
+      <c r="L25" s="337"/>
+      <c r="M25" s="337"/>
     </row>
     <row r="26" spans="1:13" s="73" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="14" t="s">
@@ -9177,11 +9175,11 @@
         <v>11.41</v>
       </c>
       <c r="H26" s="72"/>
-      <c r="I26" s="348"/>
-      <c r="J26" s="348"/>
-      <c r="K26" s="348"/>
-      <c r="L26" s="348"/>
-      <c r="M26" s="348"/>
+      <c r="I26" s="337"/>
+      <c r="J26" s="337"/>
+      <c r="K26" s="337"/>
+      <c r="L26" s="337"/>
+      <c r="M26" s="337"/>
     </row>
     <row r="27" spans="1:13" s="73" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="14" t="s">
@@ -9197,11 +9195,11 @@
         <v>5.600842038753167</v>
       </c>
       <c r="H27" s="72"/>
-      <c r="I27" s="348"/>
-      <c r="J27" s="348"/>
-      <c r="K27" s="348"/>
-      <c r="L27" s="348"/>
-      <c r="M27" s="348"/>
+      <c r="I27" s="337"/>
+      <c r="J27" s="337"/>
+      <c r="K27" s="337"/>
+      <c r="L27" s="337"/>
+      <c r="M27" s="337"/>
     </row>
     <row r="28" spans="1:13" s="73" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="14" t="s">
@@ -9217,11 +9215,11 @@
         <v>4.6537396500000003</v>
       </c>
       <c r="H28" s="72"/>
-      <c r="I28" s="348"/>
-      <c r="J28" s="348"/>
-      <c r="K28" s="348"/>
-      <c r="L28" s="348"/>
-      <c r="M28" s="348"/>
+      <c r="I28" s="337"/>
+      <c r="J28" s="337"/>
+      <c r="K28" s="337"/>
+      <c r="L28" s="337"/>
+      <c r="M28" s="337"/>
     </row>
     <row r="29" spans="1:13" s="73" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="14"/>
@@ -9232,27 +9230,27 @@
       <c r="F29" s="19"/>
       <c r="G29" s="19"/>
       <c r="H29" s="72"/>
-      <c r="I29" s="348"/>
-      <c r="J29" s="348"/>
-      <c r="K29" s="348"/>
-      <c r="L29" s="348"/>
-      <c r="M29" s="348"/>
+      <c r="I29" s="337"/>
+      <c r="J29" s="337"/>
+      <c r="K29" s="337"/>
+      <c r="L29" s="337"/>
+      <c r="M29" s="337"/>
     </row>
     <row r="30" spans="1:13" s="73" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H30" s="72"/>
-      <c r="I30" s="348"/>
-      <c r="J30" s="348"/>
-      <c r="K30" s="348"/>
-      <c r="L30" s="348"/>
-      <c r="M30" s="348"/>
+      <c r="I30" s="337"/>
+      <c r="J30" s="337"/>
+      <c r="K30" s="337"/>
+      <c r="L30" s="337"/>
+      <c r="M30" s="337"/>
     </row>
     <row r="31" spans="1:13" s="73" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H31" s="72"/>
-      <c r="I31" s="348"/>
-      <c r="J31" s="348"/>
-      <c r="K31" s="348"/>
-      <c r="L31" s="348"/>
-      <c r="M31" s="348"/>
+      <c r="I31" s="337"/>
+      <c r="J31" s="337"/>
+      <c r="K31" s="337"/>
+      <c r="L31" s="337"/>
+      <c r="M31" s="337"/>
     </row>
     <row r="32" spans="1:13" s="73" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="14"/>
@@ -9263,11 +9261,11 @@
       <c r="F32" s="47"/>
       <c r="G32" s="48"/>
       <c r="H32" s="72"/>
-      <c r="I32" s="348"/>
-      <c r="J32" s="348"/>
-      <c r="K32" s="348"/>
-      <c r="L32" s="348"/>
-      <c r="M32" s="348"/>
+      <c r="I32" s="337"/>
+      <c r="J32" s="337"/>
+      <c r="K32" s="337"/>
+      <c r="L32" s="337"/>
+      <c r="M32" s="337"/>
     </row>
     <row r="33" spans="1:13" s="73" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="63"/>
@@ -9278,27 +9276,27 @@
       <c r="F33" s="133"/>
       <c r="G33" s="133"/>
       <c r="H33" s="72"/>
-      <c r="I33" s="348"/>
-      <c r="J33" s="348"/>
-      <c r="K33" s="348"/>
-      <c r="L33" s="348"/>
-      <c r="M33" s="348"/>
+      <c r="I33" s="337"/>
+      <c r="J33" s="337"/>
+      <c r="K33" s="337"/>
+      <c r="L33" s="337"/>
+      <c r="M33" s="337"/>
     </row>
     <row r="34" spans="1:13" s="73" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H34" s="72"/>
-      <c r="I34" s="348"/>
-      <c r="J34" s="348"/>
-      <c r="K34" s="348"/>
-      <c r="L34" s="348"/>
-      <c r="M34" s="348"/>
+      <c r="I34" s="337"/>
+      <c r="J34" s="337"/>
+      <c r="K34" s="337"/>
+      <c r="L34" s="337"/>
+      <c r="M34" s="337"/>
     </row>
     <row r="35" spans="1:13" s="73" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H35" s="72"/>
-      <c r="I35" s="348"/>
-      <c r="J35" s="348"/>
-      <c r="K35" s="348"/>
-      <c r="L35" s="348"/>
-      <c r="M35" s="348"/>
+      <c r="I35" s="337"/>
+      <c r="J35" s="337"/>
+      <c r="K35" s="337"/>
+      <c r="L35" s="337"/>
+      <c r="M35" s="337"/>
     </row>
     <row r="36" spans="1:13" s="73" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="6" t="str">
@@ -9312,11 +9310,11 @@
       <c r="F36" s="14"/>
       <c r="G36" s="14"/>
       <c r="H36" s="4"/>
-      <c r="I36" s="348"/>
-      <c r="J36" s="348"/>
-      <c r="K36" s="348"/>
-      <c r="L36" s="348"/>
-      <c r="M36" s="348"/>
+      <c r="I36" s="337"/>
+      <c r="J36" s="337"/>
+      <c r="K36" s="337"/>
+      <c r="L36" s="337"/>
+      <c r="M36" s="337"/>
     </row>
     <row r="37" spans="1:13" s="73" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="14"/>
@@ -9327,11 +9325,11 @@
       <c r="F37" s="14"/>
       <c r="G37" s="14"/>
       <c r="H37" s="4"/>
-      <c r="I37" s="348"/>
-      <c r="J37" s="348"/>
-      <c r="K37" s="348"/>
-      <c r="L37" s="348"/>
-      <c r="M37" s="348"/>
+      <c r="I37" s="337"/>
+      <c r="J37" s="337"/>
+      <c r="K37" s="337"/>
+      <c r="L37" s="337"/>
+      <c r="M37" s="337"/>
     </row>
     <row r="38" spans="1:13" s="73" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="6" t="s">
@@ -9344,11 +9342,11 @@
       <c r="F38" s="14"/>
       <c r="G38" s="14"/>
       <c r="H38" s="4"/>
-      <c r="I38" s="348"/>
-      <c r="J38" s="348"/>
-      <c r="K38" s="348"/>
-      <c r="L38" s="348"/>
-      <c r="M38" s="348"/>
+      <c r="I38" s="337"/>
+      <c r="J38" s="337"/>
+      <c r="K38" s="337"/>
+      <c r="L38" s="337"/>
+      <c r="M38" s="337"/>
     </row>
     <row r="39" spans="1:13" s="73" customFormat="1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A39" s="29"/>
@@ -9359,11 +9357,11 @@
       <c r="F39" s="16"/>
       <c r="G39" s="16"/>
       <c r="H39" s="4"/>
-      <c r="I39" s="348"/>
-      <c r="J39" s="348"/>
-      <c r="K39" s="348"/>
-      <c r="L39" s="348"/>
-      <c r="M39" s="348"/>
+      <c r="I39" s="337"/>
+      <c r="J39" s="337"/>
+      <c r="K39" s="337"/>
+      <c r="L39" s="337"/>
+      <c r="M39" s="337"/>
     </row>
     <row r="40" spans="1:13" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A40" s="17" t="s">
@@ -9386,20 +9384,20 @@
         <v>40724</v>
       </c>
       <c r="H40" s="14"/>
-      <c r="I40" s="348"/>
-      <c r="J40" s="348"/>
-      <c r="K40" s="348"/>
-      <c r="L40" s="348"/>
-      <c r="M40" s="348"/>
+      <c r="I40" s="337"/>
+      <c r="J40" s="337"/>
+      <c r="K40" s="337"/>
+      <c r="L40" s="337"/>
+      <c r="M40" s="337"/>
     </row>
     <row r="41" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="63"/>
       <c r="H41" s="14"/>
-      <c r="I41" s="348"/>
-      <c r="J41" s="348"/>
-      <c r="K41" s="348"/>
-      <c r="L41" s="348"/>
-      <c r="M41" s="348"/>
+      <c r="I41" s="337"/>
+      <c r="J41" s="337"/>
+      <c r="K41" s="337"/>
+      <c r="L41" s="337"/>
+      <c r="M41" s="337"/>
     </row>
     <row r="42" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="34" t="s">
@@ -9449,11 +9447,11 @@
         <v>5.8212000000000002</v>
       </c>
       <c r="H43" s="14"/>
-      <c r="I43" s="348"/>
-      <c r="J43" s="348"/>
-      <c r="K43" s="348"/>
-      <c r="L43" s="348"/>
-      <c r="M43" s="348"/>
+      <c r="I43" s="337"/>
+      <c r="J43" s="337"/>
+      <c r="K43" s="337"/>
+      <c r="L43" s="337"/>
+      <c r="M43" s="337"/>
     </row>
     <row r="44" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="34" t="s">
@@ -9476,11 +9474,11 @@
         <v>4.1573000000000002</v>
       </c>
       <c r="H44" s="14"/>
-      <c r="I44" s="348"/>
-      <c r="J44" s="348"/>
-      <c r="K44" s="348"/>
-      <c r="L44" s="348"/>
-      <c r="M44" s="348"/>
+      <c r="I44" s="337"/>
+      <c r="J44" s="337"/>
+      <c r="K44" s="337"/>
+      <c r="L44" s="337"/>
+      <c r="M44" s="337"/>
     </row>
     <row r="45" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="34" t="s">
@@ -9503,11 +9501,11 @@
         <v>0.33914999999999995</v>
       </c>
       <c r="H45" s="14"/>
-      <c r="I45" s="348"/>
-      <c r="J45" s="348"/>
-      <c r="K45" s="348"/>
-      <c r="L45" s="348"/>
-      <c r="M45" s="348"/>
+      <c r="I45" s="337"/>
+      <c r="J45" s="337"/>
+      <c r="K45" s="337"/>
+      <c r="L45" s="337"/>
+      <c r="M45" s="337"/>
     </row>
     <row r="46" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="65" t="s">
@@ -9530,11 +9528,11 @@
         <v>11.753350000000001</v>
       </c>
       <c r="H46" s="14"/>
-      <c r="I46" s="348"/>
-      <c r="J46" s="348"/>
-      <c r="K46" s="348"/>
-      <c r="L46" s="348"/>
-      <c r="M46" s="348"/>
+      <c r="I46" s="337"/>
+      <c r="J46" s="337"/>
+      <c r="K46" s="337"/>
+      <c r="L46" s="337"/>
+      <c r="M46" s="337"/>
     </row>
     <row r="47" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="34"/>
@@ -9545,11 +9543,11 @@
       <c r="F47" s="52"/>
       <c r="G47" s="52"/>
       <c r="H47" s="14"/>
-      <c r="I47" s="348"/>
-      <c r="J47" s="348"/>
-      <c r="K47" s="348"/>
-      <c r="L47" s="348"/>
-      <c r="M47" s="348"/>
+      <c r="I47" s="337"/>
+      <c r="J47" s="337"/>
+      <c r="K47" s="337"/>
+      <c r="L47" s="337"/>
+      <c r="M47" s="337"/>
     </row>
     <row r="48" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="34" t="s">
@@ -9572,11 +9570,11 @@
         <v>7.839999999999999</v>
       </c>
       <c r="H48" s="14"/>
-      <c r="I48" s="348"/>
-      <c r="J48" s="348"/>
-      <c r="K48" s="348"/>
-      <c r="L48" s="348"/>
-      <c r="M48" s="348"/>
+      <c r="I48" s="337"/>
+      <c r="J48" s="337"/>
+      <c r="K48" s="337"/>
+      <c r="L48" s="337"/>
+      <c r="M48" s="337"/>
     </row>
     <row r="49" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="34" t="s">
@@ -9599,11 +9597,11 @@
         <v>1.2736499999999999</v>
       </c>
       <c r="H49" s="14"/>
-      <c r="I49" s="348"/>
-      <c r="J49" s="348"/>
-      <c r="K49" s="348"/>
-      <c r="L49" s="348"/>
-      <c r="M49" s="348"/>
+      <c r="I49" s="337"/>
+      <c r="J49" s="337"/>
+      <c r="K49" s="337"/>
+      <c r="L49" s="337"/>
+      <c r="M49" s="337"/>
     </row>
     <row r="50" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="34" t="s">
@@ -9626,11 +9624,11 @@
         <v>9.1136499999999998</v>
       </c>
       <c r="H50" s="14"/>
-      <c r="I50" s="348"/>
-      <c r="J50" s="348"/>
-      <c r="K50" s="348"/>
-      <c r="L50" s="348"/>
-      <c r="M50" s="348"/>
+      <c r="I50" s="337"/>
+      <c r="J50" s="337"/>
+      <c r="K50" s="337"/>
+      <c r="L50" s="337"/>
+      <c r="M50" s="337"/>
     </row>
     <row r="51" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="66" t="s">
@@ -9652,11 +9650,11 @@
         <v>20.867000000000001</v>
       </c>
       <c r="H51" s="14"/>
-      <c r="I51" s="348"/>
-      <c r="J51" s="348"/>
-      <c r="K51" s="348"/>
-      <c r="L51" s="348"/>
-      <c r="M51" s="348"/>
+      <c r="I51" s="337"/>
+      <c r="J51" s="337"/>
+      <c r="K51" s="337"/>
+      <c r="L51" s="337"/>
+      <c r="M51" s="337"/>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A52" s="67"/>
@@ -9666,11 +9664,11 @@
       <c r="F52" s="20"/>
       <c r="G52" s="20"/>
       <c r="H52" s="14"/>
-      <c r="I52" s="348"/>
-      <c r="J52" s="348"/>
-      <c r="K52" s="348"/>
-      <c r="L52" s="348"/>
-      <c r="M52" s="348"/>
+      <c r="I52" s="337"/>
+      <c r="J52" s="337"/>
+      <c r="K52" s="337"/>
+      <c r="L52" s="337"/>
+      <c r="M52" s="337"/>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A53" s="66" t="s">
@@ -9694,11 +9692,11 @@
         <v>0.18375856249379541</v>
       </c>
       <c r="H53" s="14"/>
-      <c r="I53" s="348"/>
-      <c r="J53" s="348"/>
-      <c r="K53" s="348"/>
-      <c r="L53" s="348"/>
-      <c r="M53" s="348"/>
+      <c r="I53" s="337"/>
+      <c r="J53" s="337"/>
+      <c r="K53" s="337"/>
+      <c r="L53" s="337"/>
+      <c r="M53" s="337"/>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A54" s="66"/>
@@ -9708,11 +9706,11 @@
       <c r="F54" s="49"/>
       <c r="G54" s="49"/>
       <c r="H54" s="14"/>
-      <c r="I54" s="348"/>
-      <c r="J54" s="348"/>
-      <c r="K54" s="348"/>
-      <c r="L54" s="348"/>
-      <c r="M54" s="348"/>
+      <c r="I54" s="337"/>
+      <c r="J54" s="337"/>
+      <c r="K54" s="337"/>
+      <c r="L54" s="337"/>
+      <c r="M54" s="337"/>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A55" s="34"/>
@@ -9723,11 +9721,11 @@
       <c r="F55" s="31"/>
       <c r="G55" s="31"/>
       <c r="H55" s="14"/>
-      <c r="I55" s="348"/>
-      <c r="J55" s="348"/>
-      <c r="K55" s="348"/>
-      <c r="L55" s="348"/>
-      <c r="M55" s="348"/>
+      <c r="I55" s="337"/>
+      <c r="J55" s="337"/>
+      <c r="K55" s="337"/>
+      <c r="L55" s="337"/>
+      <c r="M55" s="337"/>
     </row>
     <row r="56" spans="1:13" ht="13" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A56" s="50" t="s">
@@ -9750,11 +9748,11 @@
         <v>40724</v>
       </c>
       <c r="H56" s="14"/>
-      <c r="I56" s="348"/>
-      <c r="J56" s="348"/>
-      <c r="K56" s="348"/>
-      <c r="L56" s="348"/>
-      <c r="M56" s="348"/>
+      <c r="I56" s="337"/>
+      <c r="J56" s="337"/>
+      <c r="K56" s="337"/>
+      <c r="L56" s="337"/>
+      <c r="M56" s="337"/>
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A57" s="34"/>
@@ -9764,11 +9762,11 @@
       <c r="F57" s="31"/>
       <c r="G57" s="31"/>
       <c r="H57" s="14"/>
-      <c r="I57" s="348"/>
-      <c r="J57" s="348"/>
-      <c r="K57" s="348"/>
-      <c r="L57" s="348"/>
-      <c r="M57" s="348"/>
+      <c r="I57" s="337"/>
+      <c r="J57" s="337"/>
+      <c r="K57" s="337"/>
+      <c r="L57" s="337"/>
+      <c r="M57" s="337"/>
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A58" s="2" t="s">
@@ -9817,11 +9815,11 @@
         <v>1.3667499999999999</v>
       </c>
       <c r="H59" s="14"/>
-      <c r="I59" s="348"/>
-      <c r="J59" s="348"/>
-      <c r="K59" s="348"/>
-      <c r="L59" s="348"/>
-      <c r="M59" s="348"/>
+      <c r="I59" s="337"/>
+      <c r="J59" s="337"/>
+      <c r="K59" s="337"/>
+      <c r="L59" s="337"/>
+      <c r="M59" s="337"/>
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A60" s="25" t="s">
@@ -9843,11 +9841,11 @@
         <v>0.51905000000000001</v>
       </c>
       <c r="H60" s="26"/>
-      <c r="I60" s="348"/>
-      <c r="J60" s="348"/>
-      <c r="K60" s="348"/>
-      <c r="L60" s="348"/>
-      <c r="M60" s="348"/>
+      <c r="I60" s="337"/>
+      <c r="J60" s="337"/>
+      <c r="K60" s="337"/>
+      <c r="L60" s="337"/>
+      <c r="M60" s="337"/>
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A61" s="2" t="s">
@@ -9870,11 +9868,11 @@
         <v>0.47074999999999995</v>
       </c>
       <c r="H61" s="26"/>
-      <c r="I61" s="348"/>
-      <c r="J61" s="348"/>
-      <c r="K61" s="348"/>
-      <c r="L61" s="348"/>
-      <c r="M61" s="348"/>
+      <c r="I61" s="337"/>
+      <c r="J61" s="337"/>
+      <c r="K61" s="337"/>
+      <c r="L61" s="337"/>
+      <c r="M61" s="337"/>
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A62" s="43" t="s">
@@ -9896,11 +9894,11 @@
         <v>7.0612499999999994</v>
       </c>
       <c r="H62" s="14"/>
-      <c r="I62" s="348"/>
-      <c r="J62" s="348"/>
-      <c r="K62" s="348"/>
-      <c r="L62" s="348"/>
-      <c r="M62" s="348"/>
+      <c r="I62" s="337"/>
+      <c r="J62" s="337"/>
+      <c r="K62" s="337"/>
+      <c r="L62" s="337"/>
+      <c r="M62" s="337"/>
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A63" s="2"/>
@@ -9910,11 +9908,11 @@
       <c r="F63" s="52"/>
       <c r="G63" s="52"/>
       <c r="H63" s="14"/>
-      <c r="I63" s="348"/>
-      <c r="J63" s="348"/>
-      <c r="K63" s="348"/>
-      <c r="L63" s="348"/>
-      <c r="M63" s="348"/>
+      <c r="I63" s="337"/>
+      <c r="J63" s="337"/>
+      <c r="K63" s="337"/>
+      <c r="L63" s="337"/>
+      <c r="M63" s="337"/>
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A64" s="2" t="s">
@@ -9936,11 +9934,11 @@
         <v>7.7864499999999994</v>
       </c>
       <c r="H64" s="26"/>
-      <c r="I64" s="348"/>
-      <c r="J64" s="348"/>
-      <c r="K64" s="348"/>
-      <c r="L64" s="348"/>
-      <c r="M64" s="348"/>
+      <c r="I64" s="337"/>
+      <c r="J64" s="337"/>
+      <c r="K64" s="337"/>
+      <c r="L64" s="337"/>
+      <c r="M64" s="337"/>
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A65" s="43" t="s">
@@ -9963,11 +9961,11 @@
         <v>10.257887500000001</v>
       </c>
       <c r="H65" s="14"/>
-      <c r="I65" s="348"/>
-      <c r="J65" s="348"/>
-      <c r="K65" s="348"/>
-      <c r="L65" s="348"/>
-      <c r="M65" s="348"/>
+      <c r="I65" s="337"/>
+      <c r="J65" s="337"/>
+      <c r="K65" s="337"/>
+      <c r="L65" s="337"/>
+      <c r="M65" s="337"/>
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A66" s="2"/>
@@ -9977,11 +9975,11 @@
       <c r="F66" s="52"/>
       <c r="G66" s="52"/>
       <c r="H66" s="14"/>
-      <c r="I66" s="348"/>
-      <c r="J66" s="348"/>
-      <c r="K66" s="348"/>
-      <c r="L66" s="348"/>
-      <c r="M66" s="348"/>
+      <c r="I66" s="337"/>
+      <c r="J66" s="337"/>
+      <c r="K66" s="337"/>
+      <c r="L66" s="337"/>
+      <c r="M66" s="337"/>
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A67" s="2" t="s">
@@ -10004,11 +10002,11 @@
         <v>2.408455</v>
       </c>
       <c r="H67" s="14"/>
-      <c r="I67" s="348"/>
-      <c r="J67" s="348"/>
-      <c r="K67" s="348"/>
-      <c r="L67" s="348"/>
-      <c r="M67" s="348"/>
+      <c r="I67" s="337"/>
+      <c r="J67" s="337"/>
+      <c r="K67" s="337"/>
+      <c r="L67" s="337"/>
+      <c r="M67" s="337"/>
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A68" s="2" t="s">
@@ -10031,11 +10029,11 @@
         <v>3.6109499999999999</v>
       </c>
       <c r="H68" s="14"/>
-      <c r="I68" s="348"/>
-      <c r="J68" s="348"/>
-      <c r="K68" s="348"/>
-      <c r="L68" s="348"/>
-      <c r="M68" s="348"/>
+      <c r="I68" s="337"/>
+      <c r="J68" s="337"/>
+      <c r="K68" s="337"/>
+      <c r="L68" s="337"/>
+      <c r="M68" s="337"/>
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A69" s="43" t="s">
@@ -10058,11 +10056,11 @@
         <v>6.0194049999999999</v>
       </c>
       <c r="H69" s="14"/>
-      <c r="I69" s="348"/>
-      <c r="J69" s="348"/>
-      <c r="K69" s="348"/>
-      <c r="L69" s="348"/>
-      <c r="M69" s="348"/>
+      <c r="I69" s="337"/>
+      <c r="J69" s="337"/>
+      <c r="K69" s="337"/>
+      <c r="L69" s="337"/>
+      <c r="M69" s="337"/>
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A70" s="18"/>
@@ -10073,11 +10071,11 @@
       <c r="F70" s="53"/>
       <c r="G70" s="53"/>
       <c r="H70" s="14"/>
-      <c r="I70" s="348"/>
-      <c r="J70" s="348"/>
-      <c r="K70" s="348"/>
-      <c r="L70" s="348"/>
-      <c r="M70" s="348"/>
+      <c r="I70" s="337"/>
+      <c r="J70" s="337"/>
+      <c r="K70" s="337"/>
+      <c r="L70" s="337"/>
+      <c r="M70" s="337"/>
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A71" s="2" t="s">
@@ -10100,11 +10098,11 @@
         <v>16.277292500000001</v>
       </c>
       <c r="H71" s="14"/>
-      <c r="I71" s="348"/>
-      <c r="J71" s="348"/>
-      <c r="K71" s="348"/>
-      <c r="L71" s="348"/>
-      <c r="M71" s="348"/>
+      <c r="I71" s="337"/>
+      <c r="J71" s="337"/>
+      <c r="K71" s="337"/>
+      <c r="L71" s="337"/>
+      <c r="M71" s="337"/>
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A72" s="2"/>
@@ -10154,10 +10152,10 @@
   <sheetPr codeName="Sheet10">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:J63"/>
+  <dimension ref="A1:J64"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+    <sheetView topLeftCell="A38" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="J59" sqref="J59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.75" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
@@ -10337,18 +10335,10 @@
       <c r="F13" s="14"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B14" s="52">
-        <v>0</v>
-      </c>
-      <c r="C14" s="52">
-        <v>0</v>
-      </c>
-      <c r="D14" s="52">
-        <v>0</v>
-      </c>
-      <c r="E14" s="52">
-        <v>0</v>
-      </c>
+      <c r="B14" s="52"/>
+      <c r="C14" s="52"/>
+      <c r="D14" s="52"/>
+      <c r="E14" s="52"/>
       <c r="F14" s="14"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.15">
@@ -10592,32 +10582,28 @@
         <v>332</v>
       </c>
       <c r="B37" s="57">
-        <v>2.1143500000000004</v>
+        <f>SUM(B33:B36)</f>
+        <v>2.11435</v>
       </c>
       <c r="C37" s="57">
+        <f t="shared" ref="C37:E37" si="0">SUM(C33:C36)</f>
         <v>2.1917</v>
       </c>
       <c r="D37" s="57">
+        <f t="shared" si="0"/>
         <v>2.2921499999999999</v>
       </c>
       <c r="E37" s="57">
-        <v>2.4167499999999995</v>
+        <f t="shared" si="0"/>
+        <v>2.41675</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A38" s="34"/>
-      <c r="B38" s="57">
-        <v>0</v>
-      </c>
-      <c r="C38" s="57">
-        <v>0</v>
-      </c>
-      <c r="D38" s="57">
-        <v>0</v>
-      </c>
-      <c r="E38" s="57">
-        <v>0</v>
-      </c>
+      <c r="B38" s="57"/>
+      <c r="C38" s="57"/>
+      <c r="D38" s="57"/>
+      <c r="E38" s="57"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A39" s="34" t="s">
@@ -10654,309 +10640,326 @@
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A41" s="67" t="s">
+      <c r="A41" s="14" t="s">
+        <v>389</v>
+      </c>
+      <c r="B41" s="78">
+        <f>SUM(B39:B40)</f>
+        <v>1.5025500000000001</v>
+      </c>
+      <c r="C41" s="78">
+        <f t="shared" ref="C41:E41" si="1">SUM(C39:C40)</f>
+        <v>1.6180499999999998</v>
+      </c>
+      <c r="D41" s="78">
+        <f t="shared" si="1"/>
+        <v>1.67055</v>
+      </c>
+      <c r="E41" s="78">
+        <f t="shared" si="1"/>
+        <v>1.7328500000000002</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A42" s="67" t="s">
         <v>333</v>
       </c>
-      <c r="B41" s="59">
-        <v>3.6168999999999998</v>
-      </c>
-      <c r="C41" s="59">
+      <c r="B42" s="59">
+        <f>B41+B37</f>
+        <v>3.6169000000000002</v>
+      </c>
+      <c r="C42" s="59">
+        <f t="shared" ref="C42:E42" si="2">C41+C37</f>
         <v>3.8097499999999997</v>
       </c>
-      <c r="D41" s="59">
-        <v>3.9626999999999994</v>
-      </c>
-      <c r="E41" s="59">
+      <c r="D42" s="59">
+        <f t="shared" si="2"/>
+        <v>3.9626999999999999</v>
+      </c>
+      <c r="E42" s="59">
+        <f t="shared" si="2"/>
         <v>4.1496000000000004</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="13" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="30"/>
-      <c r="B42" s="44"/>
-      <c r="C42" s="44"/>
-      <c r="D42" s="44"/>
-      <c r="E42" s="44"/>
-    </row>
     <row r="43" spans="1:5" ht="13" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="64" t="s">
+      <c r="A43" s="30"/>
+      <c r="B43" s="44"/>
+      <c r="C43" s="44"/>
+      <c r="D43" s="44"/>
+      <c r="E43" s="44"/>
+    </row>
+    <row r="44" spans="1:5" ht="13" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="64" t="s">
         <v>334</v>
       </c>
-      <c r="B43" s="28">
+      <c r="B44" s="28">
         <v>39629</v>
       </c>
-      <c r="C43" s="28">
+      <c r="C44" s="28">
         <v>39994</v>
       </c>
-      <c r="D43" s="28">
+      <c r="D44" s="28">
         <v>40359</v>
       </c>
-      <c r="E43" s="28">
+      <c r="E44" s="28">
         <v>40724</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A44" s="34"/>
-      <c r="B44" s="24"/>
-      <c r="C44" s="24"/>
-      <c r="D44" s="24"/>
-      <c r="E44" s="24"/>
-    </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A45" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="B45" s="19">
-        <v>0.27684999999999998</v>
-      </c>
-      <c r="C45" s="19">
-        <v>0.2863</v>
-      </c>
-      <c r="D45" s="19">
-        <v>0.29959999999999998</v>
-      </c>
-      <c r="E45" s="19">
-        <v>0.31569999999999998</v>
-      </c>
+      <c r="A45" s="34"/>
+      <c r="B45" s="24"/>
+      <c r="C45" s="24"/>
+      <c r="D45" s="24"/>
+      <c r="E45" s="24"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A46" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="B46" s="19">
+        <v>0.27684999999999998</v>
+      </c>
+      <c r="C46" s="19">
+        <v>0.2863</v>
+      </c>
+      <c r="D46" s="19">
+        <v>0.29959999999999998</v>
+      </c>
+      <c r="E46" s="19">
+        <v>0.31569999999999998</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A47" s="2" t="s">
         <v>267</v>
       </c>
-      <c r="B46" s="60">
+      <c r="B47" s="60">
         <v>0.28454999999999997</v>
       </c>
-      <c r="C46" s="60">
+      <c r="C47" s="60">
         <v>0.29575000000000001</v>
       </c>
-      <c r="D46" s="60">
+      <c r="D47" s="60">
         <v>0.30870000000000003</v>
       </c>
-      <c r="E46" s="60">
+      <c r="E47" s="60">
         <v>0.32585000000000003</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A47" s="25" t="s">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A48" s="25" t="s">
         <v>268</v>
       </c>
-      <c r="B47" s="59">
+      <c r="B48" s="59">
         <v>0</v>
       </c>
-      <c r="C47" s="59">
+      <c r="C48" s="59">
         <v>0</v>
       </c>
-      <c r="D47" s="59">
+      <c r="D48" s="59">
         <v>0</v>
       </c>
-      <c r="E47" s="59">
+      <c r="E48" s="59">
         <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A48" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="B48" s="58">
-        <v>9.1700000000000004E-2</v>
-      </c>
-      <c r="C48" s="58">
-        <v>9.4850000000000018E-2</v>
-      </c>
-      <c r="D48" s="58">
-        <v>9.9049999999999999E-2</v>
-      </c>
-      <c r="E48" s="58">
-        <v>0.10464999999999999</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A49" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="B49" s="58">
+        <v>9.1700000000000004E-2</v>
+      </c>
+      <c r="C49" s="58">
+        <v>9.4850000000000018E-2</v>
+      </c>
+      <c r="D49" s="58">
+        <v>9.9049999999999999E-2</v>
+      </c>
+      <c r="E49" s="58">
+        <v>0.10464999999999999</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A50" s="2" t="s">
         <v>335</v>
       </c>
-      <c r="B49" s="57">
-        <v>0.65310000000000001</v>
-      </c>
-      <c r="C49" s="57">
+      <c r="B50" s="57">
+        <f>SUM(B46:B49)</f>
+        <v>0.6530999999999999</v>
+      </c>
+      <c r="C50" s="57">
+        <f t="shared" ref="C50:E50" si="3">SUM(C46:C49)</f>
         <v>0.67689999999999995</v>
       </c>
-      <c r="D49" s="57">
-        <v>0.70734999999999992</v>
-      </c>
-      <c r="E49" s="57">
+      <c r="D50" s="57">
+        <f t="shared" si="3"/>
+        <v>0.70735000000000003</v>
+      </c>
+      <c r="E50" s="57">
+        <f t="shared" si="3"/>
         <v>0.74620000000000009</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A50" s="2"/>
-      <c r="B50" s="57">
-        <v>0</v>
-      </c>
-      <c r="C50" s="57">
-        <v>0</v>
-      </c>
-      <c r="D50" s="57">
-        <v>0</v>
-      </c>
-      <c r="E50" s="57">
-        <v>0</v>
-      </c>
-    </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A51" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="B51" s="58">
-        <v>0</v>
-      </c>
-      <c r="C51" s="58">
-        <v>0</v>
-      </c>
-      <c r="D51" s="58">
-        <v>0</v>
-      </c>
-      <c r="E51" s="58">
-        <v>0</v>
-      </c>
+      <c r="A51" s="2"/>
+      <c r="B51" s="57"/>
+      <c r="C51" s="57"/>
+      <c r="D51" s="57"/>
+      <c r="E51" s="57"/>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A52" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="B52" s="58">
+        <v>0</v>
+      </c>
+      <c r="C52" s="58">
+        <v>0</v>
+      </c>
+      <c r="D52" s="58">
+        <v>0</v>
+      </c>
+      <c r="E52" s="58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A53" s="2" t="s">
         <v>336</v>
       </c>
-      <c r="B52" s="61">
-        <v>0.65310000000000001</v>
-      </c>
-      <c r="C52" s="61">
+      <c r="B53" s="61">
+        <f>B52+B50</f>
+        <v>0.6530999999999999</v>
+      </c>
+      <c r="C53" s="61">
+        <f t="shared" ref="C53:E53" si="4">C52+C50</f>
         <v>0.67689999999999995</v>
       </c>
-      <c r="D52" s="61">
-        <v>0.70734999999999992</v>
-      </c>
-      <c r="E52" s="61">
+      <c r="D53" s="61">
+        <f t="shared" si="4"/>
+        <v>0.70735000000000003</v>
+      </c>
+      <c r="E53" s="61">
+        <f t="shared" si="4"/>
         <v>0.74620000000000009</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A53" s="2"/>
-      <c r="B53" s="57">
-        <v>0</v>
-      </c>
-      <c r="C53" s="57">
-        <v>0</v>
-      </c>
-      <c r="D53" s="57">
-        <v>0</v>
-      </c>
-      <c r="E53" s="57">
-        <v>0</v>
-      </c>
-    </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A54" s="2" t="s">
-        <v>273</v>
-      </c>
-      <c r="B54" s="57">
-        <v>1.6043999999999996</v>
-      </c>
-      <c r="C54" s="57">
-        <v>1.6043999999999996</v>
-      </c>
-      <c r="D54" s="57">
-        <v>1.6043999999999996</v>
-      </c>
-      <c r="E54" s="57">
-        <v>1.6043999999999996</v>
-      </c>
+      <c r="A54" s="2"/>
+      <c r="B54" s="57"/>
+      <c r="C54" s="57"/>
+      <c r="D54" s="57"/>
+      <c r="E54" s="57"/>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A55" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="B55" s="58">
-        <v>1.3593999999999999</v>
-      </c>
-      <c r="C55" s="58">
-        <v>1.5284499999999999</v>
-      </c>
-      <c r="D55" s="58">
-        <v>1.6506000000000001</v>
-      </c>
-      <c r="E55" s="58">
-        <v>1.7989999999999999</v>
+        <v>273</v>
+      </c>
+      <c r="B55" s="57">
+        <v>1.6043999999999996</v>
+      </c>
+      <c r="C55" s="57">
+        <v>1.6043999999999996</v>
+      </c>
+      <c r="D55" s="57">
+        <v>1.6043999999999996</v>
+      </c>
+      <c r="E55" s="57">
+        <v>1.6043999999999996</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A56" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="B56" s="58">
+        <v>1.3593999999999999</v>
+      </c>
+      <c r="C56" s="58">
+        <v>1.5284499999999999</v>
+      </c>
+      <c r="D56" s="58">
+        <v>1.6506000000000001</v>
+      </c>
+      <c r="E56" s="58">
+        <v>1.7989999999999999</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A57" s="2" t="s">
         <v>337</v>
       </c>
-      <c r="B56" s="61">
-        <v>2.9638</v>
-      </c>
-      <c r="C56" s="61">
-        <v>3.1328500000000004</v>
-      </c>
-      <c r="D56" s="61">
-        <v>3.2550000000000003</v>
-      </c>
-      <c r="E56" s="61">
-        <v>3.4034</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A57" s="18"/>
-      <c r="B57" s="62">
-        <v>0</v>
-      </c>
-      <c r="C57" s="62">
-        <v>0</v>
-      </c>
-      <c r="D57" s="62">
-        <v>0</v>
-      </c>
-      <c r="E57" s="62">
-        <v>0</v>
+      <c r="B57" s="61">
+        <f>SUM(B55:B56)</f>
+        <v>2.9637999999999995</v>
+      </c>
+      <c r="C57" s="61">
+        <f t="shared" ref="C57:E57" si="5">SUM(C55:C56)</f>
+        <v>3.1328499999999995</v>
+      </c>
+      <c r="D57" s="61">
+        <f t="shared" si="5"/>
+        <v>3.2549999999999999</v>
+      </c>
+      <c r="E57" s="61">
+        <f t="shared" si="5"/>
+        <v>3.4033999999999995</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A58" s="2" t="s">
+      <c r="A58" s="18"/>
+      <c r="B58" s="62"/>
+      <c r="C58" s="62"/>
+      <c r="D58" s="62"/>
+      <c r="E58" s="62"/>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A59" s="2" t="s">
         <v>276</v>
       </c>
-      <c r="B58" s="57">
-        <v>1.2659149999999999</v>
-      </c>
-      <c r="C58" s="57">
-        <v>1.3334124999999999</v>
-      </c>
-      <c r="D58" s="57">
-        <v>1.3869449999999999</v>
-      </c>
-      <c r="E58" s="57">
-        <v>1.4523600000000001</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A59" s="1"/>
-      <c r="B59" s="21"/>
-      <c r="C59" s="21"/>
-      <c r="D59" s="21"/>
-      <c r="E59" s="21"/>
+      <c r="B59" s="57">
+        <f>B57+B53</f>
+        <v>3.6168999999999993</v>
+      </c>
+      <c r="C59" s="57">
+        <f t="shared" ref="C59:E59" si="6">C57+C53</f>
+        <v>3.8097499999999993</v>
+      </c>
+      <c r="D59" s="57">
+        <f t="shared" si="6"/>
+        <v>3.9623499999999998</v>
+      </c>
+      <c r="E59" s="57">
+        <f t="shared" si="6"/>
+        <v>4.1495999999999995</v>
+      </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A60" s="68" t="s">
-        <v>338</v>
-      </c>
+      <c r="A60" s="1"/>
+      <c r="B60" s="21"/>
+      <c r="C60" s="21"/>
+      <c r="D60" s="21"/>
+      <c r="E60" s="21"/>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A61" s="68" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A62" s="68" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A63" s="68" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A64" s="68" t="s">
         <v>341</v>
       </c>
     </row>
@@ -10971,8 +10974,8 @@
   <sheetPr codeName="Sheet12"/>
   <dimension ref="A1:I41"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="P18" sqref="P18"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="N23" sqref="N23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.75" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -11080,10 +11083,12 @@
         <v>12303.1</v>
       </c>
       <c r="H8" s="7">
-        <v>68.016999999999996</v>
+        <f>'Noname co'!F8</f>
+        <v>23.805949999999999</v>
       </c>
       <c r="I8" s="7">
-        <v>80.94</v>
+        <f>'Noname co'!G8</f>
+        <v>28.328999999999997</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.15">
@@ -11104,10 +11109,12 @@
         <v>817</v>
       </c>
       <c r="H9" s="7">
-        <v>2.0539999999999998</v>
+        <f>'Noname co'!F20</f>
+        <v>0.71889999999999821</v>
       </c>
       <c r="I9" s="7">
-        <v>2.3740000000000001</v>
+        <f>'Noname co'!G20</f>
+        <v>0.83089999999999886</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.15">
@@ -11128,12 +11135,12 @@
         <v>1.9</v>
       </c>
       <c r="H10" s="8">
-        <f>H9/1.165327</f>
-        <v>1.7625953916797601</v>
+        <f>H9*inM/'Noname co'!G24</f>
+        <v>1.7625930148455942</v>
       </c>
       <c r="I10" s="8">
-        <f>I9/1.165327</f>
-        <v>2.0371964264107842</v>
+        <f>I9*inM/'Noname co'!G24</f>
+        <v>2.037193679281132</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.15">
@@ -11153,10 +11160,11 @@
         <v>25.76</v>
       </c>
       <c r="H11" s="8">
-        <v>25.87</v>
+        <v>9.0545000000000009</v>
       </c>
       <c r="I11" s="8">
-        <v>32.6</v>
+        <f>'Noname co'!G26</f>
+        <v>11.41</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.15">
@@ -11181,11 +11189,11 @@
       </c>
       <c r="H12" s="13">
         <f>H11/H10</f>
-        <v>14.677219810126584</v>
+        <v>5.137033860759507</v>
       </c>
       <c r="I12" s="13">
-        <f>I11/I10</f>
-        <v>16.002384245998314</v>
+        <f>'Noname co'!G27</f>
+        <v>5.600842038753167</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.15">
@@ -11206,10 +11214,12 @@
         <v>6700.2000000000007</v>
       </c>
       <c r="H14" s="7">
-        <v>35.542000000000002</v>
+        <f>'Noname co'!F65</f>
+        <v>8.5866375000000001</v>
       </c>
       <c r="I14" s="7">
-        <v>42.420999999999999</v>
+        <f>'Noname co'!G65</f>
+        <v>10.257887500000001</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.15">
@@ -11233,12 +11243,12 @@
         <v>3233.8</v>
       </c>
       <c r="H15" s="7">
-        <f>11.296+1.24+18.606</f>
-        <v>31.142000000000003</v>
+        <f>'Noname co'!F58+'Noname co'!F60+'Noname co'!F64</f>
+        <v>10.899350000000002</v>
       </c>
       <c r="I15" s="7">
-        <f>13.442+1.483+22.247</f>
-        <v>37.171999999999997</v>
+        <f>'Noname co'!G58+'Noname co'!G60+'Noname co'!G64</f>
+        <v>13.010199999999999</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.15">
@@ -11263,10 +11273,12 @@
         <v>4708.5</v>
       </c>
       <c r="H17" s="7">
-        <v>14.824</v>
+        <f>'Noname co'!F69</f>
+        <v>5.188505000000001</v>
       </c>
       <c r="I17" s="7">
-        <v>17.199000000000002</v>
+        <f>'Noname co'!G69</f>
+        <v>6.0194049999999999</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.15">
@@ -11291,10 +11303,12 @@
         <v>429.7</v>
       </c>
       <c r="H19" s="9">
-        <v>1.165</v>
+        <f>'Noname co'!G24</f>
+        <v>407865</v>
       </c>
       <c r="I19" s="9">
-        <v>1.165</v>
+        <f>H19</f>
+        <v>407865</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.15">
@@ -11320,12 +11334,12 @@
       </c>
       <c r="G20" s="7"/>
       <c r="H20" s="7">
-        <f>H19*H11</f>
-        <v>30.138550000000002</v>
+        <f>H19*H11/inM</f>
+        <v>3.6930136425000004</v>
       </c>
       <c r="I20" s="7">
-        <f>I19*I11</f>
-        <v>37.979000000000006</v>
+        <f>I19*I11/inM</f>
+        <v>4.6537396500000003</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.15">
@@ -13077,19 +13091,19 @@
         <v>54</v>
       </c>
       <c r="E87" s="156">
-        <f>'Target co'!B48/'Target co'!B7</f>
+        <f>'Target co'!B49/'Target co'!B7</f>
         <v>1.7011882345302255E-2</v>
       </c>
       <c r="F87" s="156">
-        <f>'Target co'!C48/'Target co'!C7</f>
+        <f>'Target co'!C49/'Target co'!C7</f>
         <v>1.7023682392110061E-2</v>
       </c>
       <c r="G87" s="156">
-        <f>'Target co'!D48/'Target co'!D7</f>
+        <f>'Target co'!D49/'Target co'!D7</f>
         <v>1.6982717234757558E-2</v>
       </c>
       <c r="H87" s="156">
-        <f>'Target co'!E48/'Target co'!E7</f>
+        <f>'Target co'!E49/'Target co'!E7</f>
         <v>1.7023457071282166E-2</v>
       </c>
     </row>
@@ -13172,19 +13186,19 @@
         <v>27</v>
       </c>
       <c r="E94" s="162">
-        <f>'Target co'!B46/'Target co'!B8*365</f>
+        <f>'Target co'!B47/'Target co'!B8*365</f>
         <v>30.013654293516733</v>
       </c>
       <c r="F94" s="162">
-        <f>'Target co'!C46/'Target co'!C8*365</f>
+        <f>'Target co'!C47/'Target co'!C8*365</f>
         <v>29.990762349280434</v>
       </c>
       <c r="G94" s="162">
-        <f>'Target co'!D46/'Target co'!D8*365</f>
+        <f>'Target co'!D47/'Target co'!D8*365</f>
         <v>29.997204621692141</v>
       </c>
       <c r="H94" s="162">
-        <f>'Target co'!E46/'Target co'!E8*365</f>
+        <f>'Target co'!E47/'Target co'!E8*365</f>
         <v>29.995145202577458</v>
       </c>
     </row>
@@ -13283,19 +13297,19 @@
         <v>36</v>
       </c>
       <c r="E105" s="121">
-        <f>'Target co'!B7/'Target co'!B41</f>
+        <f>'Target co'!B7/'Target co'!B42</f>
         <v>1.490323204954519</v>
       </c>
       <c r="F105" s="121">
-        <f>'Target co'!C7/'Target co'!C41</f>
+        <f>'Target co'!C7/'Target co'!C42</f>
         <v>1.4624712907671107</v>
       </c>
       <c r="G105" s="121">
-        <f>'Target co'!D7/'Target co'!D41</f>
+        <f>'Target co'!D7/'Target co'!D42</f>
         <v>1.4718247659424133</v>
       </c>
       <c r="H105" s="121">
-        <f>'Target co'!E7/'Target co'!E41</f>
+        <f>'Target co'!E7/'Target co'!E42</f>
         <v>1.4814439946018891</v>
       </c>
     </row>
@@ -13304,20 +13318,20 @@
         <v>37</v>
       </c>
       <c r="E106" s="149">
-        <f>SUM('Target co'!B45,'Target co'!B47,'Target co'!B51)/'Target co'!B58</f>
-        <v>0.21869556802786919</v>
+        <f>SUM('Target co'!B46,'Target co'!B48,'Target co'!B52)/'Target co'!B59</f>
+        <v>7.6543448809754222E-2</v>
       </c>
       <c r="F106" s="149">
-        <f>SUM('Target co'!C45,'Target co'!C47,'Target co'!C51)/'Target co'!C58</f>
-        <v>0.21471225146006959</v>
+        <f>SUM('Target co'!C46,'Target co'!C48,'Target co'!C52)/'Target co'!C59</f>
+        <v>7.5149288011024357E-2</v>
       </c>
       <c r="G106" s="149">
-        <f>SUM('Target co'!D45,'Target co'!D47,'Target co'!D51)/'Target co'!D58</f>
-        <v>0.2160143336613925</v>
+        <f>SUM('Target co'!D46,'Target co'!D48,'Target co'!D52)/'Target co'!D59</f>
+        <v>7.5611695079939936E-2</v>
       </c>
       <c r="H106" s="149">
-        <f>SUM('Target co'!E45,'Target co'!E47,'Target co'!E51)/'Target co'!E58</f>
-        <v>0.2173703489492963</v>
+        <f>SUM('Target co'!E46,'Target co'!E48,'Target co'!E52)/'Target co'!E59</f>
+        <v>7.6079622132253721E-2</v>
       </c>
     </row>
     <row r="107" spans="2:8" ht="17" x14ac:dyDescent="0.15">
@@ -13325,20 +13339,20 @@
         <v>38</v>
       </c>
       <c r="E107" s="121">
-        <f>'Target co'!B58/'Target co'!B56</f>
-        <v>0.4271256495040151</v>
+        <f>'Target co'!B59/'Target co'!B57</f>
+        <v>1.2203589985829002</v>
       </c>
       <c r="F107" s="121">
-        <f>'Target co'!C58/'Target co'!C56</f>
-        <v>0.42562283543738122</v>
+        <f>'Target co'!C59/'Target co'!C57</f>
+        <v>1.2160652441068036</v>
       </c>
       <c r="G107" s="121">
-        <f>'Target co'!D58/'Target co'!D56</f>
-        <v>0.4260967741935483</v>
+        <f>'Target co'!D59/'Target co'!D57</f>
+        <v>1.2173118279569892</v>
       </c>
       <c r="H107" s="121">
-        <f>'Target co'!E58/'Target co'!E56</f>
-        <v>0.42673796791443852</v>
+        <f>'Target co'!E59/'Target co'!E57</f>
+        <v>1.2192513368983957</v>
       </c>
     </row>
     <row r="108" spans="2:8" ht="17" x14ac:dyDescent="0.15">
@@ -13346,19 +13360,19 @@
         <v>46</v>
       </c>
       <c r="E108" s="149">
-        <f>'Target co'!B45/'Target co'!B34</f>
+        <f>'Target co'!B46/'Target co'!B34</f>
         <v>0.2499210110584518</v>
       </c>
       <c r="F108" s="149">
-        <f>'Target co'!C45/'Target co'!C34</f>
+        <f>'Target co'!C46/'Target co'!C34</f>
         <v>0.25007642922653622</v>
       </c>
       <c r="G108" s="149">
-        <f>'Target co'!D45/'Target co'!D34</f>
+        <f>'Target co'!D46/'Target co'!D34</f>
         <v>0.25</v>
       </c>
       <c r="H108" s="149">
-        <f>'Target co'!E45/'Target co'!E34</f>
+        <f>'Target co'!E46/'Target co'!E34</f>
         <v>0.24993072873372124</v>
       </c>
     </row>
@@ -13367,20 +13381,20 @@
         <v>47</v>
       </c>
       <c r="E109" s="149">
-        <f>'Target co'!B52/'Target co'!B58</f>
-        <v>0.51591141585335509</v>
+        <f>'Target co'!B53/'Target co'!B59</f>
+        <v>0.18056899554867428</v>
       </c>
       <c r="F109" s="149">
-        <f>'Target co'!C52/'Target co'!C58</f>
-        <v>0.50764485858652142</v>
+        <f>'Target co'!C53/'Target co'!C59</f>
+        <v>0.17767570050528253</v>
       </c>
       <c r="G109" s="149">
-        <f>'Target co'!D52/'Target co'!D58</f>
-        <v>0.5100058041234512</v>
+        <f>'Target co'!D53/'Target co'!D59</f>
+        <v>0.17851779878102642</v>
       </c>
       <c r="H109" s="149">
-        <f>'Target co'!E52/'Target co'!E58</f>
-        <v>0.51378446115288223</v>
+        <f>'Target co'!E53/'Target co'!E59</f>
+        <v>0.1798245614035088</v>
       </c>
     </row>
     <row r="110" spans="2:8" ht="17" x14ac:dyDescent="0.15">
@@ -13389,19 +13403,19 @@
       </c>
       <c r="E110" s="186">
         <f>1-E109</f>
-        <v>0.48408858414664491</v>
+        <v>0.81943100445132577</v>
       </c>
       <c r="F110" s="186">
         <f t="shared" ref="F110:H110" si="1">1-F109</f>
-        <v>0.49235514141347858</v>
+        <v>0.82232429949471753</v>
       </c>
       <c r="G110" s="186">
         <f t="shared" si="1"/>
-        <v>0.4899941958765488</v>
+        <v>0.82148220121897353</v>
       </c>
       <c r="H110" s="186">
         <f t="shared" si="1"/>
-        <v>0.48621553884711777</v>
+        <v>0.82017543859649122</v>
       </c>
     </row>
     <row r="112" spans="2:8" ht="18" thickBot="1" x14ac:dyDescent="0.2">
@@ -13441,19 +13455,19 @@
         <v>51</v>
       </c>
       <c r="E114" s="149">
-        <f>'Target co'!B15/SUM('Target co'!B45,'Target co'!B47,'Target co'!B51)</f>
+        <f>'Target co'!B15/SUM('Target co'!B46,'Target co'!B48,'Target co'!B52)</f>
         <v>7.2060682680151714E-2</v>
       </c>
       <c r="F114" s="149">
-        <f>'Target co'!C15/SUM('Target co'!C45,'Target co'!C47,'Target co'!C51)</f>
+        <f>'Target co'!C15/SUM('Target co'!C46,'Target co'!C48,'Target co'!C52)</f>
         <v>8.8019559902200492E-2</v>
       </c>
       <c r="G114" s="149">
-        <f>'Target co'!D15/SUM('Target co'!D45,'Target co'!D47,'Target co'!D51)</f>
+        <f>'Target co'!D15/SUM('Target co'!D46,'Target co'!D48,'Target co'!D52)</f>
         <v>7.0093457943925228E-2</v>
       </c>
       <c r="H114" s="149">
-        <f>'Target co'!E15/SUM('Target co'!E45,'Target co'!E47,'Target co'!E51)</f>
+        <f>'Target co'!E15/SUM('Target co'!E46,'Target co'!E48,'Target co'!E52)</f>
         <v>6.9844789356984488E-2</v>
       </c>
     </row>
@@ -13527,7 +13541,7 @@
       </c>
       <c r="C126" s="189">
         <f>Market!I20</f>
-        <v>37.979000000000006</v>
+        <v>4.6537396500000003</v>
       </c>
     </row>
     <row r="127" spans="2:8" ht="18" thickTop="1" x14ac:dyDescent="0.15">
@@ -13554,7 +13568,7 @@
       </c>
       <c r="C129" s="189">
         <f>Market!I15</f>
-        <v>37.171999999999997</v>
+        <v>13.010199999999999</v>
       </c>
     </row>
     <row r="130" spans="2:4" ht="18" thickTop="1" x14ac:dyDescent="0.15">
@@ -13581,7 +13595,7 @@
       </c>
       <c r="C132" s="81">
         <f t="shared" si="2"/>
-        <v>0.97875141525579901</v>
+        <v>2.7956441439520576</v>
       </c>
     </row>
     <row r="134" spans="2:4" ht="17" x14ac:dyDescent="0.15">
@@ -13616,7 +13630,7 @@
       </c>
       <c r="C138" s="189">
         <f t="shared" si="3"/>
-        <v>0.49577467773720663</v>
+        <v>0.27952984296407707</v>
       </c>
     </row>
     <row r="139" spans="2:4" ht="18" thickTop="1" x14ac:dyDescent="0.15">
@@ -13625,7 +13639,7 @@
       </c>
       <c r="C139" s="81">
         <f>AVERAGE(C136:C138)</f>
-        <v>0.48025028085814786</v>
+        <v>0.40816866926710466</v>
       </c>
     </row>
     <row r="143" spans="2:4" ht="18" thickBot="1" x14ac:dyDescent="0.2">
@@ -14630,7 +14644,7 @@
       <c r="B70" s="87" t="s">
         <v>117</v>
       </c>
-      <c r="C70" s="351">
+      <c r="C70" s="340">
         <f>'Noname co'!G24</f>
         <v>407865</v>
       </c>
@@ -14709,7 +14723,7 @@
       </c>
     </row>
     <row r="84" spans="2:10" ht="18" x14ac:dyDescent="0.15">
-      <c r="B84" s="353" t="str">
+      <c r="B84" s="342" t="str">
         <f xml:space="preserve"> "Proposal for " &amp;B83</f>
         <v>Proposal for Target co</v>
       </c>
@@ -14728,7 +14742,7 @@
       <c r="B86" s="87" t="s">
         <v>125</v>
       </c>
-      <c r="C86" s="352">
+      <c r="C86" s="341">
         <v>5.6</v>
       </c>
     </row>
@@ -14751,7 +14765,7 @@
       </c>
     </row>
     <row r="90" spans="2:10" ht="17" x14ac:dyDescent="0.15">
-      <c r="B90" s="354" t="str">
+      <c r="B90" s="343" t="str">
         <f>B83&amp;"future outlook"</f>
         <v>Target cofuture outlook</v>
       </c>
@@ -15318,11 +15332,11 @@
       </c>
       <c r="C127" s="136">
         <f>'Pre-analysis'!C139</f>
-        <v>0.48025028085814786</v>
+        <v>0.40816866926710466</v>
       </c>
       <c r="D127" s="136">
         <f>'Pre-analysis'!C138</f>
-        <v>0.49577467773720663</v>
+        <v>0.27952984296407707</v>
       </c>
     </row>
     <row r="128" spans="2:10" ht="17" x14ac:dyDescent="0.15">
@@ -15330,12 +15344,12 @@
         <v>135</v>
       </c>
       <c r="C128" s="87">
-        <f>'Target co'!E45</f>
+        <f>'Target co'!E46</f>
         <v>0.31569999999999998</v>
       </c>
       <c r="D128" s="87">
         <f>Market!I15</f>
-        <v>37.171999999999997</v>
+        <v>13.010199999999999</v>
       </c>
     </row>
     <row r="129" spans="2:4" ht="17" x14ac:dyDescent="0.15">
@@ -15348,7 +15362,7 @@
       </c>
       <c r="D129" s="87">
         <f>Market!I20</f>
-        <v>37.979000000000006</v>
+        <v>4.6537396500000003</v>
       </c>
     </row>
     <row r="130" spans="2:4" ht="17" x14ac:dyDescent="0.15">
@@ -15372,7 +15386,7 @@
       </c>
       <c r="D131" s="92">
         <f>'Pre-analysis'!C132</f>
-        <v>0.97875141525579901</v>
+        <v>2.7956441439520576</v>
       </c>
     </row>
     <row r="132" spans="2:4" ht="17" x14ac:dyDescent="0.15">
@@ -15381,7 +15395,7 @@
       </c>
       <c r="C132" s="137">
         <f>C127*(1+(1-$D103)*C131)</f>
-        <v>0.50420676570162182</v>
+        <v>0.4285294830523787</v>
       </c>
       <c r="D132" s="108">
         <f>'Pre-analysis'!C123</f>
@@ -15472,11 +15486,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:11" ht="26" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B1" s="337" t="str">
+      <c r="B1" s="344" t="str">
         <f>Input!B2</f>
         <v>Noname co</v>
       </c>
-      <c r="C1" s="337"/>
+      <c r="C1" s="344"/>
     </row>
     <row r="2" spans="2:11" ht="18" x14ac:dyDescent="0.15">
       <c r="B2" s="182"/>
@@ -17037,7 +17051,7 @@
         <v>151</v>
       </c>
       <c r="C88" s="123">
-        <f>'Target co'!E48</f>
+        <f>'Target co'!E49</f>
         <v>0.10464999999999999</v>
       </c>
       <c r="D88" s="104">
@@ -17163,7 +17177,7 @@
         <v>155</v>
       </c>
       <c r="C95" s="104">
-        <f>'Target co'!E46</f>
+        <f>'Target co'!E47</f>
         <v>0.32585000000000003</v>
       </c>
       <c r="D95" s="104">
@@ -17420,7 +17434,7 @@
         <v>162</v>
       </c>
       <c r="C109" s="104">
-        <f>'Target co'!E45</f>
+        <f>'Target co'!E46</f>
         <v>0.31569999999999998</v>
       </c>
       <c r="D109" s="104">
@@ -17467,7 +17481,7 @@
         <v>181</v>
       </c>
       <c r="C111" s="104">
-        <f>'Target co'!E54</f>
+        <f>'Target co'!E55</f>
         <v>1.6043999999999996</v>
       </c>
       <c r="D111" s="104"/>
@@ -17480,7 +17494,7 @@
         <v>182</v>
       </c>
       <c r="C112" s="104">
-        <f>'Target co'!E55</f>
+        <f>'Target co'!E56</f>
         <v>1.7989999999999999</v>
       </c>
       <c r="D112" s="104"/>
@@ -17509,7 +17523,7 @@
       <c r="F115" s="104"/>
       <c r="G115" s="104"/>
     </row>
-    <row r="116" spans="2:7" ht="18" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="2:7" ht="35" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B116" s="107" t="s">
         <v>183</v>
       </c>
@@ -17531,7 +17545,7 @@
       </c>
       <c r="C117" s="156">
         <f>Input!C125+Input!C132*Input!C126</f>
-        <v>7.7794473599113539E-2</v>
+        <v>7.2497063813666524E-2</v>
       </c>
       <c r="D117" s="188">
         <f>Input!D125+Input!D126*Input!D132</f>
@@ -17574,7 +17588,7 @@
       </c>
       <c r="D120" s="194">
         <f>Input!D128/(Input!D128+Input!D129)</f>
-        <v>0.49463080996926179</v>
+        <v>0.73654010700834793</v>
       </c>
     </row>
     <row r="121" spans="2:7" ht="18" thickTop="1" x14ac:dyDescent="0.15">
@@ -17583,11 +17597,11 @@
       </c>
       <c r="C121" s="156">
         <f>C117*(1-C120)+C118*C120*(1-C119)</f>
-        <v>7.6203758439107844E-2</v>
+        <v>7.1245184536973358E-2</v>
       </c>
       <c r="D121" s="156">
         <f>D117*(1-D120)+D118*D120*(1-D119)</f>
-        <v>8.1336797913534098E-2</v>
+        <v>7.1231037029726274E-2</v>
       </c>
     </row>
   </sheetData>
@@ -18280,11 +18294,11 @@
       <c r="C52" s="214"/>
       <c r="D52" s="214">
         <f>Calcul!D121</f>
-        <v>8.1336797913534098E-2</v>
-      </c>
-      <c r="E52" s="340"/>
-      <c r="F52" s="341"/>
-      <c r="G52" s="342"/>
+        <v>7.1231037029726274E-2</v>
+      </c>
+      <c r="E52" s="347"/>
+      <c r="F52" s="348"/>
+      <c r="G52" s="349"/>
       <c r="H52" s="87"/>
       <c r="I52" s="177"/>
       <c r="J52" s="87"/>
@@ -18348,19 +18362,19 @@
       <c r="C55" s="214"/>
       <c r="D55" s="214">
         <f>1/(1+$D52)^D54</f>
-        <v>0.96165547574325327</v>
+        <v>0.96618085236327167</v>
       </c>
       <c r="E55" s="214">
         <f t="shared" ref="E55:G55" si="10">1/(1+$D52)^E54</f>
-        <v>0.8893209567997602</v>
+        <v>0.90193508119617749</v>
       </c>
       <c r="F55" s="214">
         <f t="shared" si="10"/>
-        <v>0.82242734966175823</v>
+        <v>0.84196130434853078</v>
       </c>
       <c r="G55" s="214">
         <f t="shared" si="10"/>
-        <v>0.76056539576628834</v>
+        <v>0.78597545743548758</v>
       </c>
       <c r="H55" s="87"/>
       <c r="I55" s="178"/>
@@ -18374,19 +18388,19 @@
       <c r="C56" s="214"/>
       <c r="D56" s="214">
         <f>D48*D55</f>
-        <v>-2.4744528300064501</v>
+        <v>-2.4860971571763182</v>
       </c>
       <c r="E56" s="214">
         <f t="shared" ref="E56:G56" si="11">E48*E55</f>
-        <v>1.1257745995744681</v>
+        <v>1.1417425813618989</v>
       </c>
       <c r="F56" s="214">
         <f t="shared" si="11"/>
-        <v>1.0899524107080261</v>
+        <v>1.1158405101374353</v>
       </c>
       <c r="G56" s="214">
         <f t="shared" si="11"/>
-        <v>1.0554088568057767</v>
+        <v>1.0906694725094848</v>
       </c>
       <c r="H56" s="87"/>
       <c r="I56" s="178"/>
@@ -18399,12 +18413,12 @@
       </c>
       <c r="C57" s="214">
         <f>SUM(D56:G56)</f>
-        <v>0.79668303708182076</v>
-      </c>
-      <c r="D57" s="340"/>
-      <c r="E57" s="341"/>
-      <c r="F57" s="341"/>
-      <c r="G57" s="342"/>
+        <v>0.8621554068325008</v>
+      </c>
+      <c r="D57" s="347"/>
+      <c r="E57" s="348"/>
+      <c r="F57" s="348"/>
+      <c r="G57" s="349"/>
       <c r="H57" s="87"/>
       <c r="I57" s="178"/>
       <c r="J57" s="87"/>
@@ -18418,12 +18432,12 @@
         <f>IRR(D48:G48)</f>
         <v>0.24954953354154941</v>
       </c>
-      <c r="D58" s="343" t="s">
+      <c r="D58" s="350" t="s">
         <v>220</v>
       </c>
-      <c r="E58" s="344"/>
-      <c r="F58" s="344"/>
-      <c r="G58" s="345"/>
+      <c r="E58" s="351"/>
+      <c r="F58" s="351"/>
+      <c r="G58" s="352"/>
       <c r="H58" s="87"/>
       <c r="I58" s="178"/>
       <c r="J58" s="87"/>
@@ -18985,7 +18999,7 @@
         <v>207</v>
       </c>
       <c r="C90" s="231">
-        <f>-(('Target co'!E34+'Target co'!E35-'Target co'!E46)-('Target co'!D34+'Target co'!D35-'Target co'!D46))</f>
+        <f>-(('Target co'!E34+'Target co'!E35-'Target co'!E47)-('Target co'!D34+'Target co'!D35-'Target co'!D47))</f>
         <v>-9.1000000000000192E-2</v>
       </c>
       <c r="D90" s="225">
@@ -19035,7 +19049,7 @@
         <v>153</v>
       </c>
       <c r="C92" s="232">
-        <f>'Target co'!E48-'Target co'!D48</f>
+        <f>'Target co'!E49-'Target co'!D49</f>
         <v>5.5999999999999939E-3</v>
       </c>
       <c r="D92" s="228">
@@ -19171,7 +19185,7 @@
         <v>242</v>
       </c>
       <c r="C100" s="231">
-        <f>'Target co'!E45-'Target co'!D45</f>
+        <f>'Target co'!E46-'Target co'!D46</f>
         <v>1.6100000000000003E-2</v>
       </c>
       <c r="D100" s="225">
@@ -19552,7 +19566,7 @@
       </c>
       <c r="C120" s="233">
         <f>'Target co'!E37</f>
-        <v>2.4167499999999995</v>
+        <v>2.41675</v>
       </c>
       <c r="D120" s="108">
         <f>SUM(D116:D119)</f>
@@ -19697,7 +19711,7 @@
       </c>
       <c r="C128" s="233">
         <f>SUM(C120,C125)</f>
-        <v>4.1495999999999995</v>
+        <v>4.1496000000000004</v>
       </c>
       <c r="D128" s="108">
         <f>SUM(D120,D125)</f>
@@ -19771,7 +19785,7 @@
         <v>266</v>
       </c>
       <c r="C134" s="233">
-        <f>'Target co'!E45</f>
+        <f>'Target co'!E46</f>
         <v>0.31569999999999998</v>
       </c>
       <c r="D134" s="108">
@@ -19797,7 +19811,7 @@
         <v>267</v>
       </c>
       <c r="C135" s="233">
-        <f>'Target co'!E46</f>
+        <f>'Target co'!E47</f>
         <v>0.32585000000000003</v>
       </c>
       <c r="D135" s="108">
@@ -19823,7 +19837,7 @@
         <v>268</v>
       </c>
       <c r="C136" s="233">
-        <f>'Target co'!E47</f>
+        <f>'Target co'!E48</f>
         <v>0</v>
       </c>
       <c r="D136" s="108">
@@ -19845,7 +19859,7 @@
         <v>269</v>
       </c>
       <c r="C137" s="233">
-        <f>'Target co'!E48</f>
+        <f>'Target co'!E49</f>
         <v>0.10464999999999999</v>
       </c>
       <c r="D137" s="108">
@@ -19871,7 +19885,7 @@
         <v>270</v>
       </c>
       <c r="C138" s="233">
-        <f>'Target co'!E49</f>
+        <f>'Target co'!E50</f>
         <v>0.74620000000000009</v>
       </c>
       <c r="D138" s="108">
@@ -19906,7 +19920,7 @@
         <v>271</v>
       </c>
       <c r="C140" s="233">
-        <f>'Target co'!E51</f>
+        <f>'Target co'!E52</f>
         <v>0</v>
       </c>
       <c r="D140" s="108">
@@ -19928,7 +19942,7 @@
         <v>272</v>
       </c>
       <c r="C141" s="233">
-        <f>'Target co'!E52</f>
+        <f>'Target co'!E53</f>
         <v>0.74620000000000009</v>
       </c>
       <c r="D141" s="108">
@@ -19963,7 +19977,7 @@
         <v>273</v>
       </c>
       <c r="C143" s="233">
-        <f>'Target co'!E54</f>
+        <f>'Target co'!E55</f>
         <v>1.6043999999999996</v>
       </c>
       <c r="D143" s="108">
@@ -19989,7 +20003,7 @@
         <v>274</v>
       </c>
       <c r="C144" s="233">
-        <f>'Target co'!E55</f>
+        <f>'Target co'!E56</f>
         <v>1.7989999999999999</v>
       </c>
       <c r="D144" s="108">
@@ -20015,8 +20029,8 @@
         <v>275</v>
       </c>
       <c r="C145" s="233">
-        <f>'Target co'!E56</f>
-        <v>3.4034</v>
+        <f>'Target co'!E57</f>
+        <v>3.4033999999999995</v>
       </c>
       <c r="D145" s="108">
         <f>SUM(D143:D144)</f>
@@ -20050,8 +20064,8 @@
         <v>276</v>
       </c>
       <c r="C147" s="233">
-        <f>'Target co'!E58</f>
-        <v>1.4523600000000001</v>
+        <f>'Target co'!E59</f>
+        <v>4.1495999999999995</v>
       </c>
       <c r="D147" s="108">
         <f>SUM(D141,D145)</f>
@@ -20148,12 +20162,12 @@
       </c>
       <c r="C153" s="216">
         <f>Calcul!C121</f>
-        <v>7.6203758439107844E-2</v>
+        <v>7.1245184536973358E-2</v>
       </c>
       <c r="D153" s="207"/>
-      <c r="E153" s="338"/>
-      <c r="F153" s="338"/>
-      <c r="G153" s="338"/>
+      <c r="E153" s="345"/>
+      <c r="F153" s="345"/>
+      <c r="G153" s="345"/>
     </row>
     <row r="154" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B154" s="213" t="s">
@@ -20196,32 +20210,32 @@
       <c r="C156" s="214"/>
       <c r="D156" s="214">
         <f>1/(1+$C153)^D155</f>
-        <v>0.96394609383295582</v>
+        <v>0.96617447235991727</v>
       </c>
       <c r="E156" s="214">
         <f>1/(1+$C153)^E155</f>
-        <v>0.89569106804740495</v>
+        <v>0.90191721401065517</v>
       </c>
       <c r="F156" s="214">
         <f>1/(1+$C153)^F155</f>
-        <v>0.83226903922588713</v>
+        <v>0.8419335060073041</v>
       </c>
       <c r="G156" s="214">
         <f>1/(1+$C153)^G155</f>
-        <v>0.77333779286645876</v>
+        <v>0.78593912781154285</v>
       </c>
     </row>
     <row r="157" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B157" s="213" t="s">
         <v>280</v>
       </c>
-      <c r="C157" s="340"/>
-      <c r="D157" s="341"/>
-      <c r="E157" s="341"/>
-      <c r="F157" s="342"/>
+      <c r="C157" s="347"/>
+      <c r="D157" s="348"/>
+      <c r="E157" s="348"/>
+      <c r="F157" s="349"/>
       <c r="G157" s="214">
         <f>G152*(1+C154)/(C153-C154)</f>
-        <v>9.7250024773249955</v>
+        <v>11.799502828378595</v>
       </c>
     </row>
     <row r="158" spans="2:9" x14ac:dyDescent="0.2">
@@ -20231,19 +20245,19 @@
       <c r="C158" s="214"/>
       <c r="D158" s="214">
         <f>D152*D156</f>
-        <v>-9.8043810016366431E-2</v>
+        <v>-9.8270460367812146E-2</v>
       </c>
       <c r="E158" s="214">
         <f t="shared" ref="E158:F158" si="40">E152*E156</f>
-        <v>0.20261583566413566</v>
+        <v>0.20402426298055504</v>
       </c>
       <c r="F158" s="214">
         <f t="shared" si="40"/>
-        <v>0.20126556963761319</v>
+        <v>0.2036027038097733</v>
       </c>
       <c r="G158" s="214">
         <f>(G152+G157)*G156</f>
-        <v>7.7231092254509992</v>
+        <v>9.479386245648751</v>
       </c>
     </row>
     <row r="159" spans="2:9" x14ac:dyDescent="0.2">
@@ -20252,12 +20266,12 @@
       </c>
       <c r="C159" s="214">
         <f>SUM(D158:G158)</f>
-        <v>8.0289468207363814</v>
-      </c>
-      <c r="D159" s="338"/>
-      <c r="E159" s="338"/>
-      <c r="F159" s="338"/>
-      <c r="G159" s="338"/>
+        <v>9.7887427520712667</v>
+      </c>
+      <c r="D159" s="345"/>
+      <c r="E159" s="345"/>
+      <c r="F159" s="345"/>
+      <c r="G159" s="345"/>
     </row>
     <row r="160" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B160" s="213" t="s">
@@ -20278,15 +20292,15 @@
       </c>
       <c r="C161" s="218">
         <f>C159-C160</f>
-        <v>7.7132468207363818</v>
-      </c>
-      <c r="D161" s="339" t="str">
+        <v>9.473042752071267</v>
+      </c>
+      <c r="D161" s="346" t="str">
         <f>"Greater than "  &amp;Input!C85</f>
         <v>Greater than 1.617</v>
       </c>
-      <c r="E161" s="339"/>
-      <c r="F161" s="339"/>
-      <c r="G161" s="339"/>
+      <c r="E161" s="346"/>
+      <c r="F161" s="346"/>
+      <c r="G161" s="346"/>
     </row>
     <row r="164" spans="2:7" ht="17" x14ac:dyDescent="0.15">
       <c r="B164" s="81" t="s">
@@ -20330,7 +20344,7 @@
       </c>
       <c r="C168" s="273">
         <f>C145</f>
-        <v>3.4034</v>
+        <v>3.4033999999999995</v>
       </c>
     </row>
     <row r="169" spans="2:7" ht="17" x14ac:dyDescent="0.15">
@@ -20339,7 +20353,7 @@
       </c>
       <c r="C169" s="123">
         <f>C167-C168</f>
-        <v>1.2166002800000002</v>
+        <v>1.2166002800000006</v>
       </c>
     </row>
     <row r="170" spans="2:7" ht="17" x14ac:dyDescent="0.15">
@@ -20908,15 +20922,15 @@
       </c>
     </row>
     <row r="3" spans="2:12" ht="16" x14ac:dyDescent="0.15">
-      <c r="B3" s="346" t="s">
+      <c r="B3" s="353" t="s">
         <v>290</v>
       </c>
-      <c r="C3" s="346"/>
-      <c r="D3" s="346"/>
-      <c r="E3" s="346"/>
-      <c r="F3" s="346"/>
-      <c r="G3" s="346"/>
-      <c r="H3" s="346"/>
+      <c r="C3" s="353"/>
+      <c r="D3" s="353"/>
+      <c r="E3" s="353"/>
+      <c r="F3" s="353"/>
+      <c r="G3" s="353"/>
+      <c r="H3" s="353"/>
       <c r="I3" s="110"/>
       <c r="J3" s="110"/>
       <c r="K3" s="110"/>
@@ -22804,7 +22818,7 @@
   </sheetPr>
   <dimension ref="B1:L91"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <pane ySplit="9" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="J17" sqref="J17"/>
     </sheetView>
@@ -22880,7 +22894,7 @@
       <c r="K5" s="326" t="s">
         <v>297</v>
       </c>
-      <c r="L5" s="347" t="s">
+      <c r="L5" s="354" t="s">
         <v>298</v>
       </c>
     </row>
@@ -22906,7 +22920,7 @@
       <c r="K6" s="329" t="s">
         <v>300</v>
       </c>
-      <c r="L6" s="347"/>
+      <c r="L6" s="354"/>
     </row>
     <row r="7" spans="2:12" s="264" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="B7" s="320" t="s">
@@ -22987,7 +23001,7 @@
       </c>
       <c r="C13" s="258">
         <f>Calcul!D121</f>
-        <v>8.1336797913534098E-2</v>
+        <v>7.1231037029726274E-2</v>
       </c>
       <c r="D13" s="272"/>
       <c r="E13" s="272"/>
@@ -23021,19 +23035,19 @@
       </c>
       <c r="D15" s="272">
         <f>1/(1+$C$13)^D14</f>
-        <v>0.96165547574325327</v>
+        <v>0.96618085236327167</v>
       </c>
       <c r="E15" s="272">
         <f t="shared" ref="E15:G15" si="1">1/(1+$C$13)^E14</f>
-        <v>0.8893209567997602</v>
+        <v>0.90193508119617749</v>
       </c>
       <c r="F15" s="272">
         <f t="shared" si="1"/>
-        <v>0.82242734966175823</v>
+        <v>0.84196130434853078</v>
       </c>
       <c r="G15" s="272">
         <f t="shared" si="1"/>
-        <v>0.76056539576628834</v>
+        <v>0.78597545743548758</v>
       </c>
       <c r="H15" s="259"/>
       <c r="I15" s="259"/>
@@ -23045,19 +23059,19 @@
       </c>
       <c r="D16" s="272">
         <f>D15*D12</f>
-        <v>-0.16133274283029128</v>
+        <v>-0.16209194551863804</v>
       </c>
       <c r="E16" s="272">
         <f t="shared" ref="E16:G16" si="2">E15*E12</f>
-        <v>-8.4533373321316857E-2</v>
+        <v>-8.573239430307919E-2</v>
       </c>
       <c r="F16" s="272">
         <f t="shared" si="2"/>
-        <v>8.19061836484693E-2</v>
+        <v>8.385158548926859E-2</v>
       </c>
       <c r="G16" s="272">
         <f t="shared" si="2"/>
-        <v>0.41529312953102088</v>
+        <v>0.42916783917587126</v>
       </c>
       <c r="H16" s="260"/>
       <c r="I16" s="260"/>
@@ -23069,7 +23083,7 @@
       </c>
       <c r="C17" s="289">
         <f>SUM(D16:G16)</f>
-        <v>0.25133319702788204</v>
+        <v>0.26519508484342263</v>
       </c>
     </row>
     <row r="20" spans="2:9" ht="18" x14ac:dyDescent="0.2">

--- a/NoName Co Modelling.xlsx
+++ b/NoName Co Modelling.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/eliediwa/Desktop/UGENT/FM/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{296C10E9-809D-7B41-864B-C93257ED7A6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{603374FE-6026-8548-B862-FE0E4F7AE6B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16360" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16360" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Start here" sheetId="25" r:id="rId1"/>
@@ -4148,7 +4148,7 @@
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0" formatCode="0.00%">
-                  <c:v>2.9330368173955981E-2</c:v>
+                  <c:v>2.933036817395587E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>2.8956627568471224E-2</c:v>
@@ -4225,7 +4225,7 @@
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0" formatCode="0.00%">
-                  <c:v>3.9818852733981829E-2</c:v>
+                  <c:v>3.9818852733981683E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>4.0568900897432432E-2</c:v>
@@ -4302,7 +4302,7 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.1380368989958308</c:v>
+                  <c:v>0.13803689899583027</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.1354862993672972</c:v>
@@ -4654,13 +4654,13 @@
                   <c:v>0.28846528010734651</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.58680746888674684</c:v>
+                  <c:v>0.40540992881052285</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.27284577695869094</c:v>
+                  <c:v>0.27284577695869056</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.40670016750418742</c:v>
+                  <c:v>0.4067001675041868</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0.43674941294867492</c:v>
@@ -5440,7 +5440,7 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>2.704136455347331</c:v>
+                  <c:v>3.466639144566614</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>3.3396591075966766</c:v>
@@ -8656,8 +8656,8 @@
   </sheetPr>
   <dimension ref="A1:O76"/>
   <sheetViews>
-    <sheetView showOutlineSymbols="0" topLeftCell="A4" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+    <sheetView tabSelected="1" showOutlineSymbols="0" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.75" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
@@ -8824,19 +8824,24 @@
       </c>
       <c r="B10" s="18"/>
       <c r="C10" s="52">
-        <v>6.7885999999999997</v>
+        <f>C8-C9</f>
+        <v>6.7886000000000006</v>
       </c>
       <c r="D10" s="52">
-        <v>7.8067499999999992</v>
+        <f t="shared" ref="D10:G10" si="0">D8-D9</f>
+        <v>7.806750000000001</v>
       </c>
       <c r="E10" s="52">
-        <v>8.5091999999999981</v>
+        <f t="shared" si="0"/>
+        <v>8.5091999999999963</v>
       </c>
       <c r="F10" s="52">
-        <v>9.8794499999999985</v>
+        <f t="shared" si="0"/>
+        <v>9.8794500000000003</v>
       </c>
       <c r="G10" s="52">
-        <v>11.6998</v>
+        <f t="shared" si="0"/>
+        <v>11.699799999999996</v>
       </c>
       <c r="H10" s="76"/>
       <c r="I10" s="337"/>
@@ -8920,19 +8925,24 @@
         <v>228</v>
       </c>
       <c r="C14" s="52">
-        <v>1.3093499999999998</v>
+        <f>C10-SUM(C12:C13)</f>
+        <v>1.3093500000000002</v>
       </c>
       <c r="D14" s="52">
-        <v>1.4682499999999989</v>
+        <f t="shared" ref="D14:G14" si="1">D10-SUM(D12:D13)</f>
+        <v>1.4682500000000003</v>
       </c>
       <c r="E14" s="52">
-        <v>1.5802500000000002</v>
+        <f t="shared" si="1"/>
+        <v>1.5802499999999977</v>
       </c>
       <c r="F14" s="52">
-        <v>1.8329499999999981</v>
+        <f t="shared" si="1"/>
+        <v>1.8329499999999985</v>
       </c>
       <c r="G14" s="52">
-        <v>2.1244999999999989</v>
+        <f t="shared" si="1"/>
+        <v>2.1244999999999958</v>
       </c>
       <c r="I14" s="337"/>
       <c r="J14" s="337"/>
@@ -8983,19 +8993,24 @@
         <v>230</v>
       </c>
       <c r="C17" s="52">
-        <v>0.29224999999999984</v>
+        <f>C14-C16</f>
+        <v>0.29225000000000012</v>
       </c>
       <c r="D17" s="52">
-        <v>0.43924999999999886</v>
+        <f t="shared" ref="D17:G17" si="2">D14-D16</f>
+        <v>0.43925000000000036</v>
       </c>
       <c r="E17" s="52">
-        <v>0.64645000000000008</v>
+        <f t="shared" si="2"/>
+        <v>0.64644999999999764</v>
       </c>
       <c r="F17" s="52">
-        <v>0.98489999999999822</v>
+        <f t="shared" si="2"/>
+        <v>0.98489999999999855</v>
       </c>
       <c r="G17" s="52">
-        <v>1.1385499999999988</v>
+        <f t="shared" si="2"/>
+        <v>1.1385499999999957</v>
       </c>
       <c r="I17" s="337"/>
       <c r="J17" s="337"/>
@@ -9047,19 +9062,24 @@
       </c>
       <c r="B20" s="18"/>
       <c r="C20" s="54">
-        <v>0.21349999999999986</v>
+        <f>C17-C19</f>
+        <v>0.21350000000000013</v>
       </c>
       <c r="D20" s="54">
-        <v>0.32059999999999889</v>
+        <f t="shared" ref="D20:G20" si="3">D17-D19</f>
+        <v>0.32060000000000033</v>
       </c>
       <c r="E20" s="54">
-        <v>0.47180000000000011</v>
+        <f t="shared" si="3"/>
+        <v>0.47179999999999767</v>
       </c>
       <c r="F20" s="54">
-        <v>0.71889999999999821</v>
+        <f t="shared" si="3"/>
+        <v>0.71889999999999854</v>
       </c>
       <c r="G20" s="54">
-        <v>0.83089999999999886</v>
+        <f t="shared" si="3"/>
+        <v>0.83089999999999575</v>
       </c>
       <c r="I20" s="337"/>
       <c r="J20" s="337"/>
@@ -9090,15 +9110,15 @@
         <v>0.14999999999999991</v>
       </c>
       <c r="E22" s="71">
-        <f t="shared" ref="E22:G22" si="0">E8/D8-1</f>
+        <f t="shared" ref="E22:G22" si="4">E8/D8-1</f>
         <v>9.0006967066488253E-2</v>
       </c>
       <c r="F22" s="71">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0.17499611311693486</v>
       </c>
       <c r="G22" s="71">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0.18999661849243554</v>
       </c>
       <c r="H22" s="72"/>
@@ -9153,7 +9173,7 @@
       <c r="F25" s="46"/>
       <c r="G25" s="59">
         <f>G20/(G24/inM)</f>
-        <v>2.037193679281132</v>
+        <v>2.0371936792811245</v>
       </c>
       <c r="H25" s="72"/>
       <c r="I25" s="337"/>
@@ -9192,7 +9212,7 @@
       <c r="F27" s="45"/>
       <c r="G27" s="45">
         <f>G26/G25</f>
-        <v>5.600842038753167</v>
+        <v>5.6008420387531874</v>
       </c>
       <c r="H27" s="72"/>
       <c r="I27" s="337"/>
@@ -9680,15 +9700,15 @@
         <v>0.10593104950710752</v>
       </c>
       <c r="E53" s="49">
-        <f t="shared" ref="E53:G53" si="1">E51/D51-1</f>
+        <f t="shared" ref="E53:G53" si="5">E51/D51-1</f>
         <v>8.5738205456515226E-2</v>
       </c>
       <c r="F53" s="49">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0.14221889599491977</v>
       </c>
       <c r="G53" s="49">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0.18375856249379541</v>
       </c>
       <c r="H53" s="14"/>
@@ -9946,19 +9966,24 @@
       </c>
       <c r="B65" s="18"/>
       <c r="C65" s="54">
-        <v>6.5329600000000001</v>
+        <f>SUM(C62:C64)</f>
+        <v>9.1756000000000011</v>
       </c>
       <c r="D65" s="54">
-        <v>7.1916600000000006</v>
+        <f t="shared" ref="D65:G65" si="6">SUM(D62:D64)</f>
+        <v>10.2165</v>
       </c>
       <c r="E65" s="54">
-        <v>7.6732949999999986</v>
+        <f t="shared" si="6"/>
+        <v>10.9634</v>
       </c>
       <c r="F65" s="54">
-        <v>8.5866375000000001</v>
+        <f t="shared" si="6"/>
+        <v>12.439350000000001</v>
       </c>
       <c r="G65" s="54">
-        <v>10.257887500000001</v>
+        <f t="shared" si="6"/>
+        <v>14.8477</v>
       </c>
       <c r="H65" s="14"/>
       <c r="I65" s="337"/>
@@ -10041,18 +10066,23 @@
       </c>
       <c r="B69" s="18"/>
       <c r="C69" s="54">
+        <f>SUM(C67:C68)</f>
         <v>3.6772049999999998</v>
       </c>
       <c r="D69" s="54">
-        <v>3.9978049999999996</v>
+        <f t="shared" ref="D69:G69" si="7">SUM(D67:D68)</f>
+        <v>3.9978050000000001</v>
       </c>
       <c r="E69" s="54">
+        <f t="shared" si="7"/>
         <v>4.4696049999999996</v>
       </c>
       <c r="F69" s="54">
-        <v>5.188505000000001</v>
+        <f t="shared" si="7"/>
+        <v>5.1885050000000001</v>
       </c>
       <c r="G69" s="54">
+        <f t="shared" si="7"/>
         <v>6.0194049999999999</v>
       </c>
       <c r="H69" s="14"/>
@@ -10083,19 +10113,24 @@
       </c>
       <c r="B71" s="18"/>
       <c r="C71" s="52">
-        <v>10.210165</v>
+        <f>C69+C65</f>
+        <v>12.852805</v>
       </c>
       <c r="D71" s="52">
-        <v>11.189465</v>
+        <f t="shared" ref="D71:G71" si="8">D69+D65</f>
+        <v>14.214305</v>
       </c>
       <c r="E71" s="52">
-        <v>12.142899999999999</v>
+        <f t="shared" si="8"/>
+        <v>15.433005</v>
       </c>
       <c r="F71" s="52">
-        <v>13.775142500000001</v>
+        <f t="shared" si="8"/>
+        <v>17.627855</v>
       </c>
       <c r="G71" s="52">
-        <v>16.277292500000001</v>
+        <f t="shared" si="8"/>
+        <v>20.867104999999999</v>
       </c>
       <c r="H71" s="14"/>
       <c r="I71" s="337"/>
@@ -10154,7 +10189,7 @@
   </sheetPr>
   <dimension ref="A1:J64"/>
   <sheetViews>
-    <sheetView topLeftCell="A38" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <selection activeCell="J59" sqref="J59"/>
     </sheetView>
   </sheetViews>
@@ -10974,7 +11009,7 @@
   <sheetPr codeName="Sheet12"/>
   <dimension ref="A1:I41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView topLeftCell="A10" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <selection activeCell="N23" sqref="N23"/>
     </sheetView>
   </sheetViews>
@@ -11110,11 +11145,11 @@
       </c>
       <c r="H9" s="7">
         <f>'Noname co'!F20</f>
-        <v>0.71889999999999821</v>
+        <v>0.71889999999999854</v>
       </c>
       <c r="I9" s="7">
         <f>'Noname co'!G20</f>
-        <v>0.83089999999999886</v>
+        <v>0.83089999999999575</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.15">
@@ -11136,11 +11171,11 @@
       </c>
       <c r="H10" s="8">
         <f>H9*inM/'Noname co'!G24</f>
-        <v>1.7625930148455942</v>
+        <v>1.7625930148455946</v>
       </c>
       <c r="I10" s="8">
         <f>I9*inM/'Noname co'!G24</f>
-        <v>2.037193679281132</v>
+        <v>2.0371936792811245</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.15">
@@ -11189,11 +11224,11 @@
       </c>
       <c r="H12" s="13">
         <f>H11/H10</f>
-        <v>5.137033860759507</v>
+        <v>5.1370338607595052</v>
       </c>
       <c r="I12" s="13">
         <f>'Noname co'!G27</f>
-        <v>5.600842038753167</v>
+        <v>5.6008420387531874</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.15">
@@ -11215,11 +11250,11 @@
       </c>
       <c r="H14" s="7">
         <f>'Noname co'!F65</f>
-        <v>8.5866375000000001</v>
+        <v>12.439350000000001</v>
       </c>
       <c r="I14" s="7">
         <f>'Noname co'!G65</f>
-        <v>10.257887500000001</v>
+        <v>14.8477</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.15">
@@ -11274,7 +11309,7 @@
       </c>
       <c r="H17" s="7">
         <f>'Noname co'!F69</f>
-        <v>5.188505000000001</v>
+        <v>5.1885050000000001</v>
       </c>
       <c r="I17" s="7">
         <f>'Noname co'!G69</f>
@@ -11603,23 +11638,23 @@
       <c r="C7" s="88"/>
       <c r="D7" s="90">
         <f>'Noname co'!C10/'Noname co'!C$8</f>
-        <v>0.4200086617583369</v>
+        <v>0.42000866175833695</v>
       </c>
       <c r="E7" s="90">
         <f>'Noname co'!D10/'Noname co'!D$8</f>
-        <v>0.42000112979456561</v>
+        <v>0.42000112979456572</v>
       </c>
       <c r="F7" s="90">
         <f>'Noname co'!E10/'Noname co'!E$8</f>
-        <v>0.41999067148064323</v>
+        <v>0.41999067148064317</v>
       </c>
       <c r="G7" s="90">
         <f>'Noname co'!F10/'Noname co'!F$8</f>
-        <v>0.4149991913786259</v>
+        <v>0.41499919137862595</v>
       </c>
       <c r="H7" s="90">
         <f>'Noname co'!G10/'Noname co'!G$8</f>
-        <v>0.4129972819372375</v>
+        <v>0.41299728193723739</v>
       </c>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.15">
@@ -11693,23 +11728,23 @@
       <c r="C11" s="84"/>
       <c r="D11" s="143">
         <f>'Noname co'!C14/'Noname co'!C$8</f>
-        <v>8.1009094846253779E-2</v>
+        <v>8.1009094846253807E-2</v>
       </c>
       <c r="E11" s="143">
         <f>'Noname co'!D14/'Noname co'!D$8</f>
-        <v>7.8991470051028995E-2</v>
+        <v>7.8991470051029064E-2</v>
       </c>
       <c r="F11" s="143">
         <f>'Noname co'!E14/'Noname co'!E$8</f>
-        <v>7.7996786843332708E-2</v>
+        <v>7.7996786843332597E-2</v>
       </c>
       <c r="G11" s="143">
         <f>'Noname co'!F14/'Noname co'!F$8</f>
-        <v>7.6995457018098332E-2</v>
+        <v>7.6995457018098359E-2</v>
       </c>
       <c r="H11" s="143">
         <f>'Noname co'!G14/'Noname co'!G$8</f>
-        <v>7.4993822584630568E-2</v>
+        <v>7.4993822584630457E-2</v>
       </c>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.15">
@@ -11756,23 +11791,23 @@
       <c r="C14" s="84"/>
       <c r="D14" s="143">
         <f>'Noname co'!C17/'Noname co'!C$8</f>
-        <v>1.808142052836725E-2</v>
+        <v>1.8081420528367267E-2</v>
       </c>
       <c r="E14" s="143">
         <f>'Noname co'!D17/'Noname co'!D$8</f>
-        <v>2.3631536332310181E-2</v>
+        <v>2.3631536332310261E-2</v>
       </c>
       <c r="F14" s="143">
         <f>'Noname co'!E17/'Noname co'!E$8</f>
-        <v>3.1906991207006762E-2</v>
+        <v>3.1906991207006637E-2</v>
       </c>
       <c r="G14" s="143">
         <f>'Noname co'!F17/'Noname co'!F$8</f>
-        <v>4.1372009938691723E-2</v>
+        <v>4.1372009938691737E-2</v>
       </c>
       <c r="H14" s="143">
         <f>'Noname co'!G17/'Noname co'!G$8</f>
-        <v>4.0190264393377771E-2</v>
+        <v>4.0190264393377667E-2</v>
       </c>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.15">
@@ -11819,23 +11854,23 @@
       <c r="C17" s="84"/>
       <c r="D17" s="143">
         <f>'Noname co'!C20/'Noname co'!C$8</f>
-        <v>1.320918146383715E-2</v>
+        <v>1.3209181463837167E-2</v>
       </c>
       <c r="E17" s="143">
         <f>'Noname co'!D20/'Noname co'!D$8</f>
-        <v>1.7248197036172197E-2</v>
+        <v>1.7248197036172273E-2</v>
       </c>
       <c r="F17" s="143">
         <f>'Noname co'!E20/'Noname co'!E$8</f>
-        <v>2.328674832000277E-2</v>
+        <v>2.3286748320002649E-2</v>
       </c>
       <c r="G17" s="143">
         <f>'Noname co'!F20/'Noname co'!F$8</f>
-        <v>3.0198332769748665E-2</v>
+        <v>3.0198332769748679E-2</v>
       </c>
       <c r="H17" s="143">
         <f>'Noname co'!G20/'Noname co'!G$8</f>
-        <v>2.9330368173955981E-2</v>
+        <v>2.933036817395587E-2</v>
       </c>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.15">
@@ -11854,23 +11889,23 @@
       <c r="C19" s="84"/>
       <c r="D19" s="164">
         <f>'Noname co'!C19/'Noname co'!C17</f>
-        <v>0.2694610778443115</v>
+        <v>0.26946107784431128</v>
       </c>
       <c r="E19" s="164">
         <f>'Noname co'!D19/'Noname co'!D17</f>
-        <v>0.27011952191235133</v>
+        <v>0.27011952191235039</v>
       </c>
       <c r="F19" s="164">
         <f>'Noname co'!E19/'Noname co'!E17</f>
-        <v>0.2701678397401191</v>
+        <v>0.2701678397401201</v>
       </c>
       <c r="G19" s="164">
         <f>'Noname co'!F19/'Noname co'!F17</f>
-        <v>0.27007818052594224</v>
+        <v>0.27007818052594212</v>
       </c>
       <c r="H19" s="164">
         <f>'Noname co'!G19/'Noname co'!G17</f>
-        <v>0.27021211189671102</v>
+        <v>0.27021211189671179</v>
       </c>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.15">
@@ -12218,7 +12253,7 @@
       </c>
       <c r="E37" s="145">
         <f>'Noname co'!D51/'Noname co'!D69</f>
-        <v>3.5555010812183188</v>
+        <v>3.5555010812183183</v>
       </c>
       <c r="F37" s="145">
         <f>'Noname co'!E51/'Noname co'!E69</f>
@@ -12226,7 +12261,7 @@
       </c>
       <c r="G37" s="145">
         <f>'Noname co'!F51/'Noname co'!F69</f>
-        <v>3.3974622747785723</v>
+        <v>3.3974622747785728</v>
       </c>
       <c r="H37" s="145">
         <f>'Noname co'!G51/'Noname co'!G69</f>
@@ -12327,7 +12362,7 @@
       </c>
       <c r="I41" s="299">
         <f t="shared" si="0"/>
-        <v>1.2640063704503213E-2</v>
+        <v>1.2640063704502769E-2</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.15">
@@ -12337,23 +12372,23 @@
       <c r="C42" s="84"/>
       <c r="D42" s="164">
         <f>'Noname co'!C14/('Noname co'!C64+'Noname co'!C60)</f>
-        <v>0.24022346368715078</v>
+        <v>0.24022346368715086</v>
       </c>
       <c r="E42" s="164">
         <f>'Noname co'!D14/('Noname co'!D64+'Noname co'!D60)</f>
-        <v>0.24743423380913043</v>
+        <v>0.24743423380913065</v>
       </c>
       <c r="F42" s="164">
         <f>'Noname co'!E14/('Noname co'!E64+'Noname co'!E60)</f>
-        <v>0.25102857778271992</v>
+        <v>0.25102857778271953</v>
       </c>
       <c r="G42" s="164">
         <f>'Noname co'!F14/('Noname co'!F64+'Noname co'!F60)</f>
-        <v>0.26388189055729083</v>
+        <v>0.26388189055729089</v>
       </c>
       <c r="H42" s="164">
         <f>'Noname co'!G14/('Noname co'!G64+'Noname co'!G60)</f>
-        <v>0.25579435313948579</v>
+        <v>0.25579435313948545</v>
       </c>
       <c r="I42" s="299">
         <f t="shared" si="0"/>
@@ -12503,27 +12538,27 @@
       </c>
       <c r="D49" s="149">
         <f>'Noname co'!C65/'Noname co'!C71</f>
-        <v>0.63984862144735177</v>
+        <v>0.71389863924645247</v>
       </c>
       <c r="E49" s="149">
         <f>'Noname co'!D65/'Noname co'!D71</f>
-        <v>0.6427170557305466</v>
+        <v>0.71874776853317834</v>
       </c>
       <c r="F49" s="149">
         <f>'Noname co'!E65/'Noname co'!E71</f>
-        <v>0.63191618147230066</v>
+        <v>0.71038660325711034</v>
       </c>
       <c r="G49" s="149">
         <f>'Noname co'!F65/'Noname co'!F71</f>
-        <v>0.62334291641629114</v>
+        <v>0.70566441577832362</v>
       </c>
       <c r="H49" s="149">
         <f>'Noname co'!G65/'Noname co'!G71</f>
-        <v>0.63019617666758765</v>
+        <v>0.71153617140470615</v>
       </c>
       <c r="I49" s="299">
         <f>(H49/D49)^(1/5)-1</f>
-        <v>-3.0354749891855493E-3</v>
+        <v>-6.6272748885465305E-4</v>
       </c>
     </row>
     <row r="50" spans="2:9" ht="17" customHeight="1" x14ac:dyDescent="0.15">
@@ -12541,23 +12576,23 @@
       <c r="C51" s="124"/>
       <c r="D51" s="311">
         <f>'Noname co'!C14/'Noname co'!C51</f>
-        <v>0.1018735362997658</v>
+        <v>0.10187353629976584</v>
       </c>
       <c r="E51" s="311">
         <f>'Noname co'!D14/'Noname co'!D51</f>
-        <v>0.10329459273121237</v>
+        <v>0.10329459273121247</v>
       </c>
       <c r="F51" s="311">
         <f>'Noname co'!E14/'Noname co'!E51</f>
-        <v>0.1023948836576405</v>
+        <v>0.10239488365764035</v>
       </c>
       <c r="G51" s="311">
         <f>'Noname co'!F14/'Noname co'!F51</f>
-        <v>0.1039809391442469</v>
+        <v>0.10398093914424691</v>
       </c>
       <c r="H51" s="311">
         <f>'Noname co'!G14/'Noname co'!G51</f>
-        <v>0.10181147266018109</v>
+        <v>0.10181147266018094</v>
       </c>
       <c r="I51" s="299"/>
     </row>
@@ -12592,27 +12627,27 @@
       <c r="C54" s="84"/>
       <c r="D54" s="145">
         <f>'Noname co'!C14/'Noname co'!C16</f>
-        <v>1.2873365450791463</v>
+        <v>1.2873365450791467</v>
       </c>
       <c r="E54" s="145">
         <f>'Noname co'!D14/'Noname co'!D16</f>
-        <v>1.4268707482993188</v>
+        <v>1.4268707482993201</v>
       </c>
       <c r="F54" s="145">
         <f>'Noname co'!E14/'Noname co'!E16</f>
-        <v>1.6922788605697152</v>
+        <v>1.6922788605697126</v>
       </c>
       <c r="G54" s="145">
         <f>'Noname co'!F14/'Noname co'!F16</f>
-        <v>2.1613702022286398</v>
+        <v>2.1613702022286407</v>
       </c>
       <c r="H54" s="145">
         <f>'Noname co'!G14/'Noname co'!G16</f>
-        <v>2.1547745828895977</v>
+        <v>2.1547745828895946</v>
       </c>
       <c r="I54" s="299">
         <f>(H54/D54)^(1/5)-1</f>
-        <v>0.10851595710273543</v>
+        <v>0.10851595710273498</v>
       </c>
     </row>
     <row r="55" spans="2:9" x14ac:dyDescent="0.15">
@@ -22473,7 +22508,7 @@
       </c>
       <c r="C34" s="108">
         <f>'Noname co'!G65</f>
-        <v>10.257887500000001</v>
+        <v>14.8477</v>
       </c>
       <c r="D34" s="108">
         <f>SUM(D31:D33)</f>
@@ -22649,7 +22684,7 @@
       </c>
       <c r="C40" s="108">
         <f>'Noname co'!G71</f>
-        <v>16.277292500000001</v>
+        <v>20.867104999999999</v>
       </c>
       <c r="D40" s="170">
         <f>SUM(D38+D34)</f>
@@ -22911,7 +22946,7 @@
       </c>
       <c r="I6" s="328">
         <f>C27</f>
-        <v>2.704136455347331</v>
+        <v>3.466639144566614</v>
       </c>
       <c r="J6" s="332">
         <f>D27</f>
@@ -23146,7 +23181,7 @@
       </c>
       <c r="C22" s="262">
         <f>BS!C38/BS!C34</f>
-        <v>0.58680746888674684</v>
+        <v>0.40540992881052285</v>
       </c>
       <c r="D22" s="262">
         <f>BS!D38/BS!D34</f>
@@ -23173,7 +23208,7 @@
       </c>
       <c r="C23" s="262">
         <f>'Noname co'!G14/'Noname co'!G64</f>
-        <v>0.27284577695869094</v>
+        <v>0.27284577695869056</v>
       </c>
       <c r="D23" s="262">
         <f>PL!D13/BS!D33</f>
@@ -23200,7 +23235,7 @@
       </c>
       <c r="C24" s="262">
         <f>'Noname co'!G14/SUM('Noname co'!G58,'Noname co'!G60)</f>
-        <v>0.40670016750418742</v>
+        <v>0.4067001675041868</v>
       </c>
       <c r="D24" s="262">
         <f>PL!D13/SUM(BS!D29,BS!D27)</f>
@@ -23278,7 +23313,7 @@
       </c>
       <c r="C27" s="314">
         <f>BS!C40/BS!C38</f>
-        <v>2.704136455347331</v>
+        <v>3.466639144566614</v>
       </c>
       <c r="D27" s="314">
         <f>BS!D40/BS!D38</f>
@@ -23565,7 +23600,7 @@
       </c>
       <c r="C72" s="282">
         <f>'Noname co'!G20/'Noname co'!G8</f>
-        <v>2.9330368173955981E-2</v>
+        <v>2.933036817395587E-2</v>
       </c>
       <c r="D72" s="262">
         <f>PL!D19/PL!D6</f>
@@ -23592,7 +23627,7 @@
       </c>
       <c r="C73" s="282">
         <f>'Noname co'!G20/'Noname co'!G51</f>
-        <v>3.9818852733981829E-2</v>
+        <v>3.9818852733981683E-2</v>
       </c>
       <c r="D73" s="262">
         <f>PL!D19/BS!D21</f>
@@ -23619,7 +23654,7 @@
       </c>
       <c r="C74" s="287">
         <f>'Noname co'!G20/'Noname co'!G69</f>
-        <v>0.1380368989958308</v>
+        <v>0.13803689899583027</v>
       </c>
       <c r="D74" s="287">
         <f>PL!D21/BS!D38</f>

--- a/NoName Co Modelling.xlsx
+++ b/NoName Co Modelling.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/eliediwa/Desktop/UGENT/FM/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/eliediwa/Desktop/UGENT/Github finance/Financial-Planning-and-Analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{603374FE-6026-8548-B862-FE0E4F7AE6B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5902D568-1C19-C143-AE61-F5027A033CA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16360" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16360" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Start here" sheetId="25" r:id="rId1"/>
@@ -541,9 +541,6 @@
     <t>Equity (MV) in millions</t>
   </si>
   <si>
-    <t xml:space="preserve">PE </t>
-  </si>
-  <si>
     <t>Number of shares</t>
   </si>
   <si>
@@ -1334,6 +1331,9 @@
   </si>
   <si>
     <t xml:space="preserve">Total fixed </t>
+  </si>
+  <si>
+    <t>PE (required)</t>
   </si>
 </sst>
 </file>
@@ -3490,16 +3490,16 @@
                   <c:v>4.6922049999999995</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.4890720650088127</c:v>
+                  <c:v>7.1434960608472444</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.6322267403552644</c:v>
+                  <c:v>8.5058213636664384</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7.9306022716445561</c:v>
+                  <c:v>10.057380321902112</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9.3791370418197282</c:v>
+                  <c:v>11.813482408187365</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3567,16 +3567,16 @@
                   <c:v>4.6921000000000017</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.4890720650088127</c:v>
+                  <c:v>7.1434960608472462</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.6322267403552626</c:v>
+                  <c:v>8.5058213636664366</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7.9306022716445543</c:v>
+                  <c:v>10.057380321902116</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9.3791370418197282</c:v>
+                  <c:v>11.813482408187364</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3661,16 +3661,16 @@
                   <c:v>1.6485762144053604</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.6852199924359514</c:v>
+                  <c:v>1.9169618656924248</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.6577359586102363</c:v>
+                  <c:v>1.8722888572833676</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.6577359586102363</c:v>
+                  <c:v>1.8612460744762518</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.657735958610236</c:v>
+                  <c:v>1.8501938386048282</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3741,16 +3741,16 @@
                   <c:v>2.24998324958124</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.2864293160888498</c:v>
+                  <c:v>2.5499533616105028</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.3366733721867381</c:v>
+                  <c:v>2.5966268257741256</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.4126707184205154</c:v>
+                  <c:v>2.6759008903813175</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.5027337677709278</c:v>
+                  <c:v>2.7766197821740097</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4151,16 +4151,16 @@
                   <c:v>2.933036817395587E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.8956627568471224E-2</c:v>
+                  <c:v>2.8981713730391372E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.6256627568471249E-2</c:v>
+                  <c:v>3.8147674244140235E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.6256627568471339E-2</c:v>
+                  <c:v>3.8136737697418509E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.6256627568471235E-2</c:v>
+                  <c:v>3.80845109587509E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4228,16 +4228,16 @@
                   <c:v>3.9818852733981683E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.0568900897432432E-2</c:v>
+                  <c:v>4.1072468600749576E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.0149743437193715E-2</c:v>
+                  <c:v>5.3269295610512329E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.9202373070732761E-2</c:v>
+                  <c:v>5.2130990613878173E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.8124990471912307E-2</c:v>
+                  <c:v>5.0732662831188963E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4305,16 +4305,16 @@
                   <c:v>0.13803689899583027</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.1354862993672972</c:v>
+                  <c:v>0.10746824145983025</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.16085987829150214</c:v>
+                  <c:v>0.13657851000323562</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.15150293874469145</c:v>
+                  <c:v>0.13062691272550606</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.14173271700616608</c:v>
+                  <c:v>0.12354470320309108</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4728,19 +4728,19 @@
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.2994317586861826</c:v>
+                  <c:v>0.38218238284006673</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.42741269305134411</c:v>
+                  <c:v>0.61860065531464425</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.29632725291408707</c:v>
+                  <c:v>0.35615708178459554</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.40399660061636467</c:v>
+                  <c:v>0.45955191650171251</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.4132446606278477</c:v>
+                  <c:v>0.41808959959946962</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4805,19 +4805,19 @@
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.31176042136694204</c:v>
+                  <c:v>0.39002692011539997</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.45298240764668418</c:v>
+                  <c:v>0.63941661194160992</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.33637147628085584</c:v>
+                  <c:v>0.40007929692938654</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.45859073583479248</c:v>
+                  <c:v>0.51794395862455844</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.40798415775940955</c:v>
+                  <c:v>0.41194906821542615</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4882,19 +4882,19 @@
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.3247618394627132</c:v>
+                  <c:v>0.39908307963630785</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.48095895410339412</c:v>
+                  <c:v>0.66412355204571605</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.33637147628085623</c:v>
+                  <c:v>0.39663563094838511</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.45859073583479321</c:v>
+                  <c:v>0.51488911875885168</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.40027699767132452</c:v>
+                  <c:v>0.40325603705633384</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4959,19 +4959,19 @@
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.33954750525115968</c:v>
+                  <c:v>0.41064215232110118</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.51411344184608498</c:v>
+                  <c:v>0.69676199941742745</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.33637147628085573</c:v>
+                  <c:v>0.39320776160032367</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.45859073583479237</c:v>
+                  <c:v>0.51183166382788337</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.39151214660653616</c:v>
+                  <c:v>0.39297325676444766</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5342,16 +5342,16 @@
                   <c:v>0.62348205300234816</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.60649411960606414</c:v>
+                  <c:v>0.52265793826279361</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.59877359866568158</c:v>
+                  <c:v>0.51965248401154862</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.58746226734639884</c:v>
+                  <c:v>0.51250103827444593</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.57459862714366594</c:v>
+                  <c:v>0.50319559181779461</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5443,16 +5443,16 @@
                   <c:v>3.466639144566614</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.3396591075966766</c:v>
+                  <c:v>2.6165517954250488</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.2075912510491511</c:v>
+                  <c:v>2.563925586736739</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.0791795047546304</c:v>
+                  <c:v>2.5057439190639688</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.9450960013984218</c:v>
+                  <c:v>2.4352103025654586</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7920,7 +7920,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp1.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Spin" dx="15" fmlaLink="OPT" max="3" page="10" val="0"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Spin" dx="15" fmlaLink="OPT" max="3" page="10" val="2"/>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -8512,18 +8512,18 @@
     </row>
     <row r="4" spans="1:4" ht="68" x14ac:dyDescent="0.15">
       <c r="B4" s="81" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C4" s="81" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="53" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="81" t="s">
+        <v>385</v>
+      </c>
+      <c r="C5" s="81" t="s">
         <v>386</v>
-      </c>
-      <c r="C5" s="81" t="s">
-        <v>387</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.15">
@@ -8565,7 +8565,7 @@
         <v>9</v>
       </c>
       <c r="B12" s="209" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C12" s="207" t="s">
         <v>11</v>
@@ -8577,7 +8577,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="209" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C13" s="207" t="s">
         <v>13</v>
@@ -8589,10 +8589,10 @@
         <v>14</v>
       </c>
       <c r="B14" s="209" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C14" s="207" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D14" s="212"/>
     </row>
@@ -8613,10 +8613,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="209" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C16" s="207" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D16" s="318"/>
     </row>
@@ -8656,8 +8656,8 @@
   </sheetPr>
   <dimension ref="A1:O76"/>
   <sheetViews>
-    <sheetView tabSelected="1" showOutlineSymbols="0" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="G32" sqref="G32"/>
+    <sheetView showOutlineSymbols="0" topLeftCell="A13" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.75" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
@@ -8692,7 +8692,7 @@
     </row>
     <row r="4" spans="1:15" ht="13" x14ac:dyDescent="0.15">
       <c r="A4" s="6" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C4" s="15"/>
       <c r="H4" s="76"/>
@@ -8723,7 +8723,7 @@
     </row>
     <row r="6" spans="1:15" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A6" s="64" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B6" s="17"/>
       <c r="C6" s="32">
@@ -8763,7 +8763,7 @@
     </row>
     <row r="8" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="18" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B8" s="18"/>
       <c r="C8" s="19">
@@ -8792,7 +8792,7 @@
     </row>
     <row r="9" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="14" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C9" s="51">
         <v>9.3743999999999996</v>
@@ -8820,7 +8820,7 @@
     </row>
     <row r="10" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="18" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B10" s="18"/>
       <c r="C10" s="52">
@@ -8871,7 +8871,7 @@
     </row>
     <row r="12" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="14" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C12" s="52">
         <v>0.25864999999999999</v>
@@ -8896,7 +8896,7 @@
     </row>
     <row r="13" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="18" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B13" s="18"/>
       <c r="C13" s="51">
@@ -8922,7 +8922,7 @@
     </row>
     <row r="14" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="14" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C14" s="52">
         <f>C10-SUM(C12:C13)</f>
@@ -8964,7 +8964,7 @@
     </row>
     <row r="16" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="18" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B16" s="18"/>
       <c r="C16" s="51">
@@ -8990,7 +8990,7 @@
     </row>
     <row r="17" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="14" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C17" s="52">
         <f>C14-C16</f>
@@ -9032,7 +9032,7 @@
     </row>
     <row r="19" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="18" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B19" s="18"/>
       <c r="C19" s="51">
@@ -9058,7 +9058,7 @@
     </row>
     <row r="20" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="18" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B20" s="18"/>
       <c r="C20" s="54">
@@ -9101,7 +9101,7 @@
     </row>
     <row r="22" spans="1:13" s="73" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="69" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B22" s="70"/>
       <c r="C22" s="70"/>
@@ -9145,7 +9145,7 @@
     </row>
     <row r="24" spans="1:13" s="73" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="14" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B24" s="14"/>
       <c r="C24" s="46"/>
@@ -9153,7 +9153,7 @@
       <c r="E24" s="46"/>
       <c r="F24" s="46"/>
       <c r="G24" s="46">
-        <v>407865</v>
+        <v>907865</v>
       </c>
       <c r="H24" s="72"/>
       <c r="I24" s="337"/>
@@ -9164,7 +9164,7 @@
     </row>
     <row r="25" spans="1:13" s="73" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="14" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B25" s="14"/>
       <c r="C25" s="46"/>
@@ -9173,7 +9173,7 @@
       <c r="F25" s="46"/>
       <c r="G25" s="59">
         <f>G20/(G24/inM)</f>
-        <v>2.0371936792811245</v>
+        <v>0.91522417980646431</v>
       </c>
       <c r="H25" s="72"/>
       <c r="I25" s="337"/>
@@ -9184,7 +9184,7 @@
     </row>
     <row r="26" spans="1:13" s="73" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="14" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B26" s="14"/>
       <c r="C26" s="47"/>
@@ -9192,7 +9192,7 @@
       <c r="E26" s="47"/>
       <c r="F26" s="47"/>
       <c r="G26" s="47">
-        <v>11.41</v>
+        <v>8.41</v>
       </c>
       <c r="H26" s="72"/>
       <c r="I26" s="337"/>
@@ -9203,7 +9203,7 @@
     </row>
     <row r="27" spans="1:13" s="73" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="14" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B27" s="14"/>
       <c r="C27" s="45"/>
@@ -9212,7 +9212,7 @@
       <c r="F27" s="45"/>
       <c r="G27" s="45">
         <f>G26/G25</f>
-        <v>5.6008420387531874</v>
+        <v>9.1890054759899371</v>
       </c>
       <c r="H27" s="72"/>
       <c r="I27" s="337"/>
@@ -9223,7 +9223,7 @@
     </row>
     <row r="28" spans="1:13" s="73" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="14" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B28" s="14"/>
       <c r="C28" s="19"/>
@@ -9232,7 +9232,7 @@
       <c r="F28" s="19"/>
       <c r="G28" s="19">
         <f>G24*G26/inM</f>
-        <v>4.6537396500000003</v>
+        <v>7.63514465</v>
       </c>
       <c r="H28" s="72"/>
       <c r="I28" s="337"/>
@@ -9353,7 +9353,7 @@
     </row>
     <row r="38" spans="1:13" s="73" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="6" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B38" s="14"/>
       <c r="C38" s="15"/>
@@ -9385,7 +9385,7 @@
     </row>
     <row r="40" spans="1:13" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A40" s="17" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B40" s="17"/>
       <c r="C40" s="32">
@@ -9421,7 +9421,7 @@
     </row>
     <row r="42" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="34" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B42" s="18"/>
       <c r="C42" s="19">
@@ -9448,7 +9448,7 @@
     </row>
     <row r="43" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="34" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B43" s="18"/>
       <c r="C43" s="52">
@@ -9475,7 +9475,7 @@
     </row>
     <row r="44" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="34" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B44" s="18"/>
       <c r="C44" s="52">
@@ -9502,7 +9502,7 @@
     </row>
     <row r="45" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="34" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B45" s="18"/>
       <c r="C45" s="51">
@@ -9529,7 +9529,7 @@
     </row>
     <row r="46" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="65" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B46" s="18"/>
       <c r="C46" s="52">
@@ -9571,7 +9571,7 @@
     </row>
     <row r="48" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="34" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B48" s="18"/>
       <c r="C48" s="52">
@@ -9598,7 +9598,7 @@
     </row>
     <row r="49" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="34" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B49" s="18"/>
       <c r="C49" s="54">
@@ -9625,7 +9625,7 @@
     </row>
     <row r="50" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="34" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B50" s="18"/>
       <c r="C50" s="51">
@@ -9652,7 +9652,7 @@
     </row>
     <row r="51" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="66" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C51" s="55">
         <v>12.852699999999999</v>
@@ -9692,7 +9692,7 @@
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A53" s="66" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C53" s="20"/>
       <c r="D53" s="49">
@@ -9749,7 +9749,7 @@
     </row>
     <row r="56" spans="1:13" ht="13" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A56" s="50" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B56" s="33"/>
       <c r="C56" s="32">
@@ -9790,7 +9790,7 @@
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A58" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B58" s="18"/>
       <c r="C58" s="19">
@@ -9817,7 +9817,7 @@
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A59" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C59" s="56">
         <v>0.77105000000000001</v>
@@ -9843,7 +9843,7 @@
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A60" s="25" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C60" s="55">
         <v>0.34055000000000002</v>
@@ -9869,7 +9869,7 @@
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A61" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B61" s="18"/>
       <c r="C61" s="51">
@@ -9896,7 +9896,7 @@
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A62" s="43" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C62" s="52">
         <v>4.0656000000000008</v>
@@ -9936,7 +9936,7 @@
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A64" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C64" s="51">
         <v>5.1100000000000003</v>
@@ -9962,7 +9962,7 @@
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A65" s="43" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B65" s="18"/>
       <c r="C65" s="54">
@@ -10008,7 +10008,7 @@
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A67" s="2" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B67" s="18"/>
       <c r="C67" s="52">
@@ -10035,7 +10035,7 @@
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A68" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B68" s="18"/>
       <c r="C68" s="51">
@@ -10062,7 +10062,7 @@
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A69" s="43" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B69" s="18"/>
       <c r="C69" s="54">
@@ -10109,7 +10109,7 @@
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A71" s="2" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B71" s="18"/>
       <c r="C71" s="52">
@@ -10151,7 +10151,7 @@
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A73" s="68" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D73" s="26"/>
       <c r="E73" s="26"/>
@@ -10161,7 +10161,7 @@
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A74" s="68" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="H74" s="14"/>
     </row>
@@ -10221,7 +10221,7 @@
     </row>
     <row r="5" spans="1:10" ht="13" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A5" s="64" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B5" s="28">
         <v>39629</v>
@@ -10243,7 +10243,7 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A7" s="18" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B7" s="19">
         <v>5.3903499999999998</v>
@@ -10265,7 +10265,7 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A8" s="14" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B8" s="51">
         <v>3.4604500000000002</v>
@@ -10283,7 +10283,7 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A9" s="18" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B9" s="52">
         <v>1.9298999999999999</v>
@@ -10317,7 +10317,7 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A11" s="14" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B11" s="52">
         <v>0</v>
@@ -10335,7 +10335,7 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A12" s="18" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B12" s="51">
         <v>1.52565</v>
@@ -10353,7 +10353,7 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A13" s="14" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B13" s="52">
         <v>0.40424999999999978</v>
@@ -10378,7 +10378,7 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A15" s="18" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B15" s="51">
         <v>1.9950000000000002E-2</v>
@@ -10396,7 +10396,7 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A16" s="14" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B16" s="52">
         <v>0.38429999999999981</v>
@@ -10429,7 +10429,7 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A18" s="18" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B18" s="51">
         <v>0.10394999999999999</v>
@@ -10444,12 +10444,12 @@
         <v>0.1071</v>
       </c>
       <c r="F18" s="14" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A19" s="18" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B19" s="54">
         <v>0.28034999999999982</v>
@@ -10474,7 +10474,7 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A21" s="14" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B21" s="52">
         <v>0.1008</v>
@@ -10526,7 +10526,7 @@
     </row>
     <row r="31" spans="1:6" ht="13" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A31" s="64" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B31" s="28">
         <v>39629</v>
@@ -10546,7 +10546,7 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A33" s="34" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B33" s="19">
         <v>0.20474999999999999</v>
@@ -10563,7 +10563,7 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A34" s="34" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B34" s="57">
         <v>1.10775</v>
@@ -10580,7 +10580,7 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A35" s="34" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B35" s="57">
         <v>0.72099999999999997</v>
@@ -10597,7 +10597,7 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A36" s="34" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B36" s="58">
         <v>8.0850000000000005E-2</v>
@@ -10614,7 +10614,7 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A37" s="34" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B37" s="57">
         <f>SUM(B33:B36)</f>
@@ -10642,7 +10642,7 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A39" s="34" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B39" s="57">
         <v>1.3408500000000001</v>
@@ -10659,7 +10659,7 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A40" s="34" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B40" s="58">
         <v>0.16170000000000001</v>
@@ -10676,7 +10676,7 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A41" s="14" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B41" s="78">
         <f>SUM(B39:B40)</f>
@@ -10697,7 +10697,7 @@
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A42" s="67" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B42" s="59">
         <f>B41+B37</f>
@@ -10725,7 +10725,7 @@
     </row>
     <row r="44" spans="1:5" ht="13" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A44" s="64" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B44" s="28">
         <v>39629</v>
@@ -10749,7 +10749,7 @@
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A46" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B46" s="19">
         <v>0.27684999999999998</v>
@@ -10766,7 +10766,7 @@
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A47" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B47" s="60">
         <v>0.28454999999999997</v>
@@ -10783,7 +10783,7 @@
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A48" s="25" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B48" s="59">
         <v>0</v>
@@ -10800,7 +10800,7 @@
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A49" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B49" s="58">
         <v>9.1700000000000004E-2</v>
@@ -10817,7 +10817,7 @@
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A50" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B50" s="57">
         <f>SUM(B46:B49)</f>
@@ -10845,7 +10845,7 @@
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A52" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B52" s="58">
         <v>0</v>
@@ -10862,7 +10862,7 @@
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A53" s="2" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B53" s="61">
         <f>B52+B50</f>
@@ -10890,7 +10890,7 @@
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A55" s="2" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B55" s="57">
         <v>1.6043999999999996</v>
@@ -10907,7 +10907,7 @@
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A56" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B56" s="58">
         <v>1.3593999999999999</v>
@@ -10924,7 +10924,7 @@
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A57" s="2" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B57" s="61">
         <f>SUM(B55:B56)</f>
@@ -10952,7 +10952,7 @@
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A59" s="2" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B59" s="57">
         <f>B57+B53</f>
@@ -10980,22 +10980,22 @@
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A61" s="68" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A62" s="68" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A63" s="68" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A64" s="68" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
   </sheetData>
@@ -11009,8 +11009,8 @@
   <sheetPr codeName="Sheet12"/>
   <dimension ref="A1:I41"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="N23" sqref="N23"/>
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.75" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -11025,7 +11025,7 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A1" s="6" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B1" s="14"/>
       <c r="C1" s="14"/>
@@ -11049,7 +11049,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A3" s="6" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.15">
@@ -11065,15 +11065,15 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B5" s="36" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C5" s="12"/>
       <c r="E5" s="36" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="F5" s="12"/>
       <c r="H5" s="36" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="I5" s="12"/>
     </row>
@@ -11102,20 +11102,19 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A8" s="3" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B8" s="7">
-        <v>3336.8</v>
+        <v>33.368000000000002</v>
       </c>
       <c r="C8" s="7">
-        <f>883.7+782.8+979.4+794.6</f>
-        <v>3440.5</v>
+        <v>34.405000000000001</v>
       </c>
       <c r="E8" s="7">
-        <v>12014.9</v>
+        <v>120.149</v>
       </c>
       <c r="F8" s="7">
-        <v>12303.1</v>
+        <v>123.03100000000001</v>
       </c>
       <c r="H8" s="7">
         <f>'Noname co'!F8</f>
@@ -11128,20 +11127,19 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A9" s="3" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B9" s="7">
-        <v>370.2</v>
+        <v>3.702</v>
       </c>
       <c r="C9" s="7">
-        <f>73.6+76.8+133.7+102.4</f>
-        <v>386.5</v>
+        <v>3.8650000000000002</v>
       </c>
       <c r="E9" s="7">
-        <v>725.8</v>
+        <v>7.2579999999999991</v>
       </c>
       <c r="F9" s="7">
-        <v>817</v>
+        <v>8.17</v>
       </c>
       <c r="H9" s="7">
         <f>'Noname co'!F20</f>
@@ -11154,7 +11152,7 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A10" s="3" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B10" s="8">
         <v>2.79</v>
@@ -11171,82 +11169,81 @@
       </c>
       <c r="H10" s="8">
         <f>H9*inM/'Noname co'!G24</f>
-        <v>1.7625930148455946</v>
+        <v>0.79185782027063334</v>
       </c>
       <c r="I10" s="8">
         <f>I9*inM/'Noname co'!G24</f>
-        <v>2.0371936792811245</v>
+        <v>0.91522417980646442</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A11" s="3" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B11" s="8">
-        <v>44.01</v>
+        <v>20.6</v>
       </c>
       <c r="C11" s="8">
-        <v>49.6</v>
+        <v>25.6</v>
       </c>
       <c r="E11" s="8">
-        <v>24.02</v>
+        <v>15.02</v>
       </c>
       <c r="F11" s="8">
-        <v>25.76</v>
+        <v>18.760000000000002</v>
       </c>
       <c r="H11" s="8">
-        <v>9.0545000000000009</v>
+        <v>7.0545</v>
       </c>
       <c r="I11" s="8">
         <f>'Noname co'!G26</f>
-        <v>11.41</v>
+        <v>8.41</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A12" s="3" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B12" s="13">
         <f>B11/B10</f>
-        <v>15.774193548387096</v>
+        <v>7.3835125448028682</v>
       </c>
       <c r="C12" s="13">
         <f>C11/C10</f>
-        <v>16.995614035087719</v>
+        <v>8.7719298245614041</v>
       </c>
       <c r="E12" s="13">
         <f>E11/E10</f>
-        <v>14.736196319018406</v>
+        <v>9.2147239263803691</v>
       </c>
       <c r="F12" s="13">
         <f>F11/F10</f>
-        <v>13.557894736842107</v>
+        <v>9.8736842105263172</v>
       </c>
       <c r="H12" s="13">
         <f>H11/H10</f>
-        <v>5.1370338607595052</v>
+        <v>8.9087962755599008</v>
       </c>
       <c r="I12" s="13">
         <f>'Noname co'!G27</f>
-        <v>5.6008420387531874</v>
+        <v>9.1890054759899371</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A14" s="3" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B14" s="7">
-        <v>1957</v>
+        <v>19.57</v>
       </c>
       <c r="C14" s="7">
-        <v>1947.3</v>
+        <v>19.472999999999999</v>
       </c>
       <c r="E14" s="7">
-        <v>6809.1</v>
+        <v>68.091000000000008</v>
       </c>
       <c r="F14" s="7">
-        <f>11408.7-4708.5</f>
-        <v>6700.2000000000007</v>
+        <v>67.00200000000001</v>
       </c>
       <c r="H14" s="7">
         <f>'Noname co'!F65</f>
@@ -11259,23 +11256,19 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A15" s="3" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B15" s="7">
-        <f>0.2+100.2+779.9</f>
-        <v>880.3</v>
+        <v>8.802999999999999</v>
       </c>
       <c r="C15" s="7">
-        <f>108.2+100.3+781.2</f>
-        <v>989.7</v>
+        <v>9.8970000000000002</v>
       </c>
       <c r="E15" s="7">
-        <f>0.6+260.2+3030.5+195.9</f>
-        <v>3487.2000000000003</v>
+        <v>34.872</v>
       </c>
       <c r="F15" s="7">
-        <f>0+363.5+2674.4+195.9</f>
-        <v>3233.8</v>
+        <v>32.338000000000001</v>
       </c>
       <c r="H15" s="7">
         <f>'Noname co'!F58+'Noname co'!F60+'Noname co'!F64</f>
@@ -11293,19 +11286,19 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A17" s="3" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B17" s="7">
-        <v>1462.7</v>
+        <v>14.627000000000001</v>
       </c>
       <c r="C17" s="7">
-        <v>1642.1</v>
+        <v>16.420999999999999</v>
       </c>
       <c r="E17" s="7">
-        <v>4928.8999999999996</v>
+        <v>49.288999999999994</v>
       </c>
       <c r="F17" s="7">
-        <v>4708.5</v>
+        <v>47.085000000000001</v>
       </c>
       <c r="H17" s="7">
         <f>'Noname co'!F69</f>
@@ -11323,63 +11316,66 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A19" s="3" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B19" s="9">
-        <v>133.1</v>
+        <v>1.331</v>
       </c>
       <c r="C19" s="9">
-        <v>132.4</v>
+        <v>1.3240000000000001</v>
+      </c>
+      <c r="D19" s="3">
+        <v>0</v>
       </c>
       <c r="E19" s="9">
-        <v>443.6</v>
+        <v>4.4359999999999999</v>
       </c>
       <c r="F19" s="9">
-        <v>429.7</v>
+        <v>4.2969999999999997</v>
       </c>
       <c r="H19" s="9">
-        <f>'Noname co'!G24</f>
-        <v>407865</v>
+        <f>'Noname co'!G24/inM</f>
+        <v>0.90786500000000003</v>
       </c>
       <c r="I19" s="9">
         <f>H19</f>
-        <v>407865</v>
+        <v>0.90786500000000003</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A20" s="3" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B20" s="7">
         <f>B19*B11</f>
-        <v>5857.7309999999998</v>
+        <v>27.418600000000001</v>
       </c>
       <c r="C20" s="7">
         <f>C19*C11</f>
-        <v>6567.0400000000009</v>
+        <v>33.894400000000005</v>
       </c>
       <c r="D20" s="7"/>
       <c r="E20" s="7">
         <f>E19*E11</f>
-        <v>10655.272000000001</v>
+        <v>66.628720000000001</v>
       </c>
       <c r="F20" s="7">
         <f>F19*F11</f>
-        <v>11069.072</v>
+        <v>80.611720000000005</v>
       </c>
       <c r="G20" s="7"/>
       <c r="H20" s="7">
-        <f>H19*H11/inM</f>
-        <v>3.6930136425000004</v>
+        <f>H19*H11</f>
+        <v>6.4045336425000006</v>
       </c>
       <c r="I20" s="7">
-        <f>I19*I11/inM</f>
-        <v>4.6537396500000003</v>
+        <f>I19*I11</f>
+        <v>7.63514465</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A22" s="3" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C22" s="35">
         <v>0.5</v>
@@ -11397,12 +11393,12 @@
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A24" s="10" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A25" s="10" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.15">
@@ -11410,7 +11406,7 @@
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A27" s="39" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B27" s="37"/>
       <c r="C27" s="37"/>
@@ -11445,12 +11441,12 @@
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A30" s="3" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A32" s="3" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E32" s="40">
         <v>4.2500000000000003E-2</v>
@@ -11477,7 +11473,7 @@
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A38" s="37" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B38" s="37"/>
       <c r="C38" s="37"/>
@@ -11488,7 +11484,7 @@
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A40" s="37" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B40" s="37"/>
       <c r="C40" s="37"/>
@@ -13558,7 +13554,7 @@
       </c>
       <c r="C124" s="142">
         <f>Market!C20</f>
-        <v>6567.0400000000009</v>
+        <v>33.894400000000005</v>
       </c>
     </row>
     <row r="125" spans="2:8" ht="17" x14ac:dyDescent="0.15">
@@ -13567,7 +13563,7 @@
       </c>
       <c r="C125" s="87">
         <f>Market!F20</f>
-        <v>11069.072</v>
+        <v>80.611720000000005</v>
       </c>
     </row>
     <row r="126" spans="2:8" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -13576,7 +13572,7 @@
       </c>
       <c r="C126" s="189">
         <f>Market!I20</f>
-        <v>4.6537396500000003</v>
+        <v>7.63514465</v>
       </c>
     </row>
     <row r="127" spans="2:8" ht="18" thickTop="1" x14ac:dyDescent="0.15">
@@ -13585,7 +13581,7 @@
       </c>
       <c r="C127" s="81">
         <f>Market!C15</f>
-        <v>989.7</v>
+        <v>9.8970000000000002</v>
       </c>
     </row>
     <row r="128" spans="2:8" ht="17" x14ac:dyDescent="0.15">
@@ -13594,7 +13590,7 @@
       </c>
       <c r="C128" s="81">
         <f>Market!F15</f>
-        <v>3233.8</v>
+        <v>32.338000000000001</v>
       </c>
     </row>
     <row r="129" spans="2:4" ht="18" thickBot="1" x14ac:dyDescent="0.2">
@@ -13612,7 +13608,7 @@
       </c>
       <c r="C130" s="81">
         <f>C127/C124</f>
-        <v>0.15070716791735697</v>
+        <v>0.29199513783987913</v>
       </c>
     </row>
     <row r="131" spans="2:4" ht="17" x14ac:dyDescent="0.15">
@@ -13621,7 +13617,7 @@
       </c>
       <c r="C131" s="81">
         <f t="shared" ref="C131:C132" si="2">C128/C125</f>
-        <v>0.29214734532398018</v>
+        <v>0.40115754880307725</v>
       </c>
     </row>
     <row r="132" spans="2:4" ht="17" x14ac:dyDescent="0.15">
@@ -13630,7 +13626,7 @@
       </c>
       <c r="C132" s="81">
         <f t="shared" si="2"/>
-        <v>2.7956441439520576</v>
+        <v>1.7039886729585403</v>
       </c>
     </row>
     <row r="134" spans="2:4" ht="17" x14ac:dyDescent="0.15">
@@ -13647,7 +13643,7 @@
       </c>
       <c r="C136" s="81">
         <f>C121/(1+(1-C$134)*C130)</f>
-        <v>0.45044386318387725</v>
+        <v>0.41214799603397045</v>
       </c>
     </row>
     <row r="137" spans="2:4" ht="17" x14ac:dyDescent="0.15">
@@ -13656,7 +13652,7 @@
       </c>
       <c r="C137" s="81">
         <f t="shared" ref="C137:C138" si="3">C122/(1+(1-C$134)*C131)</f>
-        <v>0.49453230165335965</v>
+        <v>0.46409275285779505</v>
       </c>
     </row>
     <row r="138" spans="2:4" ht="18" thickBot="1" x14ac:dyDescent="0.2">
@@ -13665,7 +13661,7 @@
       </c>
       <c r="C138" s="189">
         <f t="shared" si="3"/>
-        <v>0.27952984296407707</v>
+        <v>0.37880277916404897</v>
       </c>
     </row>
     <row r="139" spans="2:4" ht="18" thickTop="1" x14ac:dyDescent="0.15">
@@ -13674,7 +13670,7 @@
       </c>
       <c r="C139" s="81">
         <f>AVERAGE(C136:C138)</f>
-        <v>0.40816866926710466</v>
+        <v>0.41834784268527153</v>
       </c>
     </row>
     <row r="143" spans="2:4" ht="18" thickBot="1" x14ac:dyDescent="0.2">
@@ -13722,8 +13718,8 @@
   </sheetPr>
   <dimension ref="B2:M139"/>
   <sheetViews>
-    <sheetView topLeftCell="A75" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="C144" sqref="C144"/>
+    <sheetView topLeftCell="A123" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="C140" sqref="C140"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.75" defaultRowHeight="16" x14ac:dyDescent="0.15"/>
@@ -13741,7 +13737,7 @@
   <sheetData>
     <row r="2" spans="2:13" ht="20" x14ac:dyDescent="0.15">
       <c r="B2" s="117" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C2" s="117"/>
     </row>
@@ -14672,7 +14668,7 @@
       </c>
       <c r="C69" s="87">
         <f>'Noname co'!G26</f>
-        <v>11.41</v>
+        <v>8.41</v>
       </c>
     </row>
     <row r="70" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -14681,16 +14677,16 @@
       </c>
       <c r="C70" s="340">
         <f>'Noname co'!G24</f>
-        <v>407865</v>
+        <v>907865</v>
       </c>
     </row>
     <row r="71" spans="2:7" ht="17" x14ac:dyDescent="0.15">
       <c r="B71" s="87" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C71" s="108">
         <f>C69*C70/inM</f>
-        <v>4.6537396500000003</v>
+        <v>7.63514465</v>
       </c>
     </row>
     <row r="73" spans="2:7" ht="17" x14ac:dyDescent="0.15">
@@ -14733,7 +14729,7 @@
     </row>
     <row r="78" spans="2:7" ht="18" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B78" s="179" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="79" spans="2:7" ht="17" x14ac:dyDescent="0.15">
@@ -14754,7 +14750,7 @@
     </row>
     <row r="83" spans="2:10" ht="18" x14ac:dyDescent="0.15">
       <c r="B83" s="98" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="84" spans="2:10" ht="18" x14ac:dyDescent="0.15">
@@ -14770,20 +14766,20 @@
       </c>
       <c r="C85" s="180">
         <f>C86*'Target co'!E19</f>
-        <v>1.616999999999998</v>
+        <v>1.3282499999999984</v>
       </c>
     </row>
     <row r="86" spans="2:10" ht="17" x14ac:dyDescent="0.15">
       <c r="B86" s="87" t="s">
-        <v>125</v>
+        <v>389</v>
       </c>
       <c r="C86" s="341">
-        <v>5.6</v>
+        <v>4.5999999999999996</v>
       </c>
     </row>
     <row r="87" spans="2:10" ht="17" x14ac:dyDescent="0.15">
       <c r="B87" s="87" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C87" s="87">
         <v>404908</v>
@@ -14796,7 +14792,7 @@
       </c>
       <c r="C88" s="87">
         <f>C69</f>
-        <v>11.41</v>
+        <v>8.41</v>
       </c>
     </row>
     <row r="90" spans="2:10" ht="17" x14ac:dyDescent="0.15">
@@ -14852,7 +14848,7 @@
         <v>0.05</v>
       </c>
       <c r="G93" s="92">
-        <v>4.8000000000000001E-2</v>
+        <v>2.8000000000000001E-2</v>
       </c>
     </row>
     <row r="95" spans="2:10" ht="17" x14ac:dyDescent="0.15">
@@ -14902,7 +14898,7 @@
     </row>
     <row r="97" spans="2:10" ht="17" x14ac:dyDescent="0.15">
       <c r="B97" s="87" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D97" s="109">
         <v>0.01</v>
@@ -14922,7 +14918,7 @@
     </row>
     <row r="98" spans="2:10" ht="17" x14ac:dyDescent="0.15">
       <c r="B98" s="87" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D98" s="92">
         <v>0.30099999999999999</v>
@@ -15089,7 +15085,7 @@
     </row>
     <row r="109" spans="2:10" ht="17" x14ac:dyDescent="0.15">
       <c r="B109" s="87" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D109" s="87">
         <v>20</v>
@@ -15156,7 +15152,7 @@
     </row>
     <row r="113" spans="2:10" ht="17" x14ac:dyDescent="0.15">
       <c r="B113" s="87" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D113" s="92">
         <v>4.4999999999999998E-2</v>
@@ -15201,7 +15197,7 @@
     </row>
     <row r="116" spans="2:10" ht="17" x14ac:dyDescent="0.15">
       <c r="B116" s="87" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C116" s="92">
         <v>3.2500000000000001E-2</v>
@@ -15249,7 +15245,7 @@
     </row>
     <row r="118" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B118" s="87" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C118" s="109"/>
       <c r="D118" s="108">
@@ -15275,7 +15271,7 @@
     </row>
     <row r="120" spans="2:10" ht="17" x14ac:dyDescent="0.15">
       <c r="B120" s="81" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C120" s="131">
         <f>'Pre-analysis'!E108</f>
@@ -15324,7 +15320,7 @@
     </row>
     <row r="124" spans="2:10" ht="17" x14ac:dyDescent="0.15">
       <c r="B124" s="106" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C124" s="166" t="str">
         <f>B83</f>
@@ -15363,20 +15359,20 @@
     </row>
     <row r="127" spans="2:10" ht="17" x14ac:dyDescent="0.15">
       <c r="B127" s="87" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C127" s="136">
         <f>'Pre-analysis'!C139</f>
-        <v>0.40816866926710466</v>
+        <v>0.41834784268527153</v>
       </c>
       <c r="D127" s="136">
         <f>'Pre-analysis'!C138</f>
-        <v>0.27952984296407707</v>
+        <v>0.37880277916404897</v>
       </c>
     </row>
     <row r="128" spans="2:10" ht="17" x14ac:dyDescent="0.15">
       <c r="B128" s="87" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C128" s="87">
         <f>'Target co'!E46</f>
@@ -15389,7 +15385,7 @@
     </row>
     <row r="129" spans="2:4" ht="17" x14ac:dyDescent="0.15">
       <c r="B129" s="87" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C129" s="87">
         <f>C130*'Target co'!E19</f>
@@ -15397,12 +15393,12 @@
       </c>
       <c r="D129" s="87">
         <f>Market!I20</f>
-        <v>4.6537396500000003</v>
+        <v>7.63514465</v>
       </c>
     </row>
     <row r="130" spans="2:4" ht="17" x14ac:dyDescent="0.15">
       <c r="B130" s="87" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C130" s="87">
         <v>16</v>
@@ -15413,7 +15409,7 @@
     </row>
     <row r="131" spans="2:4" ht="17" x14ac:dyDescent="0.15">
       <c r="B131" s="87" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C131" s="131">
         <f>C128/C129</f>
@@ -15421,16 +15417,16 @@
       </c>
       <c r="D131" s="92">
         <f>'Pre-analysis'!C132</f>
-        <v>2.7956441439520576</v>
+        <v>1.7039886729585403</v>
       </c>
     </row>
     <row r="132" spans="2:4" ht="17" x14ac:dyDescent="0.15">
       <c r="B132" s="87" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C132" s="137">
         <f>C127*(1+(1-$D103)*C131)</f>
-        <v>0.4285294830523787</v>
+        <v>0.43921642757122181</v>
       </c>
       <c r="D132" s="108">
         <f>'Pre-analysis'!C123</f>
@@ -15439,7 +15435,7 @@
     </row>
     <row r="135" spans="2:4" ht="17" x14ac:dyDescent="0.15">
       <c r="B135" s="106" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C135" s="166" t="str">
         <f>C124</f>
@@ -15452,7 +15448,7 @@
     </row>
     <row r="136" spans="2:4" ht="17" x14ac:dyDescent="0.15">
       <c r="B136" s="87" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C136" s="92">
         <f>SUM(D116:D117)</f>
@@ -15465,7 +15461,7 @@
     </row>
     <row r="138" spans="2:4" ht="17" x14ac:dyDescent="0.15">
       <c r="B138" s="106" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C138" s="166" t="str">
         <f>C135</f>
@@ -15478,10 +15474,10 @@
     </row>
     <row r="139" spans="2:4" ht="17" x14ac:dyDescent="0.15">
       <c r="B139" s="87" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C139" s="92">
-        <v>4.8000000000000001E-2</v>
+        <v>2.8000000000000001E-2</v>
       </c>
       <c r="D139" s="92">
         <f>Market!E32</f>
@@ -15557,7 +15553,7 @@
     </row>
     <row r="4" spans="2:11" ht="17" x14ac:dyDescent="0.15">
       <c r="B4" s="81" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C4" s="104">
         <f>'Noname co'!G8</f>
@@ -15582,7 +15578,7 @@
     </row>
     <row r="5" spans="2:11" ht="17" x14ac:dyDescent="0.15">
       <c r="B5" s="81" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C5" s="104"/>
       <c r="D5" s="104">
@@ -15631,7 +15627,7 @@
     </row>
     <row r="9" spans="2:11" ht="17" x14ac:dyDescent="0.15">
       <c r="B9" s="81" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C9" s="104"/>
       <c r="D9" s="104">
@@ -15653,7 +15649,7 @@
     </row>
     <row r="10" spans="2:11" ht="17" x14ac:dyDescent="0.15">
       <c r="B10" s="81" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C10" s="104"/>
       <c r="D10" s="104">
@@ -15676,7 +15672,7 @@
     </row>
     <row r="11" spans="2:11" ht="17" x14ac:dyDescent="0.15">
       <c r="B11" s="81" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C11" s="104"/>
       <c r="D11" s="104">
@@ -15721,7 +15717,7 @@
     </row>
     <row r="13" spans="2:11" ht="19" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B13" s="134" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C13" s="135"/>
       <c r="D13" s="135">
@@ -15743,7 +15739,7 @@
     </row>
     <row r="14" spans="2:11" ht="19" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B14" s="81" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C14" s="104">
         <f>'Noname co'!G45</f>
@@ -15768,7 +15764,7 @@
     </row>
     <row r="15" spans="2:11" ht="19" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B15" s="81" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C15" s="104">
         <f>'Noname co'!G61</f>
@@ -15793,7 +15789,7 @@
     </row>
     <row r="16" spans="2:11" ht="19" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B16" s="81" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C16" s="104"/>
       <c r="D16" s="104">
@@ -15815,7 +15811,7 @@
     </row>
     <row r="17" spans="2:8" ht="19" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B17" s="81" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C17" s="104"/>
       <c r="D17" s="104">
@@ -15870,7 +15866,7 @@
     </row>
     <row r="21" spans="2:8" ht="19" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B21" s="81" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C21" s="104">
         <f>'Noname co'!G43</f>
@@ -15895,7 +15891,7 @@
     </row>
     <row r="22" spans="2:8" ht="19" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B22" s="81" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C22" s="104">
         <f>'Noname co'!G59</f>
@@ -15920,7 +15916,7 @@
     </row>
     <row r="23" spans="2:8" ht="19" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B23" s="81" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C23" s="104">
         <f>'Noname co'!G44</f>
@@ -15945,7 +15941,7 @@
     </row>
     <row r="24" spans="2:8" ht="19" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B24" s="81" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D24" s="104">
         <f>(C21+C23-C22)-(D21+D23-D22)</f>
@@ -15999,7 +15995,7 @@
     </row>
     <row r="27" spans="2:8" ht="19" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B27" s="81" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C27" s="104">
         <f>'Noname co'!G48</f>
@@ -16024,7 +16020,7 @@
     </row>
     <row r="28" spans="2:8" ht="19" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B28" s="81" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C28" s="104">
         <f>'Noname co'!G49</f>
@@ -16049,7 +16045,7 @@
     </row>
     <row r="29" spans="2:8" ht="19" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B29" s="81" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D29" s="104">
         <f>(C27+C28)-(D27+D28)</f>
@@ -16104,7 +16100,7 @@
     </row>
     <row r="32" spans="2:8" ht="19" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B32" s="251" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C32" s="291"/>
       <c r="D32" s="301">
@@ -16126,7 +16122,7 @@
     </row>
     <row r="33" spans="2:9" ht="19" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B33" s="251" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C33" s="291"/>
       <c r="D33" s="301">
@@ -16148,7 +16144,7 @@
     </row>
     <row r="34" spans="2:9" ht="19" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B34" s="87" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C34" s="112">
         <f>'Noname co'!G58</f>
@@ -16173,7 +16169,7 @@
     </row>
     <row r="35" spans="2:9" ht="19" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B35" s="81" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D35" s="104">
         <f>D34-C34</f>
@@ -16194,7 +16190,7 @@
     </row>
     <row r="36" spans="2:9" ht="19" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B36" s="87" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C36" s="112"/>
       <c r="D36" s="112">
@@ -16219,7 +16215,7 @@
     </row>
     <row r="38" spans="2:9" ht="19" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B38" s="308" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C38" s="309"/>
       <c r="D38" s="309">
@@ -16241,7 +16237,7 @@
     </row>
     <row r="39" spans="2:9" ht="19" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B39" s="81" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C39" s="310">
         <f>'Noname co'!G64</f>
@@ -16267,7 +16263,7 @@
     </row>
     <row r="40" spans="2:9" ht="19" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B40" s="308" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C40" s="310">
         <f>'Noname co'!G60</f>
@@ -16293,7 +16289,7 @@
     </row>
     <row r="41" spans="2:9" ht="19" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B41" s="308" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C41" s="310"/>
       <c r="D41" s="309">
@@ -16396,7 +16392,7 @@
     </row>
     <row r="51" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B51" s="88" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C51" s="88"/>
       <c r="D51" s="99">
@@ -16418,7 +16414,7 @@
     </row>
     <row r="52" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B52" s="114" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C52" s="114"/>
       <c r="D52" s="99">
@@ -16456,7 +16452,7 @@
     </row>
     <row r="55" spans="2:8" ht="18" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B55" s="107" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C55" s="172" t="str">
         <f>C50</f>
@@ -16481,7 +16477,7 @@
     </row>
     <row r="56" spans="2:8" ht="17" x14ac:dyDescent="0.15">
       <c r="B56" s="81" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C56" s="104"/>
       <c r="D56" s="104">
@@ -16547,7 +16543,7 @@
     </row>
     <row r="59" spans="2:8" ht="17" x14ac:dyDescent="0.15">
       <c r="B59" s="134" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C59" s="135"/>
       <c r="D59" s="135">
@@ -16602,7 +16598,7 @@
     </row>
     <row r="62" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B62" s="88" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C62" s="123"/>
       <c r="D62" s="104">
@@ -16624,7 +16620,7 @@
     </row>
     <row r="63" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B63" s="88" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D63" s="104">
         <f>-Input!D58/365*Calcul!D56</f>
@@ -16645,7 +16641,7 @@
     </row>
     <row r="64" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B64" s="88" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C64" s="88"/>
       <c r="D64" s="104">
@@ -16668,7 +16664,7 @@
     </row>
     <row r="65" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B65" s="88" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C65" s="111"/>
       <c r="D65" s="104">
@@ -16700,7 +16696,7 @@
     </row>
     <row r="67" spans="2:8" ht="18" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B67" s="107" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C67" s="172" t="str">
         <f>C61</f>
@@ -16739,7 +16735,7 @@
     </row>
     <row r="69" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B69" s="102" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C69" s="115"/>
       <c r="D69" s="104">
@@ -16762,7 +16758,7 @@
     </row>
     <row r="70" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B70" s="202" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C70" s="99"/>
       <c r="D70" s="104">
@@ -16785,7 +16781,7 @@
     </row>
     <row r="71" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B71" s="102" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C71" s="99"/>
       <c r="D71" s="104">
@@ -16864,7 +16860,7 @@
     </row>
     <row r="77" spans="2:8" ht="17" x14ac:dyDescent="0.15">
       <c r="B77" s="81" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C77" s="104">
         <f>'Target co'!E7</f>
@@ -16884,13 +16880,13 @@
       </c>
       <c r="G77" s="104">
         <f>F77*(1+Input!G93)</f>
-        <v>7.6724081404320019</v>
+        <v>7.5259881377520026</v>
       </c>
       <c r="H77" s="87"/>
     </row>
     <row r="78" spans="2:8" ht="17" x14ac:dyDescent="0.15">
       <c r="B78" s="81" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C78" s="104"/>
       <c r="D78" s="104">
@@ -16907,7 +16903,7 @@
       </c>
       <c r="G78" s="104">
         <f t="shared" si="11"/>
-        <v>7.6724081404320019</v>
+        <v>7.5259881377520026</v>
       </c>
       <c r="H78" s="87"/>
     </row>
@@ -16945,7 +16941,7 @@
     </row>
     <row r="82" spans="2:8" ht="17" x14ac:dyDescent="0.15">
       <c r="B82" s="81" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C82" s="104"/>
       <c r="D82" s="104">
@@ -16962,13 +16958,13 @@
       </c>
       <c r="G82" s="104">
         <f>-G78*Input!G96</f>
-        <v>-4.4883587621527212</v>
+        <v>-4.4027030605849209</v>
       </c>
       <c r="H82" s="87"/>
     </row>
     <row r="83" spans="2:8" ht="17" x14ac:dyDescent="0.15">
       <c r="B83" s="81" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C83" s="104"/>
       <c r="D83" s="104">
@@ -16985,13 +16981,13 @@
       </c>
       <c r="G83" s="104">
         <f>-G78*Input!G98</f>
-        <v>-2.4168085642360806</v>
+        <v>-2.3706862633918808</v>
       </c>
       <c r="H83" s="87"/>
     </row>
     <row r="84" spans="2:8" ht="17" x14ac:dyDescent="0.15">
       <c r="B84" s="81" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C84" s="104"/>
       <c r="D84" s="104">
@@ -17008,7 +17004,7 @@
       </c>
       <c r="G84" s="104">
         <f>-G78*Input!G97</f>
-        <v>-0.12275853024691204</v>
+        <v>-0.12041581020403204</v>
       </c>
       <c r="H84" s="87"/>
     </row>
@@ -17031,12 +17027,12 @@
       </c>
       <c r="G85" s="135">
         <f t="shared" si="13"/>
-        <v>0.64448228379628802</v>
+        <v>0.63218300357116886</v>
       </c>
     </row>
     <row r="86" spans="2:8" ht="17" x14ac:dyDescent="0.15">
       <c r="B86" s="134" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C86" s="135"/>
       <c r="D86" s="135">
@@ -17053,12 +17049,12 @@
       </c>
       <c r="G86" s="135">
         <f t="shared" si="14"/>
-        <v>-7.0279258566357141</v>
+        <v>-6.893805134180834</v>
       </c>
     </row>
     <row r="87" spans="2:8" ht="17" x14ac:dyDescent="0.15">
       <c r="B87" s="81" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C87" s="104">
         <f>'Target co'!E36</f>
@@ -17078,12 +17074,12 @@
       </c>
       <c r="G87" s="104">
         <f>G78*Input!G99</f>
-        <v>9.2068897685184031E-2</v>
+        <v>9.0311857653024033E-2</v>
       </c>
     </row>
     <row r="88" spans="2:8" ht="17" x14ac:dyDescent="0.15">
       <c r="B88" s="81" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C88" s="123">
         <f>'Target co'!E49</f>
@@ -17103,12 +17099,12 @@
       </c>
       <c r="G88" s="104">
         <f>G78*Input!G100</f>
-        <v>0.12736197513117123</v>
+        <v>0.12493140308668324</v>
       </c>
     </row>
     <row r="89" spans="2:8" ht="17" x14ac:dyDescent="0.15">
       <c r="B89" s="81" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C89" s="123"/>
       <c r="D89" s="104">
@@ -17125,12 +17121,12 @@
       </c>
       <c r="G89" s="104">
         <f t="shared" si="15"/>
-        <v>-4.2168960771840069E-3</v>
+        <v>-2.4598560450240087E-3</v>
       </c>
     </row>
     <row r="90" spans="2:8" ht="17" x14ac:dyDescent="0.15">
       <c r="B90" s="81" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C90" s="123"/>
       <c r="D90" s="104">
@@ -17147,7 +17143,7 @@
       </c>
       <c r="G90" s="104">
         <f t="shared" si="16"/>
-        <v>5.8333729067711892E-3</v>
+        <v>3.4028008622832007E-3</v>
       </c>
     </row>
     <row r="91" spans="2:8" x14ac:dyDescent="0.15">
@@ -17184,7 +17180,7 @@
     </row>
     <row r="94" spans="2:8" ht="17" x14ac:dyDescent="0.15">
       <c r="B94" s="81" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C94" s="104">
         <f>'Target co'!E34</f>
@@ -17204,12 +17200,12 @@
       </c>
       <c r="G94" s="104">
         <f>Input!G106/365*Calcul!G78</f>
-        <v>1.5765222206367127</v>
+        <v>1.5464359187161649</v>
       </c>
     </row>
     <row r="95" spans="2:8" ht="17" x14ac:dyDescent="0.15">
       <c r="B95" s="81" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C95" s="104">
         <f>'Target co'!E47</f>
@@ -17229,12 +17225,12 @@
       </c>
       <c r="G95" s="104">
         <f>-Input!G108/365*Calcul!G82</f>
-        <v>0.36890619962899074</v>
+        <v>0.36186600497958255</v>
       </c>
     </row>
     <row r="96" spans="2:8" ht="17" x14ac:dyDescent="0.15">
       <c r="B96" s="81" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C96" s="104">
         <f>'Target co'!E35</f>
@@ -17254,12 +17250,12 @@
       </c>
       <c r="G96" s="104">
         <f>-Input!G107/365*Calcul!G82</f>
-        <v>1.1220896905381803</v>
+        <v>1.1006757651462302</v>
       </c>
     </row>
     <row r="97" spans="2:8" ht="17" x14ac:dyDescent="0.15">
       <c r="B97" s="81" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C97" s="104">
         <f>'Target co'!E33</f>
@@ -17279,12 +17275,12 @@
       </c>
       <c r="G97" s="104">
         <f>-Input!G109/365*Calcul!G86</f>
-        <v>0.38509182776086104</v>
+        <v>0.37774274707840183</v>
       </c>
     </row>
     <row r="98" spans="2:8" ht="17" x14ac:dyDescent="0.15">
       <c r="B98" s="81" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D98" s="104">
         <f>(C94+C96-C95)-(D94+D96-D95)</f>
@@ -17300,7 +17296,7 @@
       </c>
       <c r="G98" s="104">
         <f>(F94+F96-F95)-(G94+G96-G95)</f>
-        <v>-0.10670407839141527</v>
+        <v>-6.2244045728325315E-2</v>
       </c>
       <c r="H98" s="104"/>
     </row>
@@ -17345,7 +17341,7 @@
     </row>
     <row r="102" spans="2:8" ht="17" x14ac:dyDescent="0.15">
       <c r="B102" s="81" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C102" s="241">
         <f>'Target co'!E39</f>
@@ -17365,12 +17361,12 @@
       </c>
       <c r="G102" s="104">
         <f>G78*Input!G112</f>
-        <v>1.9181020351080005</v>
+        <v>1.8814970344380006</v>
       </c>
     </row>
     <row r="103" spans="2:8" ht="17" x14ac:dyDescent="0.15">
       <c r="B103" s="81" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C103" s="241">
         <f>'Target co'!E40</f>
@@ -17390,12 +17386,12 @@
       </c>
       <c r="G103" s="104">
         <f>G78*Input!G113</f>
-        <v>0.34525836631944007</v>
+        <v>0.33866946619884009</v>
       </c>
     </row>
     <row r="104" spans="2:8" ht="17" x14ac:dyDescent="0.15">
       <c r="B104" s="81" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D104" s="104">
         <f>(C102+C103)-(D102+D103)</f>
@@ -17411,7 +17407,7 @@
       </c>
       <c r="G104" s="104">
         <f>(F102+F103)-(G102+G103)</f>
-        <v>-0.10366536189743991</v>
+        <v>-6.0471461106839985E-2</v>
       </c>
       <c r="H104" s="104"/>
     </row>
@@ -17456,7 +17452,7 @@
     </row>
     <row r="108" spans="2:8" ht="17" x14ac:dyDescent="0.15">
       <c r="B108" s="139" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C108" s="161"/>
       <c r="D108" s="161"/>
@@ -17466,7 +17462,7 @@
     </row>
     <row r="109" spans="2:8" ht="17" x14ac:dyDescent="0.15">
       <c r="B109" s="81" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C109" s="104">
         <f>'Target co'!E46</f>
@@ -17486,12 +17482,12 @@
       </c>
       <c r="G109" s="104">
         <f>Input!G120*G94</f>
-        <v>0.39400602733764284</v>
+        <v>0.38648682834264975</v>
       </c>
     </row>
     <row r="110" spans="2:8" ht="17" x14ac:dyDescent="0.15">
       <c r="B110" s="81" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C110" s="104"/>
       <c r="D110" s="104">
@@ -17508,12 +17504,12 @@
       </c>
       <c r="G110" s="104">
         <f t="shared" si="20"/>
-        <v>1.80460775879836E-2</v>
+        <v>1.0526878592990507E-2</v>
       </c>
     </row>
     <row r="111" spans="2:8" ht="17" x14ac:dyDescent="0.15">
       <c r="B111" s="81" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C111" s="104">
         <f>'Target co'!E55</f>
@@ -17526,7 +17522,7 @@
     </row>
     <row r="112" spans="2:8" ht="17" x14ac:dyDescent="0.15">
       <c r="B112" s="81" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C112" s="104">
         <f>'Target co'!E56</f>
@@ -17560,7 +17556,7 @@
     </row>
     <row r="116" spans="2:7" ht="35" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B116" s="107" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C116" s="107" t="str">
         <f>Input!C124</f>
@@ -17576,11 +17572,11 @@
     </row>
     <row r="117" spans="2:7" ht="17" x14ac:dyDescent="0.15">
       <c r="B117" s="81" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C117" s="156">
         <f>Input!C125+Input!C132*Input!C126</f>
-        <v>7.2497063813666524E-2</v>
+        <v>7.3245149929985529E-2</v>
       </c>
       <c r="D117" s="188">
         <f>Input!D125+Input!D126*Input!D132</f>
@@ -17602,7 +17598,7 @@
     </row>
     <row r="119" spans="2:7" ht="17" x14ac:dyDescent="0.15">
       <c r="B119" s="81" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C119" s="192">
         <f>Input!D54</f>
@@ -17615,7 +17611,7 @@
     </row>
     <row r="120" spans="2:7" ht="18" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B120" s="189" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C120" s="194">
         <f>Input!C128/(Input!C128+Input!C129)</f>
@@ -17623,20 +17619,20 @@
       </c>
       <c r="D120" s="194">
         <f>Input!D128/(Input!D128+Input!D129)</f>
-        <v>0.73654010700834793</v>
+        <v>0.63017596560200806</v>
       </c>
     </row>
     <row r="121" spans="2:7" ht="18" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B121" s="81" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C121" s="156">
         <f>C117*(1-C120)+C118*C120*(1-C119)</f>
-        <v>7.1245184536973358E-2</v>
+        <v>7.1945421151312514E-2</v>
       </c>
       <c r="D121" s="156">
         <f>D117*(1-D120)+D118*D120*(1-D119)</f>
-        <v>7.1231037029726274E-2</v>
+        <v>7.567439903697612E-2</v>
       </c>
     </row>
   </sheetData>
@@ -17657,8 +17653,8 @@
   </sheetPr>
   <dimension ref="A2:M178"/>
   <sheetViews>
-    <sheetView topLeftCell="A154" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="E180" sqref="E180"/>
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="E164" sqref="E164"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.75" defaultRowHeight="16" x14ac:dyDescent="0.15"/>
@@ -17679,22 +17675,22 @@
     </row>
     <row r="4" spans="2:5" ht="17" x14ac:dyDescent="0.15">
       <c r="B4" s="274" t="s">
+        <v>185</v>
+      </c>
+      <c r="C4" s="274" t="s">
         <v>186</v>
       </c>
-      <c r="C4" s="274" t="s">
+      <c r="D4" s="274" t="s">
         <v>187</v>
-      </c>
-      <c r="D4" s="274" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="5" spans="2:5" ht="17" x14ac:dyDescent="0.15">
       <c r="B5" s="81" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C5" s="81">
         <f>Input!$C$70*D5</f>
-        <v>101966.25</v>
+        <v>226966.25</v>
       </c>
       <c r="D5" s="192">
         <f>Input!C74</f>
@@ -17707,7 +17703,7 @@
       </c>
       <c r="C6" s="81">
         <f>Input!$C$70*D6</f>
-        <v>28550.550000000003</v>
+        <v>63550.55</v>
       </c>
       <c r="D6" s="192">
         <f>Input!C75</f>
@@ -17716,11 +17712,11 @@
     </row>
     <row r="7" spans="2:5" ht="17" x14ac:dyDescent="0.15">
       <c r="B7" s="81" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C7" s="81">
         <f>Input!$C$70*D7</f>
-        <v>277348.19999999995</v>
+        <v>617348.19999999995</v>
       </c>
       <c r="D7" s="192">
         <f>Input!C76</f>
@@ -17729,28 +17725,28 @@
     </row>
     <row r="9" spans="2:5" ht="17" x14ac:dyDescent="0.15">
       <c r="B9" s="81" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C9" s="81">
         <f>Input!C79</f>
         <v>400000</v>
       </c>
       <c r="D9" s="220" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="10" spans="2:5" ht="17" x14ac:dyDescent="0.15">
       <c r="B10" s="81" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C10" s="81">
         <f>Input!C69</f>
-        <v>11.41</v>
+        <v>8.41</v>
       </c>
     </row>
     <row r="11" spans="2:5" ht="17" x14ac:dyDescent="0.15">
       <c r="B11" s="139" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C11" s="139">
         <f>Input!C80</f>
@@ -17759,50 +17755,50 @@
     </row>
     <row r="12" spans="2:5" ht="17" x14ac:dyDescent="0.15">
       <c r="B12" s="81" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C12" s="81">
         <f>Input!C70</f>
-        <v>407865</v>
+        <v>907865</v>
       </c>
     </row>
     <row r="13" spans="2:5" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B13" s="139" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C13" s="221">
         <f>1-C12/(C9+C12)</f>
-        <v>0.49513223125150863</v>
+        <v>0.30584196381124962</v>
       </c>
     </row>
     <row r="14" spans="2:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B14" s="242" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C14" s="243">
         <f>C12*C10/inM</f>
-        <v>4.6537396500000003</v>
+        <v>7.63514465</v>
       </c>
     </row>
     <row r="15" spans="2:5" ht="17" x14ac:dyDescent="0.15">
       <c r="B15" s="139" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C15" s="200">
         <f>SUM(C9,C12)*C11/inM</f>
-        <v>8.0786499999999997</v>
+        <v>13.07865</v>
       </c>
       <c r="D15" s="334" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="E15" s="333">
         <f>(C9+C12)*C10/inM</f>
-        <v>9.2177396500000004</v>
+        <v>10.99914465</v>
       </c>
     </row>
     <row r="16" spans="2:5" ht="17" x14ac:dyDescent="0.15">
       <c r="B16" s="81" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C16" s="123">
         <f>C9*C11/inM</f>
@@ -17814,26 +17810,26 @@
     </row>
     <row r="18" spans="2:7" ht="17" x14ac:dyDescent="0.15">
       <c r="B18" s="274" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C18" s="274" t="s">
+        <v>186</v>
+      </c>
+      <c r="D18" s="274" t="s">
         <v>187</v>
-      </c>
-      <c r="D18" s="274" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="19" spans="2:7" ht="17" x14ac:dyDescent="0.15">
       <c r="B19" s="81" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C19" s="81">
         <f t="shared" ref="C19:C20" si="0">C5</f>
-        <v>101966.25</v>
+        <v>226966.25</v>
       </c>
       <c r="D19" s="192">
         <f>C19/SUM($C$19:$C$22)</f>
-        <v>0.12621694218712284</v>
+        <v>0.1735395090471876</v>
       </c>
     </row>
     <row r="20" spans="2:7" ht="17" x14ac:dyDescent="0.15">
@@ -17842,29 +17838,29 @@
       </c>
       <c r="C20" s="81">
         <f t="shared" si="0"/>
-        <v>28550.550000000003</v>
+        <v>63550.55</v>
       </c>
       <c r="D20" s="192">
         <f t="shared" ref="D20:D22" si="1">C20/SUM($C$19:$C$22)</f>
-        <v>3.5340743812394403E-2</v>
+        <v>4.8591062533212527E-2</v>
       </c>
     </row>
     <row r="21" spans="2:7" ht="17" x14ac:dyDescent="0.15">
       <c r="B21" s="81" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C21" s="81">
         <f>C7</f>
-        <v>277348.19999999995</v>
+        <v>617348.19999999995</v>
       </c>
       <c r="D21" s="192">
         <f t="shared" si="1"/>
-        <v>0.34331008274897407</v>
+        <v>0.47202746460835021</v>
       </c>
     </row>
     <row r="22" spans="2:7" ht="17" x14ac:dyDescent="0.15">
       <c r="B22" s="81" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C22" s="81">
         <f>C9</f>
@@ -17872,7 +17868,7 @@
       </c>
       <c r="D22" s="192">
         <f t="shared" si="1"/>
-        <v>0.49513223125150863</v>
+        <v>0.30584196381124962</v>
       </c>
     </row>
     <row r="25" spans="2:7" ht="26" customHeight="1" x14ac:dyDescent="0.15">
@@ -17884,7 +17880,7 @@
     </row>
     <row r="27" spans="2:7" ht="17" x14ac:dyDescent="0.2">
       <c r="B27" s="248" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C27" s="249"/>
       <c r="D27" s="250" t="str">
@@ -17948,7 +17944,7 @@
     </row>
     <row r="30" spans="2:7" ht="17" x14ac:dyDescent="0.15">
       <c r="B30" s="81" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D30" s="104">
         <f>SUM(D28:D29)</f>
@@ -17975,7 +17971,7 @@
     </row>
     <row r="32" spans="2:7" ht="17" x14ac:dyDescent="0.15">
       <c r="B32" s="81" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D32" s="104">
         <f>-Calcul!D69</f>
@@ -18017,7 +18013,7 @@
     </row>
     <row r="34" spans="2:13" ht="17" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B34" s="88" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D34" s="173">
         <f>Calcul!D58</f>
@@ -18038,7 +18034,7 @@
     </row>
     <row r="35" spans="2:13" ht="17" x14ac:dyDescent="0.15">
       <c r="B35" s="81" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D35" s="104">
         <f>SUM(D30:D34)</f>
@@ -18071,7 +18067,7 @@
     </row>
     <row r="38" spans="2:13" ht="17" x14ac:dyDescent="0.2">
       <c r="B38" s="248" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C38" s="249"/>
       <c r="D38" s="250" t="str">
@@ -18115,7 +18111,7 @@
     </row>
     <row r="40" spans="2:13" ht="19" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B40" s="81" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D40" s="112">
         <f>-D39*Input!D19</f>
@@ -18138,7 +18134,7 @@
     </row>
     <row r="41" spans="2:13" ht="17" x14ac:dyDescent="0.15">
       <c r="B41" s="174" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D41" s="108">
         <f>Calcul!D69</f>
@@ -18160,7 +18156,7 @@
     </row>
     <row r="42" spans="2:13" ht="17" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B42" s="175" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D42" s="173">
         <f>Calcul!D65</f>
@@ -18181,7 +18177,7 @@
     </row>
     <row r="43" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B43" s="138" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D43" s="104">
         <f>SUM(D39:D42)</f>
@@ -18208,7 +18204,7 @@
     </row>
     <row r="45" spans="2:13" ht="17" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B45" s="102" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D45" s="173">
         <f>Calcul!D71</f>
@@ -18229,7 +18225,7 @@
     </row>
     <row r="46" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B46" s="176" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D46" s="104">
         <f>D45</f>
@@ -18256,7 +18252,7 @@
     </row>
     <row r="48" spans="2:13" ht="17" x14ac:dyDescent="0.15">
       <c r="B48" s="81" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D48" s="104">
         <f>SUM(D43+D46)</f>
@@ -18296,10 +18292,10 @@
     <row r="51" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A51" s="87"/>
       <c r="B51" s="248" t="s">
+        <v>211</v>
+      </c>
+      <c r="C51" s="249" t="s">
         <v>212</v>
-      </c>
-      <c r="C51" s="249" t="s">
-        <v>213</v>
       </c>
       <c r="D51" s="250" t="str">
         <f>D38</f>
@@ -18324,12 +18320,12 @@
     <row r="52" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A52" s="87"/>
       <c r="B52" s="213" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C52" s="214"/>
       <c r="D52" s="214">
         <f>Calcul!D121</f>
-        <v>7.1231037029726274E-2</v>
+        <v>7.567439903697612E-2</v>
       </c>
       <c r="E52" s="347"/>
       <c r="F52" s="348"/>
@@ -18341,24 +18337,24 @@
     <row r="53" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A53" s="87"/>
       <c r="B53" s="213" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C53" s="214"/>
       <c r="D53" s="214">
         <f>D35/(Input!$C70/inM)</f>
-        <v>3.4876736174959868</v>
+        <v>1.5668629146403932</v>
       </c>
       <c r="E53" s="214">
         <f>E35/(Input!$C70/inM)</f>
-        <v>3.697363098083926</v>
+        <v>1.6610674494555913</v>
       </c>
       <c r="F53" s="214">
         <f>F35/(Input!$C70/inM)</f>
-        <v>3.9175370527012627</v>
+        <v>1.7599822110115495</v>
       </c>
       <c r="G53" s="214">
         <f>G35/(Input!$C70/inM)</f>
-        <v>4.1487197050494666</v>
+        <v>1.8638427106453057</v>
       </c>
       <c r="H53" s="87"/>
       <c r="I53" s="178"/>
@@ -18367,7 +18363,7 @@
     <row r="54" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A54" s="87"/>
       <c r="B54" s="213" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C54" s="214"/>
       <c r="D54" s="214">
@@ -18392,24 +18388,24 @@
     <row r="55" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A55" s="87"/>
       <c r="B55" s="213" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C55" s="214"/>
       <c r="D55" s="214">
         <f>1/(1+$D52)^D54</f>
-        <v>0.96618085236327167</v>
+        <v>0.9641832525702988</v>
       </c>
       <c r="E55" s="214">
         <f t="shared" ref="E55:G55" si="10">1/(1+$D52)^E54</f>
-        <v>0.90193508119617749</v>
+        <v>0.89635232876557025</v>
       </c>
       <c r="F55" s="214">
         <f t="shared" si="10"/>
-        <v>0.84196130434853078</v>
+        <v>0.8332933549111623</v>
       </c>
       <c r="G55" s="214">
         <f t="shared" si="10"/>
-        <v>0.78597545743548758</v>
+        <v>0.77467062120023367</v>
       </c>
       <c r="H55" s="87"/>
       <c r="I55" s="178"/>
@@ -18418,24 +18414,24 @@
     <row r="56" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A56" s="87"/>
       <c r="B56" s="213" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C56" s="214"/>
       <c r="D56" s="214">
         <f>D48*D55</f>
-        <v>-2.4860971571763182</v>
+        <v>-2.4809570975753248</v>
       </c>
       <c r="E56" s="214">
         <f t="shared" ref="E56:G56" si="11">E48*E55</f>
-        <v>1.1417425813618989</v>
+        <v>1.1346754805204808</v>
       </c>
       <c r="F56" s="214">
         <f t="shared" si="11"/>
-        <v>1.1158405101374353</v>
+        <v>1.1043529880006282</v>
       </c>
       <c r="G56" s="214">
         <f t="shared" si="11"/>
-        <v>1.0906694725094848</v>
+        <v>1.0749821636286951</v>
       </c>
       <c r="H56" s="87"/>
       <c r="I56" s="178"/>
@@ -18444,11 +18440,11 @@
     <row r="57" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A57" s="87"/>
       <c r="B57" s="213" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C57" s="214">
         <f>SUM(D56:G56)</f>
-        <v>0.8621554068325008</v>
+        <v>0.83305353457447939</v>
       </c>
       <c r="D57" s="347"/>
       <c r="E57" s="348"/>
@@ -18461,14 +18457,14 @@
     <row r="58" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A58" s="87"/>
       <c r="B58" s="213" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C58" s="215">
         <f>IRR(D48:G48)</f>
         <v>0.24954953354154941</v>
       </c>
       <c r="D58" s="350" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E58" s="351"/>
       <c r="F58" s="351"/>
@@ -18480,7 +18476,7 @@
     <row r="59" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A59" s="87"/>
       <c r="B59" s="213" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C59" s="222" cm="1">
         <f t="array" ref="C59">COUNTIF(D59:G59,1)+INDEX(D59:G59, COUNTIF(D59:G59,1)+1)</f>
@@ -18539,7 +18535,7 @@
     </row>
     <row r="65" spans="2:9" ht="17" x14ac:dyDescent="0.2">
       <c r="B65" s="248" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C65" s="249" t="s">
         <v>85</v>
@@ -18571,7 +18567,7 @@
     </row>
     <row r="67" spans="2:9" ht="17" x14ac:dyDescent="0.15">
       <c r="B67" s="81" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C67" s="231">
         <f>'Target co'!E7</f>
@@ -18591,12 +18587,12 @@
       </c>
       <c r="G67" s="223">
         <f>Calcul!G78</f>
-        <v>7.6724081404320019</v>
+        <v>7.5259881377520026</v>
       </c>
     </row>
     <row r="68" spans="2:9" ht="18" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B68" s="81" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C68" s="232">
         <f>-'Target co'!E8</f>
@@ -18616,12 +18612,12 @@
       </c>
       <c r="G68" s="224">
         <f>Calcul!G82</f>
-        <v>-4.4883587621527212</v>
+        <v>-4.4027030605849209</v>
       </c>
     </row>
     <row r="69" spans="2:9" ht="17" x14ac:dyDescent="0.15">
       <c r="B69" s="81" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C69" s="231">
         <f>'Target co'!E9</f>
@@ -18641,7 +18637,7 @@
       </c>
       <c r="G69" s="225">
         <f t="shared" si="13"/>
-        <v>3.1840493782792807</v>
+        <v>3.1232850771670817</v>
       </c>
     </row>
     <row r="70" spans="2:9" x14ac:dyDescent="0.15">
@@ -18653,7 +18649,7 @@
     </row>
     <row r="71" spans="2:9" ht="17" x14ac:dyDescent="0.15">
       <c r="B71" s="81" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C71" s="231"/>
       <c r="D71" s="223"/>
@@ -18663,7 +18659,7 @@
     </row>
     <row r="72" spans="2:9" ht="17" x14ac:dyDescent="0.15">
       <c r="B72" s="81" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C72" s="231">
         <f>'Target co'!E11</f>
@@ -18683,13 +18679,13 @@
       </c>
       <c r="G72" s="104">
         <f>Calcul!G84</f>
-        <v>-0.12275853024691204</v>
+        <v>-0.12041581020403204</v>
       </c>
       <c r="I72" s="87"/>
     </row>
     <row r="73" spans="2:9" ht="18" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B73" s="81" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C73" s="232">
         <f>-'Target co'!E12</f>
@@ -18709,13 +18705,13 @@
       </c>
       <c r="G73" s="224">
         <f>Calcul!G83</f>
-        <v>-2.4168085642360806</v>
+        <v>-2.3706862633918808</v>
       </c>
       <c r="I73" s="87"/>
     </row>
     <row r="74" spans="2:9" ht="17" x14ac:dyDescent="0.15">
       <c r="B74" s="81" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C74" s="231">
         <f>'Target co'!E13</f>
@@ -18735,7 +18731,7 @@
       </c>
       <c r="G74" s="225">
         <f t="shared" si="14"/>
-        <v>0.64448228379628825</v>
+        <v>0.63218300357116863</v>
       </c>
       <c r="I74" s="87"/>
     </row>
@@ -18749,7 +18745,7 @@
     </row>
     <row r="76" spans="2:9" ht="18" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B76" s="81" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C76" s="232">
         <f>-'Target co'!E15</f>
@@ -18769,12 +18765,12 @@
       </c>
       <c r="G76" s="224">
         <f>-G134*SUM(Input!F116:F117)</f>
-        <v>-2.8565436981979109E-2</v>
+        <v>-2.8020295054842111E-2</v>
       </c>
     </row>
     <row r="77" spans="2:9" ht="17" x14ac:dyDescent="0.15">
       <c r="B77" s="81" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C77" s="231">
         <f>'Target co'!E16</f>
@@ -18794,7 +18790,7 @@
       </c>
       <c r="G77" s="225">
         <f t="shared" si="15"/>
-        <v>0.61591684681430914</v>
+        <v>0.60416270851632647</v>
       </c>
     </row>
     <row r="78" spans="2:9" x14ac:dyDescent="0.15">
@@ -18806,7 +18802,7 @@
     </row>
     <row r="79" spans="2:9" ht="18" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B79" s="81" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C79" s="232">
         <f>-'Target co'!E18</f>
@@ -18826,12 +18822,12 @@
       </c>
       <c r="G79" s="224">
         <f>-G77*Input!G103</f>
-        <v>-0.16629754863986349</v>
+        <v>-0.16312393129940816</v>
       </c>
     </row>
     <row r="80" spans="2:9" ht="17" x14ac:dyDescent="0.15">
       <c r="B80" s="81" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C80" s="231">
         <f>'Target co'!E19</f>
@@ -18851,7 +18847,7 @@
       </c>
       <c r="G80" s="225">
         <f t="shared" si="16"/>
-        <v>0.44961929817444568</v>
+        <v>0.44103877721691831</v>
       </c>
     </row>
     <row r="81" spans="2:7" x14ac:dyDescent="0.15">
@@ -18864,7 +18860,7 @@
     </row>
     <row r="82" spans="2:7" ht="17" x14ac:dyDescent="0.15">
       <c r="B82" s="81" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C82" s="231">
         <f>'Target co'!E21</f>
@@ -18889,7 +18885,7 @@
     </row>
     <row r="83" spans="2:7" ht="17" x14ac:dyDescent="0.15">
       <c r="B83" s="81" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C83" s="231">
         <f>C80-C82</f>
@@ -18909,7 +18905,7 @@
       </c>
       <c r="G83" s="225">
         <f>G80*Input!G121</f>
-        <v>0.44961929817444568</v>
+        <v>0.44103877721691831</v>
       </c>
     </row>
     <row r="84" spans="2:7" x14ac:dyDescent="0.15">
@@ -18921,7 +18917,7 @@
     </row>
     <row r="85" spans="2:7" ht="17" x14ac:dyDescent="0.2">
       <c r="B85" s="248" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C85" s="249" t="str">
         <f>C65</f>
@@ -18946,7 +18942,7 @@
     </row>
     <row r="86" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B86" s="101" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C86" s="231">
         <f>'Target co'!E13</f>
@@ -18966,12 +18962,12 @@
       </c>
       <c r="G86" s="223">
         <f t="shared" si="19"/>
-        <v>0.64448228379628825</v>
+        <v>0.63218300357116863</v>
       </c>
     </row>
     <row r="87" spans="2:7" ht="17" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B87" s="101" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C87" s="232">
         <f>-C86*'Pre-analysis'!H83</f>
@@ -18991,12 +18987,12 @@
       </c>
       <c r="G87" s="224">
         <f>G86*-Input!G103</f>
-        <v>-0.17401021662499783</v>
+        <v>-0.17068941096421555</v>
       </c>
     </row>
     <row r="88" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B88" s="102" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C88" s="231">
         <f>SUM(C86:C87)</f>
@@ -19016,12 +19012,12 @@
       </c>
       <c r="G88" s="225">
         <f t="shared" si="20"/>
-        <v>0.47047206717129042</v>
+        <v>0.46149359260695311</v>
       </c>
     </row>
     <row r="89" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B89" s="102" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C89" s="231"/>
       <c r="D89" s="223"/>
@@ -19031,7 +19027,7 @@
     </row>
     <row r="90" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B90" s="102" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C90" s="231">
         <f>-(('Target co'!E34+'Target co'!E35-'Target co'!E47)-('Target co'!D34+'Target co'!D35-'Target co'!D47))</f>
@@ -19051,12 +19047,12 @@
       </c>
       <c r="G90" s="225">
         <f t="shared" si="21"/>
-        <v>-0.10670407839141527</v>
+        <v>-6.2244045728325315E-2</v>
       </c>
     </row>
     <row r="91" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B91" s="102" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C91" s="231">
         <f>-('Target co'!E36-'Target co'!D36)</f>
@@ -19076,12 +19072,12 @@
       </c>
       <c r="G91" s="225">
         <f t="shared" si="22"/>
-        <v>-4.2168960771840069E-3</v>
+        <v>-2.4598560450240087E-3</v>
       </c>
     </row>
     <row r="92" spans="2:7" ht="17" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B92" s="102" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C92" s="232">
         <f>'Target co'!E49-'Target co'!D49</f>
@@ -19101,12 +19097,12 @@
       </c>
       <c r="G92" s="228">
         <f t="shared" si="23"/>
-        <v>5.8333729067711892E-3</v>
+        <v>3.4028008622832007E-3</v>
       </c>
     </row>
     <row r="93" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B93" s="138" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C93" s="231">
         <f>SUM(C88:C92)</f>
@@ -19126,7 +19122,7 @@
       </c>
       <c r="G93" s="112">
         <f t="shared" si="24"/>
-        <v>0.36538446560946236</v>
+        <v>0.400192491695887</v>
       </c>
     </row>
     <row r="94" spans="2:7" x14ac:dyDescent="0.15">
@@ -19139,7 +19135,7 @@
     </row>
     <row r="95" spans="2:7" ht="17" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B95" s="102" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C95" s="232">
         <f>-('Target co'!E39+'Target co'!E40-'Target co'!D39-'Target co'!D40)</f>
@@ -19159,12 +19155,12 @@
       </c>
       <c r="G95" s="228">
         <f t="shared" si="25"/>
-        <v>-0.10366536189743991</v>
+        <v>-6.0471461106839985E-2</v>
       </c>
     </row>
     <row r="96" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B96" s="138" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C96" s="231">
         <f>C95</f>
@@ -19184,7 +19180,7 @@
       </c>
       <c r="G96" s="112">
         <f t="shared" si="26"/>
-        <v>-0.10366536189743991</v>
+        <v>-6.0471461106839985E-2</v>
       </c>
     </row>
     <row r="97" spans="2:7" x14ac:dyDescent="0.15">
@@ -19197,7 +19193,7 @@
     </row>
     <row r="98" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B98" s="102" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C98" s="231"/>
       <c r="D98" s="223"/>
@@ -19207,7 +19203,7 @@
     </row>
     <row r="99" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B99" s="102" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C99" s="231"/>
       <c r="D99" s="225"/>
@@ -19217,7 +19213,7 @@
     </row>
     <row r="100" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B100" s="102" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C100" s="231">
         <f>'Target co'!E46-'Target co'!D46</f>
@@ -19237,12 +19233,12 @@
       </c>
       <c r="G100" s="225">
         <f t="shared" si="27"/>
-        <v>1.80460775879836E-2</v>
+        <v>1.0526878592990507E-2</v>
       </c>
     </row>
     <row r="101" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B101" s="102" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C101" s="231">
         <f>-'Target co'!E15</f>
@@ -19262,12 +19258,12 @@
       </c>
       <c r="G101" s="223">
         <f t="shared" si="28"/>
-        <v>-2.8565436981979109E-2</v>
+        <v>-2.8020295054842111E-2</v>
       </c>
     </row>
     <row r="102" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B102" s="102" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C102" s="231">
         <f>-C101*'Pre-analysis'!H83</f>
@@ -19287,12 +19283,12 @@
       </c>
       <c r="G102" s="225">
         <f>-G101*Input!G103</f>
-        <v>7.7126679851343598E-3</v>
+        <v>7.5654796648073706E-3</v>
       </c>
     </row>
     <row r="103" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B103" s="102" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C103" s="231">
         <f>-'Target co'!E21</f>
@@ -19317,7 +19313,7 @@
     </row>
     <row r="104" spans="2:7" ht="17" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B104" s="102" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C104" s="232"/>
       <c r="D104" s="228"/>
@@ -19327,7 +19323,7 @@
     </row>
     <row r="105" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B105" s="138" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C105" s="231">
         <f>SUM(C98:C104)</f>
@@ -19347,7 +19343,7 @@
       </c>
       <c r="G105" s="112">
         <f t="shared" si="29"/>
-        <v>-2.806691408861149E-3</v>
+        <v>-9.9279367970442328E-3</v>
       </c>
     </row>
     <row r="106" spans="2:7" x14ac:dyDescent="0.15">
@@ -19360,7 +19356,7 @@
     </row>
     <row r="107" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B107" s="88" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C107" s="231">
         <f>SUM(C93,C96,C105)</f>
@@ -19380,12 +19376,12 @@
       </c>
       <c r="G107" s="112">
         <f t="shared" si="30"/>
-        <v>0.25891241230316131</v>
+        <v>0.32979309379200278</v>
       </c>
     </row>
     <row r="108" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B108" s="88" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C108" s="231">
         <f>'Target co'!D33</f>
@@ -19410,7 +19406,7 @@
     </row>
     <row r="109" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B109" s="88" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C109" s="231">
         <f>SUM(C107:C108)</f>
@@ -19430,7 +19426,7 @@
       </c>
       <c r="G109" s="112">
         <f>SUM(G107:G108)</f>
-        <v>0.8643253797722914</v>
+        <v>0.93520606126113281</v>
       </c>
     </row>
     <row r="110" spans="2:7" x14ac:dyDescent="0.15">
@@ -19442,7 +19438,7 @@
     </row>
     <row r="112" spans="2:7" ht="17" x14ac:dyDescent="0.2">
       <c r="B112" s="248" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C112" s="249" t="str">
         <f>C65</f>
@@ -19475,7 +19471,7 @@
     </row>
     <row r="114" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B114" s="113" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C114" s="87"/>
       <c r="D114" s="87"/>
@@ -19493,7 +19489,7 @@
     </row>
     <row r="116" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B116" s="125" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C116" s="233">
         <f>'Target co'!E33</f>
@@ -19513,13 +19509,13 @@
       </c>
       <c r="G116" s="108">
         <f>G109</f>
-        <v>0.8643253797722914</v>
+        <v>0.93520606126113281</v>
       </c>
       <c r="I116" s="122"/>
     </row>
     <row r="117" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B117" s="125" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C117" s="233">
         <f>'Target co'!E34</f>
@@ -19539,13 +19535,13 @@
       </c>
       <c r="G117" s="108">
         <f>Calcul!G94</f>
-        <v>1.5765222206367127</v>
+        <v>1.5464359187161649</v>
       </c>
       <c r="I117" s="122"/>
     </row>
     <row r="118" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B118" s="125" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C118" s="233">
         <f>'Target co'!E35</f>
@@ -19565,13 +19561,13 @@
       </c>
       <c r="G118" s="108">
         <f>Calcul!G96</f>
-        <v>1.1220896905381803</v>
+        <v>1.1006757651462302</v>
       </c>
       <c r="I118" s="122"/>
     </row>
     <row r="119" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B119" s="125" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C119" s="233">
         <f>'Target co'!E36</f>
@@ -19591,13 +19587,13 @@
       </c>
       <c r="G119" s="108">
         <f>Calcul!G87</f>
-        <v>9.2068897685184031E-2</v>
+        <v>9.0311857653024033E-2</v>
       </c>
       <c r="I119" s="122"/>
     </row>
     <row r="120" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B120" s="126" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C120" s="233">
         <f>'Target co'!E37</f>
@@ -19617,13 +19613,13 @@
       </c>
       <c r="G120" s="108">
         <f t="shared" si="32"/>
-        <v>3.6550061886323686</v>
+        <v>3.6726296027765519</v>
       </c>
       <c r="I120" s="122"/>
     </row>
     <row r="121" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B121" s="150" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C121" s="233"/>
       <c r="D121" s="187"/>
@@ -19643,7 +19639,7 @@
     </row>
     <row r="123" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B123" s="125" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C123" s="233">
         <f>'Target co'!E39</f>
@@ -19663,13 +19659,13 @@
       </c>
       <c r="G123" s="108">
         <f>Calcul!G102</f>
-        <v>1.9181020351080005</v>
+        <v>1.8814970344380006</v>
       </c>
       <c r="I123" s="122"/>
     </row>
     <row r="124" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B124" s="125" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C124" s="233">
         <f>'Target co'!E40</f>
@@ -19689,13 +19685,13 @@
       </c>
       <c r="G124" s="108">
         <f>Calcul!G103</f>
-        <v>0.34525836631944007</v>
+        <v>0.33866946619884009</v>
       </c>
       <c r="I124" s="122"/>
     </row>
     <row r="125" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B125" s="171" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C125" s="234">
         <f>SUM(C123:C124)</f>
@@ -19715,14 +19711,14 @@
       </c>
       <c r="G125" s="170">
         <f t="shared" si="33"/>
-        <v>2.2633604014274407</v>
+        <v>2.2201665006368407</v>
       </c>
       <c r="H125" s="170"/>
       <c r="I125" s="122"/>
     </row>
     <row r="126" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B126" s="152" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C126" s="234"/>
       <c r="D126" s="187"/>
@@ -19742,7 +19738,7 @@
     </row>
     <row r="128" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B128" s="127" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C128" s="233">
         <f>SUM(C120,C125)</f>
@@ -19762,7 +19758,7 @@
       </c>
       <c r="G128" s="108">
         <f>SUM(G120,G125)</f>
-        <v>5.9183665900598097</v>
+        <v>5.8927961034133922</v>
       </c>
       <c r="I128" s="122"/>
     </row>
@@ -19777,7 +19773,7 @@
     </row>
     <row r="130" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B130" s="153" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C130" s="233"/>
       <c r="D130" s="187"/>
@@ -19797,7 +19793,7 @@
     </row>
     <row r="132" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B132" s="129" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C132" s="233"/>
       <c r="D132" s="108"/>
@@ -19817,7 +19813,7 @@
     </row>
     <row r="134" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B134" s="125" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C134" s="233">
         <f>'Target co'!E46</f>
@@ -19837,13 +19833,13 @@
       </c>
       <c r="G134" s="108">
         <f>Calcul!G109</f>
-        <v>0.39400602733764284</v>
+        <v>0.38648682834264975</v>
       </c>
       <c r="I134" s="122"/>
     </row>
     <row r="135" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B135" s="125" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C135" s="233">
         <f>'Target co'!E47</f>
@@ -19863,13 +19859,13 @@
       </c>
       <c r="G135" s="108">
         <f>Calcul!G95</f>
-        <v>0.36890619962899074</v>
+        <v>0.36186600497958255</v>
       </c>
       <c r="I135" s="122"/>
     </row>
     <row r="136" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B136" s="100" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C136" s="233">
         <f>'Target co'!E48</f>
@@ -19891,7 +19887,7 @@
     </row>
     <row r="137" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B137" s="125" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C137" s="233">
         <f>'Target co'!E49</f>
@@ -19911,13 +19907,13 @@
       </c>
       <c r="G137" s="108">
         <f>Calcul!G88</f>
-        <v>0.12736197513117123</v>
+        <v>0.12493140308668324</v>
       </c>
       <c r="I137" s="122"/>
     </row>
     <row r="138" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B138" s="126" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C138" s="233">
         <f>'Target co'!E50</f>
@@ -19937,7 +19933,7 @@
       </c>
       <c r="G138" s="108">
         <f t="shared" si="35"/>
-        <v>0.89027420209780472</v>
+        <v>0.8732842364089155</v>
       </c>
       <c r="I138" s="122"/>
     </row>
@@ -19952,7 +19948,7 @@
     </row>
     <row r="140" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B140" s="125" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C140" s="233">
         <f>'Target co'!E52</f>
@@ -19974,7 +19970,7 @@
     </row>
     <row r="141" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B141" s="126" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C141" s="233">
         <f>'Target co'!E53</f>
@@ -19994,7 +19990,7 @@
       </c>
       <c r="G141" s="108">
         <f t="shared" si="36"/>
-        <v>0.89027420209780472</v>
+        <v>0.8732842364089155</v>
       </c>
       <c r="I141" s="122"/>
     </row>
@@ -20009,7 +20005,7 @@
     </row>
     <row r="143" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B143" s="125" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C143" s="233">
         <f>'Target co'!E55</f>
@@ -20035,7 +20031,7 @@
     </row>
     <row r="144" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B144" s="125" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C144" s="233">
         <f>'Target co'!E56</f>
@@ -20055,13 +20051,13 @@
       </c>
       <c r="G144" s="108">
         <f>F144+G83</f>
-        <v>3.4236923879620038</v>
+        <v>3.4151118670044762</v>
       </c>
       <c r="I144" s="122"/>
     </row>
     <row r="145" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B145" s="126" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C145" s="233">
         <f>'Target co'!E57</f>
@@ -20081,7 +20077,7 @@
       </c>
       <c r="G145" s="108">
         <f>SUM(G143:G144)</f>
-        <v>5.028092387962003</v>
+        <v>5.0195118670044758</v>
       </c>
       <c r="I145" s="122"/>
     </row>
@@ -20096,7 +20092,7 @@
     </row>
     <row r="147" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B147" s="125" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C147" s="233">
         <f>'Target co'!E59</f>
@@ -20116,7 +20112,7 @@
       </c>
       <c r="G147" s="108">
         <f>SUM(G141,G145)</f>
-        <v>5.9183665900598079</v>
+        <v>5.8927961034133913</v>
       </c>
       <c r="I147" s="122"/>
     </row>
@@ -20146,7 +20142,7 @@
     </row>
     <row r="151" spans="2:9" ht="17" x14ac:dyDescent="0.2">
       <c r="B151" s="248" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C151" s="249" t="str">
         <f>C112</f>
@@ -20171,7 +20167,7 @@
     </row>
     <row r="152" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B152" s="213" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C152" s="214"/>
       <c r="D152" s="214">
@@ -20188,16 +20184,16 @@
       </c>
       <c r="G152" s="214">
         <f>SUM(G93,G96)</f>
-        <v>0.26171910371202245</v>
+        <v>0.33972103058904701</v>
       </c>
     </row>
     <row r="153" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B153" s="213" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C153" s="216">
         <f>Calcul!C121</f>
-        <v>7.1245184536973358E-2</v>
+        <v>7.1945421151312514E-2</v>
       </c>
       <c r="D153" s="207"/>
       <c r="E153" s="345"/>
@@ -20206,11 +20202,11 @@
     </row>
     <row r="154" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B154" s="213" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C154" s="216">
         <f>Input!C139</f>
-        <v>4.8000000000000001E-2</v>
+        <v>2.8000000000000001E-2</v>
       </c>
       <c r="D154" s="214"/>
       <c r="E154" s="217"/>
@@ -20219,7 +20215,7 @@
     </row>
     <row r="155" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B155" s="213" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C155" s="214"/>
       <c r="D155" s="214">
@@ -20240,29 +20236,29 @@
     </row>
     <row r="156" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B156" s="213" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C156" s="214"/>
       <c r="D156" s="214">
         <f>1/(1+$C153)^D155</f>
-        <v>0.96617447235991727</v>
+        <v>0.96585884935734723</v>
       </c>
       <c r="E156" s="214">
         <f>1/(1+$C153)^E155</f>
-        <v>0.90191721401065517</v>
+        <v>0.90103360702821611</v>
       </c>
       <c r="F156" s="214">
         <f>1/(1+$C153)^F155</f>
-        <v>0.8419335060073041</v>
+        <v>0.84055921994654337</v>
       </c>
       <c r="G156" s="214">
         <f>1/(1+$C153)^G155</f>
-        <v>0.78593912781154285</v>
+        <v>0.78414367313939259</v>
       </c>
     </row>
     <row r="157" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B157" s="213" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C157" s="347"/>
       <c r="D157" s="348"/>
@@ -20270,38 +20266,38 @@
       <c r="F157" s="349"/>
       <c r="G157" s="214">
         <f>G152*(1+C154)/(C153-C154)</f>
-        <v>11.799502828378595</v>
+        <v>7.9469762786676528</v>
       </c>
     </row>
     <row r="158" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B158" s="213" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C158" s="214"/>
       <c r="D158" s="214">
         <f>D152*D156</f>
-        <v>-9.8270460367812146E-2</v>
+        <v>-9.8238358072985962E-2</v>
       </c>
       <c r="E158" s="214">
         <f t="shared" ref="E158:F158" si="40">E152*E156</f>
-        <v>0.20402426298055504</v>
+        <v>0.20382438070693157</v>
       </c>
       <c r="F158" s="214">
         <f t="shared" si="40"/>
-        <v>0.2036027038097733</v>
+        <v>0.20327036360026449</v>
       </c>
       <c r="G158" s="214">
         <f>(G152+G157)*G156</f>
-        <v>9.479386245648751</v>
+        <v>6.4979612662748698</v>
       </c>
     </row>
     <row r="159" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B159" s="213" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C159" s="214">
         <f>SUM(D158:G158)</f>
-        <v>9.7887427520712667</v>
+        <v>6.8068176525090802</v>
       </c>
       <c r="D159" s="345"/>
       <c r="E159" s="345"/>
@@ -20310,7 +20306,7 @@
     </row>
     <row r="160" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B160" s="213" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C160" s="214">
         <f>Input!C128</f>
@@ -20323,15 +20319,15 @@
     </row>
     <row r="161" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B161" s="213" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C161" s="218">
         <f>C159-C160</f>
-        <v>9.473042752071267</v>
+        <v>6.4911176525090806</v>
       </c>
       <c r="D161" s="346" t="str">
         <f>"Greater than "  &amp;Input!C85</f>
-        <v>Greater than 1.617</v>
+        <v>Greater than 1.32825</v>
       </c>
       <c r="E161" s="346"/>
       <c r="F161" s="346"/>
@@ -20339,16 +20335,16 @@
     </row>
     <row r="164" spans="2:7" ht="17" x14ac:dyDescent="0.15">
       <c r="B164" s="81" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C164" s="81">
         <f>C12</f>
-        <v>407865</v>
+        <v>907865</v>
       </c>
     </row>
     <row r="165" spans="2:7" ht="17" x14ac:dyDescent="0.15">
       <c r="B165" s="81" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C165" s="81">
         <f>Input!C87</f>
@@ -20357,25 +20353,25 @@
     </row>
     <row r="166" spans="2:7" ht="17" x14ac:dyDescent="0.15">
       <c r="B166" s="274" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C166" s="274">
         <f>Input!C88</f>
-        <v>11.41</v>
+        <v>8.41</v>
       </c>
     </row>
     <row r="167" spans="2:7" ht="17" x14ac:dyDescent="0.15">
       <c r="B167" s="81" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C167" s="123">
         <f>C165*C166/inM</f>
-        <v>4.6200002800000002</v>
+        <v>3.4052762800000003</v>
       </c>
     </row>
     <row r="168" spans="2:7" ht="17" x14ac:dyDescent="0.15">
       <c r="B168" s="274" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C168" s="273">
         <f>C145</f>
@@ -20384,62 +20380,62 @@
     </row>
     <row r="169" spans="2:7" ht="17" x14ac:dyDescent="0.15">
       <c r="B169" s="81" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C169" s="123">
         <f>C167-C168</f>
-        <v>1.2166002800000006</v>
+        <v>1.8762800000007296E-3</v>
       </c>
     </row>
     <row r="170" spans="2:7" ht="17" x14ac:dyDescent="0.15">
       <c r="B170" s="139" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C170" s="221">
         <f>C165/SUM(C164:C165)</f>
-        <v>0.49818091890355609</v>
+        <v>0.30843717840022611</v>
       </c>
     </row>
     <row r="171" spans="2:7" ht="17" x14ac:dyDescent="0.15">
       <c r="B171" s="242" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C171" s="123">
         <f>C164*C166/inM</f>
-        <v>4.6537396500000003</v>
+        <v>7.63514465</v>
       </c>
     </row>
     <row r="172" spans="2:7" ht="17" x14ac:dyDescent="0.15">
       <c r="B172" s="139" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C172" s="200">
         <f>SUM(C164,C165)*C166/inM</f>
-        <v>9.2737399299999996</v>
+        <v>11.04042093</v>
       </c>
     </row>
     <row r="174" spans="2:7" ht="17" x14ac:dyDescent="0.15">
       <c r="B174" s="274" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C174" s="274" t="s">
+        <v>186</v>
+      </c>
+      <c r="D174" s="274" t="s">
         <v>187</v>
-      </c>
-      <c r="D174" s="274" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="175" spans="2:7" ht="17" x14ac:dyDescent="0.15">
       <c r="B175" s="81" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C175" s="81">
         <f>C5</f>
-        <v>101966.25</v>
+        <v>226966.25</v>
       </c>
       <c r="D175" s="186">
         <f>C175/SUM($C$175:$C$178)</f>
-        <v>0.12545477027411098</v>
+        <v>0.17289070539994347</v>
       </c>
     </row>
     <row r="176" spans="2:7" ht="17" x14ac:dyDescent="0.15">
@@ -20448,29 +20444,29 @@
       </c>
       <c r="C176" s="81">
         <f t="shared" ref="C176:C177" si="41">C6</f>
-        <v>28550.550000000003</v>
+        <v>63550.55</v>
       </c>
       <c r="D176" s="186">
         <f t="shared" ref="D176:D178" si="42">C176/SUM($C$175:$C$178)</f>
-        <v>3.5127335676751074E-2</v>
+        <v>4.8409397511984177E-2</v>
       </c>
     </row>
     <row r="177" spans="2:4" ht="17" x14ac:dyDescent="0.15">
       <c r="B177" s="81" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C177" s="81">
         <f t="shared" si="41"/>
-        <v>277348.19999999995</v>
+        <v>617348.19999999995</v>
       </c>
       <c r="D177" s="186">
         <f t="shared" si="42"/>
-        <v>0.34123697514558182</v>
+        <v>0.47026271868784625</v>
       </c>
     </row>
     <row r="178" spans="2:4" ht="17" x14ac:dyDescent="0.15">
       <c r="B178" s="81" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C178" s="81">
         <f>C165</f>
@@ -20478,7 +20474,7 @@
       </c>
       <c r="D178" s="186">
         <f t="shared" si="42"/>
-        <v>0.49818091890355609</v>
+        <v>0.30843717840022611</v>
       </c>
     </row>
   </sheetData>
@@ -20573,19 +20569,19 @@
       <c r="C6" s="231"/>
       <c r="D6" s="223" cm="1">
         <f t="array" ref="D6">_xlfn.IFS(OPT=0,Calcul!D5, OPT=1, Calcul!D5+Projects!D28, OPT=2, Calcul!D5+Projects!D67,OPT=3,Calcul!D5)</f>
-        <v>32.578349999999993</v>
+        <v>39.156067999999991</v>
       </c>
       <c r="E6" s="223" cm="1">
         <f t="array" ref="E6">_xlfn.IFS(OPT=0,Calcul!E5, OPT=1, Calcul!E5+Projects!E28, OPT=2, Calcul!E5+Projects!E67,OPT=3,Calcul!E5)</f>
-        <v>36.813535499999986</v>
+        <v>43.785916579999991</v>
       </c>
       <c r="F6" s="223" cm="1">
         <f t="array" ref="F6">_xlfn.IFS(OPT=0,Calcul!F5, OPT=1, Calcul!F5+Projects!F28, OPT=2, Calcul!F5+Projects!F67,OPT=3,Calcul!F5)</f>
-        <v>40.86302440499999</v>
+        <v>48.184024538999992</v>
       </c>
       <c r="G6" s="223" cm="1">
         <f t="array" ref="G6">_xlfn.IFS(OPT=0,Calcul!G5, OPT=1, Calcul!G5+Projects!G28, OPT=2, Calcul!G5+Projects!G67,OPT=3,Calcul!G5)</f>
-        <v>44.540696601449994</v>
+        <v>52.066684739201996</v>
       </c>
       <c r="H6" s="223"/>
       <c r="I6" s="81"/>
@@ -20603,19 +20599,19 @@
       <c r="C7" s="231"/>
       <c r="D7" s="235" cm="1">
         <f t="array" ref="D7">_xlfn.IFS(OPT=0, Calcul!D9, OPT=1,Calcul!D9+Projects!D29, OPT=2,Calcul!D9+Projects!D68, OPT=3, Calcul!D9)</f>
-        <v>-20.035685249999997</v>
+        <v>-24.080981819999998</v>
       </c>
       <c r="E7" s="235" cm="1">
         <f t="array" ref="E7">_xlfn.IFS(OPT=0, Calcul!E9, OPT=1,Calcul!E9+Projects!E29, OPT=2,Calcul!E9+Projects!E68, OPT=3, Calcul!E9)</f>
-        <v>-21.535918267499991</v>
+        <v>-25.614761199299991</v>
       </c>
       <c r="F7" s="235" cm="1">
         <f t="array" ref="F7">_xlfn.IFS(OPT=0, Calcul!F9, OPT=1,Calcul!F9+Projects!F29, OPT=2,Calcul!F9+Projects!F68, OPT=3, Calcul!F9)</f>
-        <v>-23.904869276924991</v>
+        <v>-28.18765435531499</v>
       </c>
       <c r="G7" s="235" cm="1">
         <f t="array" ref="G7">_xlfn.IFS(OPT=0, Calcul!G9, OPT=1,Calcul!G9+Projects!G29, OPT=2,Calcul!G9+Projects!G68, OPT=3, Calcul!G9)</f>
-        <v>-26.056307511848246</v>
+        <v>-30.459010572433165</v>
       </c>
       <c r="H7" s="225"/>
       <c r="I7" s="84"/>
@@ -20633,19 +20629,19 @@
       <c r="C8" s="231"/>
       <c r="D8" s="225">
         <f>SUM(D6:D7)</f>
-        <v>12.542664749999997</v>
+        <v>15.075086179999992</v>
       </c>
       <c r="E8" s="225">
         <f t="shared" ref="E8:G8" si="0">SUM(E6:E7)</f>
-        <v>15.277617232499995</v>
+        <v>18.1711553807</v>
       </c>
       <c r="F8" s="225">
         <f t="shared" si="0"/>
-        <v>16.958155128074999</v>
+        <v>19.996370183685002</v>
       </c>
       <c r="G8" s="225">
         <f t="shared" si="0"/>
-        <v>18.484389089601748</v>
+        <v>21.607674166768831</v>
       </c>
       <c r="H8" s="225"/>
       <c r="I8" s="81"/>
@@ -20666,7 +20662,7 @@
     </row>
     <row r="10" spans="2:14" ht="19" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B10" s="81" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C10" s="253"/>
       <c r="D10" s="223" cm="1">
@@ -20695,19 +20691,19 @@
       <c r="C11" s="231"/>
       <c r="D11" s="104" cm="1">
         <f t="array" ref="D11">_xlfn.IFS(OPT=0, Calcul!D11, OPT=1, Calcul!D11, OPT=2, Calcul!D11+Projects!D72, OPT=3, Calcul!D11)</f>
-        <v>-0.32578349999999995</v>
+        <v>-0.39156067999999994</v>
       </c>
       <c r="E11" s="104" cm="1">
         <f t="array" ref="E11">_xlfn.IFS(OPT=0, Calcul!E11, OPT=1, Calcul!E11, OPT=2, Calcul!E11+Projects!E72, OPT=3, Calcul!E11)</f>
-        <v>-0.5890165679999998</v>
+        <v>-0.70057466527999979</v>
       </c>
       <c r="F11" s="104" cm="1">
         <f t="array" ref="F11">_xlfn.IFS(OPT=0, Calcul!F11, OPT=1, Calcul!F11, OPT=2, Calcul!F11+Projects!F72, OPT=3, Calcul!F11)</f>
-        <v>-0.65380839047999983</v>
+        <v>-0.77094439262399983</v>
       </c>
       <c r="G11" s="104" cm="1">
         <f t="array" ref="G11">_xlfn.IFS(OPT=0, Calcul!G11, OPT=1, Calcul!G11, OPT=2, Calcul!G11+Projects!G72, OPT=3, Calcul!G11)</f>
-        <v>-0.71265114562319998</v>
+        <v>-0.833066955827232</v>
       </c>
       <c r="H11" s="104"/>
     </row>
@@ -20719,19 +20715,19 @@
       <c r="C12" s="231"/>
       <c r="D12" s="235" cm="1">
         <f t="array" ref="D12">_xlfn.IFS(OPT=0,Calcul!D10,OPT=1,Calcul!D10+SUM(Projects!D33:D34),OPT=2,Calcul!D10+Projects!D73,OPT=3,Calcul!D10)</f>
-        <v>-9.806083349999998</v>
+        <v>-11.785976467999998</v>
       </c>
       <c r="E12" s="235" cm="1">
         <f t="array" ref="E12">_xlfn.IFS(OPT=0,Calcul!E10,OPT=1,Calcul!E10+SUM(Projects!E33:E34),OPT=2,Calcul!E10+Projects!E73,OPT=3,Calcul!E10)</f>
-        <v>-11.596263682499997</v>
+        <v>-13.792563722699997</v>
       </c>
       <c r="F12" s="235" cm="1">
         <f t="array" ref="F12">_xlfn.IFS(OPT=0,Calcul!F10,OPT=1,Calcul!F10+SUM(Projects!F33:F34),OPT=2,Calcul!F10+Projects!F73,OPT=3,Calcul!F10)</f>
-        <v>-12.871852687574997</v>
+        <v>-15.177967729784998</v>
       </c>
       <c r="G12" s="235" cm="1">
         <f t="array" ref="G12">_xlfn.IFS(OPT=0,Calcul!G10,OPT=1,Calcul!G10+SUM(Projects!G33:G34),OPT=2,Calcul!G10+Projects!G73,OPT=3,Calcul!G10)</f>
-        <v>-14.030319429456748</v>
+        <v>-16.401005692848628</v>
       </c>
       <c r="H12" s="225"/>
     </row>
@@ -20743,19 +20739,19 @@
       <c r="C13" s="231"/>
       <c r="D13" s="225">
         <f>SUM(D8:D12)</f>
-        <v>2.4107978999999986</v>
+        <v>2.8975490319999953</v>
       </c>
       <c r="E13" s="225">
         <f t="shared" ref="E13:G13" si="1">SUM(E8:E12)</f>
-        <v>3.0923369819999991</v>
+        <v>3.6780169927200017</v>
       </c>
       <c r="F13" s="225">
         <f t="shared" si="1"/>
-        <v>3.4324940500200043</v>
+        <v>4.0474580612760054</v>
       </c>
       <c r="G13" s="225">
         <f t="shared" si="1"/>
-        <v>3.7414185145217989</v>
+        <v>4.3736015180929719</v>
       </c>
       <c r="H13" s="225"/>
     </row>
@@ -20776,19 +20772,19 @@
       <c r="C15" s="231"/>
       <c r="D15" s="235" cm="1">
         <f t="array" ref="D15">_xlfn.IFS(OPT=0, Calcul!D36+Calcul!D41, OPT=1,Calcul!D36+Calcul!D41, OPT=2,Calcul!D36+Calcul!D41+Projects!D76+Input!D118,OPT=3, Calcul!D36+Calcul!D41)</f>
-        <v>-1.1185250948694447</v>
+        <v>-1.3430148490085734</v>
       </c>
       <c r="E15" s="235" cm="1">
         <f t="array" ref="E15">_xlfn.IFS(OPT=0, Calcul!E36+Calcul!E41, OPT=1,Calcul!E36+Calcul!E41, OPT=2,Calcul!E36+Calcul!E41+Projects!E76+Input!E118,OPT=3, Calcul!E36+Calcul!E41)</f>
-        <v>-1.2639333572024722</v>
+        <v>-1.3898924965899488</v>
       </c>
       <c r="F15" s="235" cm="1">
         <f t="array" ref="F15">_xlfn.IFS(OPT=0, Calcul!F36+Calcul!F41, OPT=1,Calcul!F36+Calcul!F41, OPT=2,Calcul!F36+Calcul!F41+Projects!F76+Input!F118,OPT=3, Calcul!F36+Calcul!F41)</f>
-        <v>-1.4029660264947446</v>
+        <v>-1.530223122851595</v>
       </c>
       <c r="G15" s="235" cm="1">
         <f t="array" ref="G15">_xlfn.IFS(OPT=0, Calcul!G36+Calcul!G41, OPT=1,Calcul!G36+Calcul!G41, OPT=2,Calcul!G36+Calcul!G41+Projects!G76+Input!G118,OPT=3, Calcul!G36+Calcul!G41)</f>
-        <v>-1.5292329688792716</v>
+        <v>-1.6572532639341138</v>
       </c>
       <c r="H15" s="225"/>
     </row>
@@ -20800,19 +20796,19 @@
       <c r="C16" s="231"/>
       <c r="D16" s="225">
         <f>SUM(D13:D15)</f>
-        <v>1.2922728051305539</v>
+        <v>1.5545341829914219</v>
       </c>
       <c r="E16" s="225">
         <f t="shared" ref="E16:G16" si="2">SUM(E13:E15)</f>
-        <v>1.8284036247975268</v>
+        <v>2.2881244961300529</v>
       </c>
       <c r="F16" s="225">
         <f t="shared" si="2"/>
-        <v>2.02952802352526</v>
+        <v>2.5172349384244104</v>
       </c>
       <c r="G16" s="225">
         <f t="shared" si="2"/>
-        <v>2.2121855456425275</v>
+        <v>2.7163482541588584</v>
       </c>
       <c r="H16" s="225"/>
     </row>
@@ -20833,19 +20829,19 @@
       <c r="C18" s="231"/>
       <c r="D18" s="235">
         <f xml:space="preserve"> -D16*Input!D19</f>
-        <v>-0.34891365738524954</v>
+        <v>-0.41972422940768395</v>
       </c>
       <c r="E18" s="235">
         <f xml:space="preserve"> -E16*Input!E19</f>
-        <v>-0.49366897869533227</v>
+        <v>-0.61779361395511434</v>
       </c>
       <c r="F18" s="235">
         <f xml:space="preserve"> -F16*Input!F19</f>
-        <v>-0.54797256635182023</v>
+        <v>-0.67965343337459083</v>
       </c>
       <c r="G18" s="235">
         <f xml:space="preserve"> -G16*Input!G19</f>
-        <v>-0.59729009732348248</v>
+        <v>-0.73341402862289184</v>
       </c>
       <c r="H18" s="225"/>
     </row>
@@ -20857,19 +20853,19 @@
       <c r="C19" s="231"/>
       <c r="D19" s="225">
         <f>SUM(D16:D18)</f>
-        <v>0.94335914774530427</v>
+        <v>1.1348099535837379</v>
       </c>
       <c r="E19" s="225">
         <f t="shared" ref="E19:G19" si="3">SUM(E16:E18)</f>
-        <v>1.3347346461021945</v>
+        <v>1.6703308821749385</v>
       </c>
       <c r="F19" s="225">
         <f t="shared" si="3"/>
-        <v>1.4815554571734397</v>
+        <v>1.8375815050498194</v>
       </c>
       <c r="G19" s="225">
         <f t="shared" si="3"/>
-        <v>1.614895448319045</v>
+        <v>1.9829342255359665</v>
       </c>
       <c r="H19" s="225"/>
     </row>
@@ -20883,24 +20879,24 @@
     </row>
     <row r="21" spans="2:8" ht="17" x14ac:dyDescent="0.15">
       <c r="B21" s="81" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C21" s="231"/>
       <c r="D21" s="225">
         <f>D19*Input!D38</f>
-        <v>0.94335914774530427</v>
+        <v>1.1348099535837379</v>
       </c>
       <c r="E21" s="225">
         <f>E19*Input!E38</f>
-        <v>1.3347346461021945</v>
+        <v>1.6703308821749385</v>
       </c>
       <c r="F21" s="225">
         <f>F19*Input!F38</f>
-        <v>1.4815554571734397</v>
+        <v>1.8375815050498194</v>
       </c>
       <c r="G21" s="225">
         <f>G19*Input!G38</f>
-        <v>1.614895448319045</v>
+        <v>1.9829342255359665</v>
       </c>
       <c r="H21" s="225"/>
     </row>
@@ -20958,7 +20954,7 @@
     </row>
     <row r="3" spans="2:12" ht="16" x14ac:dyDescent="0.15">
       <c r="B3" s="353" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C3" s="353"/>
       <c r="D3" s="353"/>
@@ -20986,7 +20982,7 @@
     </row>
     <row r="5" spans="2:12" ht="17" x14ac:dyDescent="0.2">
       <c r="B5" s="248" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C5" s="249" t="s">
         <v>85</v>
@@ -21015,23 +21011,23 @@
     </row>
     <row r="6" spans="2:12" ht="16" x14ac:dyDescent="0.15">
       <c r="B6" s="101" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D6" s="112">
         <f>PL!D13</f>
-        <v>2.4107978999999986</v>
+        <v>2.8975490319999953</v>
       </c>
       <c r="E6" s="112">
         <f>PL!E13</f>
-        <v>3.0923369819999991</v>
+        <v>3.6780169927200017</v>
       </c>
       <c r="F6" s="112">
         <f>PL!F13</f>
-        <v>3.4324940500200043</v>
+        <v>4.0474580612760054</v>
       </c>
       <c r="G6" s="112">
         <f>PL!G13</f>
-        <v>3.7414185145217989</v>
+        <v>4.3736015180929719</v>
       </c>
       <c r="H6" s="278"/>
       <c r="I6" s="278"/>
@@ -21041,23 +21037,23 @@
     </row>
     <row r="7" spans="2:12" ht="16" x14ac:dyDescent="0.15">
       <c r="B7" s="101" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D7" s="112">
         <f>-D6*Input!D19</f>
-        <v>-0.65091543299999965</v>
+        <v>-0.78233823863999874</v>
       </c>
       <c r="E7" s="112">
         <f>-E6*Input!E19</f>
-        <v>-0.83493098513999975</v>
+        <v>-0.99306458803440056</v>
       </c>
       <c r="F7" s="112">
         <f>-F6*Input!F19</f>
-        <v>-0.92677339350540122</v>
+        <v>-1.0928136765445216</v>
       </c>
       <c r="G7" s="112">
         <f>-G6*Input!G19</f>
-        <v>-1.0101829989208857</v>
+        <v>-1.1808724098851024</v>
       </c>
       <c r="H7" s="278"/>
       <c r="I7" s="278"/>
@@ -21067,23 +21063,23 @@
     </row>
     <row r="8" spans="2:12" ht="16" x14ac:dyDescent="0.15">
       <c r="B8" s="102" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D8" s="112">
         <f t="shared" ref="D8" si="0">SUM(D6:D7)</f>
-        <v>1.7598824669999988</v>
+        <v>2.1152107933599966</v>
       </c>
       <c r="E8" s="112">
         <f t="shared" ref="E8:G8" si="1">SUM(E6:E7)</f>
-        <v>2.2574059968599993</v>
+        <v>2.684952404685601</v>
       </c>
       <c r="F8" s="112">
         <f t="shared" si="1"/>
-        <v>2.5057206565146029</v>
+        <v>2.9546443847314841</v>
       </c>
       <c r="G8" s="112">
         <f t="shared" si="1"/>
-        <v>2.7312355156009129</v>
+        <v>3.1927291082078693</v>
       </c>
       <c r="H8" s="278"/>
       <c r="I8" s="278"/>
@@ -21093,7 +21089,7 @@
     </row>
     <row r="9" spans="2:12" ht="16" x14ac:dyDescent="0.15">
       <c r="B9" s="102" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D9" s="112">
         <f>-PL!D10</f>
@@ -21119,23 +21115,23 @@
     </row>
     <row r="10" spans="2:12" ht="16" x14ac:dyDescent="0.15">
       <c r="B10" s="102" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D10" s="112" cm="1">
         <f t="array" ref="D10">_xlfn.IFS(OPT=0,Calcul!D24, OPT=1,Calcul!D24+Calcul!D65, OPT=2, Calcul!D24+Calcul!D98,OPT=3,Calcul!D24)</f>
-        <v>-1.4445841686643792</v>
+        <v>-1.7117040725342423</v>
       </c>
       <c r="E10" s="112" cm="1">
         <f t="array" ref="E10">_xlfn.IFS(OPT=0,Calcul!E24, OPT=1,Calcul!E24+Calcul!E65, OPT=2, Calcul!E24+Calcul!E98,OPT=3,Calcul!E24)</f>
-        <v>-1.1219950269092465</v>
+        <v>-1.2087195355674658</v>
       </c>
       <c r="F10" s="112" cm="1">
         <f t="array" ref="F10">_xlfn.IFS(OPT=0,Calcul!F24, OPT=1,Calcul!F24+Calcul!F65, OPT=2, Calcul!F24+Calcul!F98,OPT=3,Calcul!F24)</f>
-        <v>-1.2296162115130986</v>
+        <v>-1.3354734321395032</v>
       </c>
       <c r="G10" s="112" cm="1">
         <f t="array" ref="G10">_xlfn.IFS(OPT=0,Calcul!G24, OPT=1,Calcul!G24+Calcul!G65, OPT=2, Calcul!G24+Calcul!G98,OPT=3,Calcul!G24)</f>
-        <v>-1.1167150866378073</v>
+        <v>-1.1789591323661326</v>
       </c>
       <c r="H10" s="278"/>
       <c r="I10" s="278"/>
@@ -21145,23 +21141,23 @@
     </row>
     <row r="11" spans="2:12" ht="16" x14ac:dyDescent="0.15">
       <c r="B11" s="102" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D11" s="112" cm="1">
         <f t="array" ref="D11">_xlfn.IFS(OPT=0,Calcul!D16, OPT=1,Calcul!D16,OPT=2,Calcul!D16+Calcul!D89,OPT=3,Calcul!D16)</f>
-        <v>-5.7440173044973952E-2</v>
+        <v>-4.4322789044973956E-2</v>
       </c>
       <c r="E11" s="112" cm="1">
         <f t="array" ref="E11">_xlfn.IFS(OPT=0,Calcul!E16, OPT=1,Calcul!E16,OPT=2,Calcul!E16+Calcul!E89,OPT=3,Calcul!E16)</f>
-        <v>-5.155672249584653E-2</v>
+        <v>-5.6292679455846539E-2</v>
       </c>
       <c r="F11" s="112" cm="1">
         <f t="array" ref="F11">_xlfn.IFS(OPT=0,Calcul!F16, OPT=1,Calcul!F16,OPT=2,Calcul!F16+Calcul!F89,OPT=3,Calcul!F16)</f>
-        <v>-4.9296158509490318E-2</v>
+        <v>-5.3479587157490321E-2</v>
       </c>
       <c r="G11" s="112" cm="1">
         <f t="array" ref="G11">_xlfn.IFS(OPT=0,Calcul!G16, OPT=1,Calcul!G16,OPT=2,Calcul!G16+Calcul!G89,OPT=3,Calcul!G16)</f>
-        <v>-4.4769874864527992E-2</v>
+        <v>-4.7229730909552001E-2</v>
       </c>
       <c r="H11" s="278"/>
       <c r="I11" s="278"/>
@@ -21171,23 +21167,23 @@
     </row>
     <row r="12" spans="2:12" ht="16" x14ac:dyDescent="0.15">
       <c r="B12" s="102" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D12" s="161" cm="1">
         <f t="array" ref="D12">_xlfn.IFS(OPT=0,Calcul!D17,OPT=1,Calcul!D17, OPT=2,Calcul!D17+Calcul!D90,OPT=3,Calcul!D17)</f>
-        <v>7.0011238366878781E-2</v>
+        <v>7.4551357166878801E-2</v>
       </c>
       <c r="E12" s="161" cm="1">
         <f t="array" ref="E12">_xlfn.IFS(OPT=0,Calcul!E17,OPT=1,Calcul!E17, OPT=2,Calcul!E17+Calcul!E90,OPT=3,Calcul!E17)</f>
-        <v>7.029896098769417E-2</v>
+        <v>7.6850368115694193E-2</v>
       </c>
       <c r="F12" s="161" cm="1">
         <f t="array" ref="F12">_xlfn.IFS(OPT=0,Calcul!F17,OPT=1,Calcul!F17, OPT=2,Calcul!F17+Calcul!F90,OPT=3,Calcul!F17)</f>
-        <v>6.7216621929003129E-2</v>
+        <v>7.3003698225403132E-2</v>
       </c>
       <c r="G12" s="161" cm="1">
         <f t="array" ref="G12">_xlfn.IFS(OPT=0,Calcul!G17,OPT=1,Calcul!G17, OPT=2,Calcul!G17+Calcul!G90,OPT=3,Calcul!G17)</f>
-        <v>6.1044913915521914E-2</v>
+        <v>6.4447714777805115E-2</v>
       </c>
       <c r="H12" s="278"/>
       <c r="I12" s="278"/>
@@ -21197,23 +21193,23 @@
     </row>
     <row r="13" spans="2:12" ht="16" x14ac:dyDescent="0.15">
       <c r="B13" s="138" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D13" s="112">
         <f t="shared" ref="D13" si="2">SUM(D8:D12)</f>
-        <v>0.32786936365752445</v>
+        <v>0.43373528894765923</v>
       </c>
       <c r="E13" s="112">
         <f t="shared" ref="E13:G13" si="3">SUM(E8:E12)</f>
-        <v>1.1541532084426005</v>
+        <v>1.496790557777983</v>
       </c>
       <c r="F13" s="112">
         <f t="shared" si="3"/>
-        <v>1.2940249084210169</v>
+        <v>1.6386950636598938</v>
       </c>
       <c r="G13" s="112">
         <f t="shared" si="3"/>
-        <v>1.6307954680140995</v>
+        <v>2.0309879597099898</v>
       </c>
       <c r="H13" s="278"/>
       <c r="I13" s="278"/>
@@ -21234,23 +21230,23 @@
     </row>
     <row r="15" spans="2:12" ht="16" x14ac:dyDescent="0.15">
       <c r="B15" s="102" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D15" s="161" cm="1">
         <f t="array" ref="D15">_xlfn.IFS(OPT=0,Calcul!D29, OPT=1,Calcul!D29+Calcul!D71, OPT=2,Calcul!D29+Calcul!D104,OPT=3,Calcul!D29)</f>
-        <v>-0.49563499999999827</v>
+        <v>-0.70321180999999822</v>
       </c>
       <c r="E15" s="161" cm="1">
         <f t="array" ref="E15">_xlfn.IFS(OPT=0,Calcul!E29, OPT=1,Calcul!E29+Calcul!E71, OPT=2,Calcul!E29+Calcul!E104,OPT=3,Calcul!E29)</f>
-        <v>-1.2492070499999972</v>
+        <v>-1.3656326585999976</v>
       </c>
       <c r="F15" s="161" cm="1">
         <f t="array" ref="F15">_xlfn.IFS(OPT=0,Calcul!F29, OPT=1,Calcul!F29+Calcul!F71, OPT=2,Calcul!F29+Calcul!F104,OPT=3,Calcul!F29)</f>
-        <v>-1.1944341255000026</v>
+        <v>-1.2972767464300028</v>
       </c>
       <c r="G15" s="161" cm="1">
         <f t="array" ref="G15">_xlfn.IFS(OPT=0,Calcul!G29, OPT=1,Calcul!G29+Calcul!G71, OPT=2,Calcul!G29+Calcul!G104,OPT=3,Calcul!G29)</f>
-        <v>-1.0847633557950012</v>
+        <v>-1.1452348169018411</v>
       </c>
       <c r="H15" s="278"/>
       <c r="I15" s="278"/>
@@ -21260,23 +21256,23 @@
     </row>
     <row r="16" spans="2:12" ht="16" x14ac:dyDescent="0.15">
       <c r="B16" s="138" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D16" s="112">
         <f t="shared" ref="D16" si="4">D15</f>
-        <v>-0.49563499999999827</v>
+        <v>-0.70321180999999822</v>
       </c>
       <c r="E16" s="112">
         <f t="shared" ref="E16:G16" si="5">E15</f>
-        <v>-1.2492070499999972</v>
+        <v>-1.3656326585999976</v>
       </c>
       <c r="F16" s="112">
         <f t="shared" si="5"/>
-        <v>-1.1944341255000026</v>
+        <v>-1.2972767464300028</v>
       </c>
       <c r="G16" s="112">
         <f t="shared" si="5"/>
-        <v>-1.0847633557950012</v>
+        <v>-1.1452348169018411</v>
       </c>
       <c r="H16" s="278"/>
       <c r="I16" s="278"/>
@@ -21297,7 +21293,7 @@
     </row>
     <row r="18" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B18" s="102" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D18" s="112" cm="1">
         <f t="array" ref="D18">_xlfn.IFS(OPT=0,Calcul!D40-Calcul!C40, OPT=1, Calcul!D40-Calcul!C40,OPT=2,Calcul!D40-Calcul!C40+Projects!D136-Projects!C136,OPT=3,Calcul!D40-Calcul!C40)</f>
@@ -21323,7 +21319,7 @@
     </row>
     <row r="19" spans="2:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B19" s="102" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C19" s="247"/>
       <c r="D19" s="252" cm="1">
@@ -21350,23 +21346,23 @@
     </row>
     <row r="20" spans="2:12" ht="16" x14ac:dyDescent="0.15">
       <c r="B20" s="102" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D20" s="112" cm="1">
         <f t="array" ref="D20">_xlfn.IFS(OPT&lt;&gt;2, Calcul!D35, OPT=2,Calcul!D35+Calcul!D110)</f>
-        <v>0.71758702054794377</v>
+        <v>0.73967673281178847</v>
       </c>
       <c r="E20" s="112" cm="1">
         <f t="array" ref="E20">_xlfn.IFS(OPT&lt;&gt;2, Calcul!E35, OPT=2,Calcul!E35+Calcul!E110)</f>
-        <v>0.70489731267123279</v>
+        <v>0.72516469540706363</v>
       </c>
       <c r="F20" s="112" cm="1">
         <f t="array" ref="F20">_xlfn.IFS(OPT&lt;&gt;2, Calcul!F35, OPT=2,Calcul!F35+Calcul!F110)</f>
-        <v>0.67399027665410927</v>
+        <v>0.69189313140409303</v>
       </c>
       <c r="G20" s="112" cm="1">
         <f t="array" ref="G20">_xlfn.IFS(OPT&lt;&gt;2, Calcul!G35, OPT=2,Calcul!G35+Calcul!G110)</f>
-        <v>0.61210571488859689</v>
+        <v>0.62263259348158739</v>
       </c>
       <c r="H20" s="278"/>
       <c r="I20" s="278"/>
@@ -21376,23 +21372,23 @@
     </row>
     <row r="21" spans="2:12" ht="16" x14ac:dyDescent="0.15">
       <c r="B21" s="102" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D21" s="112">
         <f>PL!D15</f>
-        <v>-1.1185250948694447</v>
+        <v>-1.3430148490085734</v>
       </c>
       <c r="E21" s="112">
         <f>PL!E15</f>
-        <v>-1.2639333572024722</v>
+        <v>-1.3898924965899488</v>
       </c>
       <c r="F21" s="112">
         <f>PL!F15</f>
-        <v>-1.4029660264947446</v>
+        <v>-1.530223122851595</v>
       </c>
       <c r="G21" s="112">
         <f>PL!G15</f>
-        <v>-1.5292329688792716</v>
+        <v>-1.6572532639341138</v>
       </c>
       <c r="H21" s="278"/>
       <c r="I21" s="278"/>
@@ -21402,23 +21398,23 @@
     </row>
     <row r="22" spans="2:12" ht="16" x14ac:dyDescent="0.15">
       <c r="B22" s="102" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D22" s="112">
         <f>-D21*Input!D19</f>
-        <v>0.30200177561475011</v>
+        <v>0.36261400923231485</v>
       </c>
       <c r="E22" s="112">
         <f>-E21*Input!E19</f>
-        <v>0.34126200644466753</v>
+        <v>0.37527097407928622</v>
       </c>
       <c r="F22" s="112">
         <f>-F21*Input!F19</f>
-        <v>0.37880082715358104</v>
+        <v>0.41316024316993066</v>
       </c>
       <c r="G22" s="112">
         <f>-G21*Input!G19</f>
-        <v>0.41289290159740338</v>
+        <v>0.44745838126221077</v>
       </c>
       <c r="H22" s="278"/>
       <c r="I22" s="278"/>
@@ -21428,7 +21424,7 @@
     </row>
     <row r="23" spans="2:12" ht="16" x14ac:dyDescent="0.15">
       <c r="B23" s="102" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D23" s="112"/>
       <c r="E23" s="112"/>
@@ -21442,7 +21438,7 @@
     </row>
     <row r="24" spans="2:12" ht="16" x14ac:dyDescent="0.15">
       <c r="B24" s="102" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D24" s="161" cm="1">
         <f t="array" ref="D24">_xlfn.IFS(OPT=3,Projects!C16, OPT&lt;&gt;3,0)</f>
@@ -21467,23 +21463,23 @@
     </row>
     <row r="25" spans="2:12" ht="16" x14ac:dyDescent="0.15">
       <c r="B25" s="138" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D25" s="112">
         <f>SUM(D18:D24)</f>
-        <v>0.27624134401341144</v>
+        <v>0.13445353575569235</v>
       </c>
       <c r="E25" s="112">
         <f t="shared" ref="E25:G25" si="6">SUM(E18:E24)</f>
-        <v>0.91071405546704509</v>
+        <v>0.83903126645001802</v>
       </c>
       <c r="F25" s="112">
         <f t="shared" si="6"/>
-        <v>0.72883330830306559</v>
+        <v>0.65383848271254852</v>
       </c>
       <c r="G25" s="112">
         <f t="shared" si="6"/>
-        <v>0.47570130466047894</v>
+        <v>0.39277336786343459</v>
       </c>
       <c r="H25" s="112"/>
       <c r="I25" s="278"/>
@@ -21504,24 +21500,24 @@
     </row>
     <row r="27" spans="2:12" ht="16" x14ac:dyDescent="0.15">
       <c r="B27" s="88" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C27" s="108"/>
       <c r="D27" s="112">
         <f>SUM(D13,D16,D25)</f>
-        <v>0.10847570767093762</v>
+        <v>-0.13502298529664664</v>
       </c>
       <c r="E27" s="112">
         <f t="shared" ref="E27:G27" si="7">SUM(E13,E16,E25)</f>
-        <v>0.81566021390964838</v>
+        <v>0.97018916562800339</v>
       </c>
       <c r="F27" s="112">
         <f t="shared" si="7"/>
-        <v>0.82842409122407989</v>
+        <v>0.99525679994243954</v>
       </c>
       <c r="G27" s="112">
         <f t="shared" si="7"/>
-        <v>1.0217334168795773</v>
+        <v>1.2785265106715833</v>
       </c>
       <c r="H27" s="278"/>
       <c r="I27" s="278"/>
@@ -21530,23 +21526,23 @@
     </row>
     <row r="28" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B28" s="88" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D28" s="303" cm="1">
         <f t="array" ref="D28">_xlfn.IFS(OPT=2,SUM(Calcul!C97,BS!C8), OPT&lt;&gt;2,BS!C8)</f>
-        <v>1.4357000000000002</v>
+        <v>1.6712500000000001</v>
       </c>
       <c r="E28" s="303" cm="1">
         <f t="array" ref="E28">_xlfn.IFS(OPT=2,BS!D8, OPT&lt;&gt;2,BS!D8)</f>
-        <v>1.5442807076709339</v>
+        <v>1.5363320147033512</v>
       </c>
       <c r="F28" s="303" cm="1">
         <f t="array" ref="F28">_xlfn.IFS(OPT=2,BS!E8, OPT&lt;&gt;2,BS!E8)</f>
-        <v>2.3599409215805842</v>
+        <v>2.506521180331351</v>
       </c>
       <c r="G28" s="303" cm="1">
         <f t="array" ref="G28">_xlfn.IFS(OPT=2,BS!F8, OPT&lt;&gt;2,BS!F8)</f>
-        <v>3.1883650128046632</v>
+        <v>3.5017779802738005</v>
       </c>
       <c r="H28" s="278"/>
       <c r="I28" s="278"/>
@@ -21555,23 +21551,23 @@
     </row>
     <row r="29" spans="2:12" ht="16" x14ac:dyDescent="0.15">
       <c r="B29" s="88" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D29" s="112">
         <f>SUM(D27:D28)</f>
-        <v>1.5441757076709379</v>
+        <v>1.5362270147033534</v>
       </c>
       <c r="E29" s="112">
         <f>SUM(E27:E28)</f>
-        <v>2.3599409215805824</v>
+        <v>2.5065211803313545</v>
       </c>
       <c r="F29" s="112">
         <f>SUM(F27:F28)</f>
-        <v>3.1883650128046641</v>
+        <v>3.5017779802737907</v>
       </c>
       <c r="G29" s="112">
         <f>SUM(G27:G28)</f>
-        <v>4.2100984296842405</v>
+        <v>4.780304490945384</v>
       </c>
       <c r="H29" s="278"/>
       <c r="I29" s="251"/>
@@ -21586,24 +21582,24 @@
     </row>
     <row r="31" spans="2:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B31" s="87" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C31" s="112"/>
       <c r="D31" s="112">
         <f>BS!D8-CF!D29</f>
-        <v>1.0499999999602494E-4</v>
+        <v>1.049999999978013E-4</v>
       </c>
       <c r="E31" s="112">
         <f>BS!E8-CF!E29</f>
-        <v>0</v>
+        <v>-3.5527136788005009E-15</v>
       </c>
       <c r="F31" s="112">
         <f>BS!F8-CF!F29</f>
-        <v>0</v>
+        <v>9.7699626167013776E-15</v>
       </c>
       <c r="G31" s="112">
         <f>BS!G8-CF!G29</f>
-        <v>0</v>
+        <v>-7.9936057773011271E-15</v>
       </c>
       <c r="H31" s="112"/>
       <c r="I31" s="251"/>
@@ -21704,7 +21700,7 @@
     </row>
     <row r="4" spans="2:17" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="248" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C4" s="249" t="s">
         <v>85</v>
@@ -21731,7 +21727,7 @@
     </row>
     <row r="6" spans="2:17" ht="16" x14ac:dyDescent="0.15">
       <c r="B6" s="113" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="G6" s="302"/>
       <c r="H6" s="81"/>
@@ -21747,7 +21743,7 @@
     </row>
     <row r="8" spans="2:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B8" s="125" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C8" s="108">
         <f>'Noname co'!G42</f>
@@ -21755,19 +21751,19 @@
       </c>
       <c r="D8" s="170" cm="1">
         <f t="array" ref="D8">_xlfn.IFS(OPT&lt;&gt;2,D40-SUM(D9:D11)-D18, OPT=2,D40-SUM(D9:D11)-D18)</f>
-        <v>1.5442807076709339</v>
+        <v>1.5363320147033512</v>
       </c>
       <c r="E8" s="170" cm="1">
         <f t="array" ref="E8">_xlfn.IFS(OPT&lt;&gt;2,E40-SUM(E9:E11)-E18, OPT=2,E40-SUM(E9:E11)-E18)</f>
-        <v>2.3599409215805842</v>
+        <v>2.506521180331351</v>
       </c>
       <c r="F8" s="170" cm="1">
         <f t="array" ref="F8">_xlfn.IFS(OPT&lt;&gt;2,F40-SUM(F9:F11)-F18, OPT=2,F40-SUM(F9:F11)-F18)</f>
-        <v>3.1883650128046632</v>
+        <v>3.5017779802738005</v>
       </c>
       <c r="G8" s="170" cm="1">
         <f t="array" ref="G8">_xlfn.IFS(OPT&lt;&gt;2,G40-SUM(G9:G11)-G18, OPT=2,G40-SUM(G9:G11)-G18)</f>
-        <v>4.2100984296842441</v>
+        <v>4.780304490945376</v>
       </c>
       <c r="H8" s="108"/>
       <c r="I8" s="108"/>
@@ -21782,7 +21778,7 @@
     </row>
     <row r="9" spans="2:17" ht="16" x14ac:dyDescent="0.15">
       <c r="B9" s="125" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C9" s="108">
         <f>'Noname co'!G43</f>
@@ -21790,19 +21786,19 @@
       </c>
       <c r="D9" s="108" cm="1">
         <f t="array" ref="D9">_xlfn.IFS(OPT=0,Calcul!D21,OPT=1,Calcul!D21+Calcul!D62,OPT=2,Calcul!D21+Projects!D117,OPT=3,Calcul!D21)</f>
-        <v>6.6941815068493131</v>
+        <v>8.0457673972602723</v>
       </c>
       <c r="E9" s="108" cm="1">
         <f t="array" ref="E9">_xlfn.IFS(OPT=0,Calcul!E21,OPT=1,Calcul!E21+Calcul!E62,OPT=2,Calcul!E21+Projects!E117,OPT=3,Calcul!E21)</f>
-        <v>7.5644251027397233</v>
+        <v>8.9971061465753408</v>
       </c>
       <c r="F9" s="108" cm="1">
         <f t="array" ref="F9">_xlfn.IFS(OPT=0,Calcul!F21,OPT=1,Calcul!F21+Calcul!F62,OPT=2,Calcul!F21+Projects!F117,OPT=3,Calcul!F21)</f>
-        <v>8.3965118640410932</v>
+        <v>9.9008269600684908</v>
       </c>
       <c r="G9" s="108" cm="1">
         <f t="array" ref="G9">_xlfn.IFS(OPT=0,Calcul!G21,OPT=1,Calcul!G21+Calcul!G62,OPT=2,Calcul!G21+Projects!G117,OPT=3,Calcul!G21)</f>
-        <v>9.1521979318047926</v>
+        <v>10.698633850520958</v>
       </c>
       <c r="H9" s="108"/>
       <c r="I9" s="123"/>
@@ -21817,7 +21813,7 @@
     </row>
     <row r="10" spans="2:17" ht="16" x14ac:dyDescent="0.15">
       <c r="B10" s="125" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C10" s="108">
         <f>'Noname co'!G44</f>
@@ -21825,19 +21821,19 @@
       </c>
       <c r="D10" s="108" cm="1">
         <f t="array" ref="D10">_xlfn.IFS(OPT=0,Calcul!D23,OPT=1,Calcul!D23+Calcul!D63,OPT=2,Calcul!D23+Projects!D118,OPT=3,Calcul!D23)</f>
-        <v>5.0089213124999992</v>
+        <v>6.0202454549999995</v>
       </c>
       <c r="E10" s="108" cm="1">
         <f t="array" ref="E10">_xlfn.IFS(OPT=0,Calcul!E23,OPT=1,Calcul!E23+Calcul!E63,OPT=2,Calcul!E23+Projects!E118,OPT=3,Calcul!E23)</f>
-        <v>5.3839795668749977</v>
+        <v>6.4036902998249978</v>
       </c>
       <c r="F10" s="108" cm="1">
         <f t="array" ref="F10">_xlfn.IFS(OPT=0,Calcul!F23,OPT=1,Calcul!F23+Calcul!F63,OPT=2,Calcul!F23+Projects!F118,OPT=3,Calcul!F23)</f>
-        <v>5.9762173192312478</v>
+        <v>7.0469135888287475</v>
       </c>
       <c r="G10" s="108" cm="1">
         <f t="array" ref="G10">_xlfn.IFS(OPT=0,Calcul!G23,OPT=1,Calcul!G23+Calcul!G63,OPT=2,Calcul!G23+Projects!G118,OPT=3,Calcul!G23)</f>
-        <v>6.5140768779620615</v>
+        <v>7.6147526431082913</v>
       </c>
       <c r="H10" s="108"/>
       <c r="I10" s="123"/>
@@ -21852,7 +21848,7 @@
     </row>
     <row r="11" spans="2:17" ht="16" x14ac:dyDescent="0.15">
       <c r="B11" s="125" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C11" s="273">
         <f>'Noname co'!G45</f>
@@ -21860,19 +21856,19 @@
       </c>
       <c r="D11" s="273" cm="1">
         <f t="array" ref="D11">_xlfn.IFS(OPT=0,Calcul!D14,OPT=1,Calcul!D14,OPT=2,Calcul!D14+Projects!D119,OPT=3,Calcul!D14)</f>
-        <v>0.3965901730449739</v>
+        <v>0.47552278904497391</v>
       </c>
       <c r="E11" s="273" cm="1">
         <f t="array" ref="E11">_xlfn.IFS(OPT=0,Calcul!E14,OPT=1,Calcul!E14,OPT=2,Calcul!E14+Projects!E119,OPT=3,Calcul!E14)</f>
-        <v>0.44814689554082043</v>
+        <v>0.53181546850082051</v>
       </c>
       <c r="F11" s="273" cm="1">
         <f t="array" ref="F11">_xlfn.IFS(OPT=0,Calcul!F14,OPT=1,Calcul!F14,OPT=2,Calcul!F14+Projects!F119,OPT=3,Calcul!F14)</f>
-        <v>0.49744305405031075</v>
+        <v>0.58529505565831075</v>
       </c>
       <c r="G11" s="273" cm="1">
         <f t="array" ref="G11">_xlfn.IFS(OPT=0,Calcul!G14,OPT=1,Calcul!G14,OPT=2,Calcul!G14+Projects!G119,OPT=3,Calcul!G14)</f>
-        <v>0.54221292891483874</v>
+        <v>0.63252478656786282</v>
       </c>
       <c r="H11" s="108"/>
       <c r="I11" s="123"/>
@@ -21887,7 +21883,7 @@
     </row>
     <row r="12" spans="2:17" ht="16" x14ac:dyDescent="0.15">
       <c r="B12" s="126" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C12" s="108">
         <f>'Noname co'!G46</f>
@@ -21895,19 +21891,19 @@
       </c>
       <c r="D12" s="108">
         <f>SUM(D8:D11)</f>
-        <v>13.643973700065221</v>
+        <v>16.077867656008596</v>
       </c>
       <c r="E12" s="108">
         <f t="shared" ref="E12:G12" si="0">SUM(E8:E11)</f>
-        <v>15.756492486736125</v>
+        <v>18.43913309523251</v>
       </c>
       <c r="F12" s="108">
         <f t="shared" si="0"/>
-        <v>18.058537250127316</v>
+        <v>21.034813584829347</v>
       </c>
       <c r="G12" s="108">
         <f t="shared" si="0"/>
-        <v>20.418586168365938</v>
+        <v>23.726215771142488</v>
       </c>
       <c r="H12" s="108"/>
       <c r="I12" s="123"/>
@@ -21922,7 +21918,7 @@
     </row>
     <row r="13" spans="2:17" ht="16" x14ac:dyDescent="0.15">
       <c r="B13" s="150" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C13" s="108">
         <f>'Noname co'!G47</f>
@@ -21962,23 +21958,23 @@
     </row>
     <row r="15" spans="2:17" ht="16" x14ac:dyDescent="0.15">
       <c r="B15" s="125" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D15" s="108" cm="1">
         <f t="array" ref="D15">_xlfn.IFS(OPT=2,Projects!$C$169, OPT&lt;&gt;2,0)</f>
-        <v>0</v>
+        <v>1.8762800000007296E-3</v>
       </c>
       <c r="E15" s="108" cm="1">
         <f t="array" ref="E15">_xlfn.IFS(OPT=2,Projects!$C$169, OPT&lt;&gt;2,0)</f>
-        <v>0</v>
+        <v>1.8762800000007296E-3</v>
       </c>
       <c r="F15" s="108" cm="1">
         <f t="array" ref="F15">_xlfn.IFS(OPT=2,Projects!$C$169, OPT&lt;&gt;2,0)</f>
-        <v>0</v>
+        <v>1.8762800000007296E-3</v>
       </c>
       <c r="G15" s="108" cm="1">
         <f t="array" ref="G15">_xlfn.IFS(OPT=2,Projects!$C$169, OPT&lt;&gt;2,0)</f>
-        <v>0</v>
+        <v>1.8762800000007296E-3</v>
       </c>
       <c r="H15" s="108"/>
       <c r="I15" s="123"/>
@@ -21993,7 +21989,7 @@
     </row>
     <row r="16" spans="2:17" ht="16" x14ac:dyDescent="0.15">
       <c r="B16" s="125" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C16" s="108">
         <f>'Noname co'!G48</f>
@@ -22001,19 +21997,19 @@
       </c>
       <c r="D16" s="108" cm="1">
         <f t="array" ref="D16">_xlfn.IFS(OPT=0,Calcul!D27,OPT=1,Calcul!D27+Calcul!D70,OPT=2,Calcul!D27+Projects!D123,OPT=3,Calcul!D27)</f>
-        <v>8.1445874999999983</v>
+        <v>9.7890169999999976</v>
       </c>
       <c r="E16" s="108" cm="1">
         <f t="array" ref="E16">_xlfn.IFS(OPT=0,Calcul!E27,OPT=1,Calcul!E27+Calcul!E70,OPT=2,Calcul!E27+Projects!E123,OPT=3,Calcul!E27)</f>
-        <v>9.2033838749999966</v>
+        <v>10.946479144999998</v>
       </c>
       <c r="F16" s="108" cm="1">
         <f t="array" ref="F16">_xlfn.IFS(OPT=0,Calcul!F27,OPT=1,Calcul!F27+Calcul!F70,OPT=2,Calcul!F27+Projects!F123,OPT=3,Calcul!F27)</f>
-        <v>10.215756101249998</v>
+        <v>12.046006134749998</v>
       </c>
       <c r="G16" s="108" cm="1">
         <f t="array" ref="G16">_xlfn.IFS(OPT=0,Calcul!G27,OPT=1,Calcul!G27+Calcul!G70,OPT=2,Calcul!G27+Projects!G123,OPT=3,Calcul!G27)</f>
-        <v>11.135174150362499</v>
+        <v>13.016671184800499</v>
       </c>
       <c r="H16" s="108"/>
       <c r="I16" s="123"/>
@@ -22028,7 +22024,7 @@
     </row>
     <row r="17" spans="2:17" ht="16" x14ac:dyDescent="0.15">
       <c r="B17" s="125" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C17" s="273">
         <f>'Noname co'!G49</f>
@@ -22036,19 +22032,19 @@
       </c>
       <c r="D17" s="273" cm="1">
         <f t="array" ref="D17">_xlfn.IFS(OPT=0,Calcul!D28,OPT=1,Calcul!D28,OPT=2,Calcul!D28+Projects!D124,OPT=3,Calcul!D28)</f>
-        <v>1.4646974999999998</v>
+        <v>1.7606948099999997</v>
       </c>
       <c r="E17" s="273" cm="1">
         <f t="array" ref="E17">_xlfn.IFS(OPT=0,Calcul!E28,OPT=1,Calcul!E28,OPT=2,Calcul!E28+Projects!E124,OPT=3,Calcul!E28)</f>
-        <v>1.6551081749999996</v>
+        <v>1.9688653235999998</v>
       </c>
       <c r="F17" s="273" cm="1">
         <f t="array" ref="F17">_xlfn.IFS(OPT=0,Calcul!F28,OPT=1,Calcul!F28,OPT=2,Calcul!F28+Projects!F124,OPT=3,Calcul!F28)</f>
-        <v>1.8371700742499997</v>
+        <v>2.1666150802799997</v>
       </c>
       <c r="G17" s="273" cm="1">
         <f t="array" ref="G17">_xlfn.IFS(OPT=0,Calcul!G28,OPT=1,Calcul!G28,OPT=2,Calcul!G28+Projects!G124,OPT=3,Calcul!G28)</f>
-        <v>2.0025153809325</v>
+        <v>2.3411848471313403</v>
       </c>
       <c r="H17" s="108"/>
       <c r="I17" s="123"/>
@@ -22063,7 +22059,7 @@
     </row>
     <row r="18" spans="2:17" ht="16" x14ac:dyDescent="0.15">
       <c r="B18" s="171" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C18" s="108">
         <f>'Noname co'!G50</f>
@@ -22071,19 +22067,19 @@
       </c>
       <c r="D18" s="170">
         <f>SUM(D15:D17)</f>
-        <v>9.6092849999999981</v>
+        <v>11.551588089999999</v>
       </c>
       <c r="E18" s="170">
         <f t="shared" ref="E18:G18" si="1">SUM(E15:E17)</f>
-        <v>10.858492049999995</v>
+        <v>12.917220748599998</v>
       </c>
       <c r="F18" s="170">
         <f t="shared" si="1"/>
-        <v>12.052926175499998</v>
+        <v>14.214497495029999</v>
       </c>
       <c r="G18" s="170">
         <f t="shared" si="1"/>
-        <v>13.137689531294999</v>
+        <v>15.35973231193184</v>
       </c>
       <c r="H18" s="108"/>
       <c r="I18" s="123"/>
@@ -22098,7 +22094,7 @@
     </row>
     <row r="19" spans="2:17" ht="16" x14ac:dyDescent="0.15">
       <c r="B19" s="152" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D19" s="151"/>
       <c r="E19" s="151"/>
@@ -22135,7 +22131,7 @@
     </row>
     <row r="21" spans="2:17" ht="16" x14ac:dyDescent="0.15">
       <c r="B21" s="127" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C21" s="108">
         <f>'Noname co'!G51</f>
@@ -22143,19 +22139,19 @@
       </c>
       <c r="D21" s="170">
         <f>SUM(D12,D18)</f>
-        <v>23.253258700065217</v>
+        <v>27.629455746008595</v>
       </c>
       <c r="E21" s="170">
         <f t="shared" ref="E21:G21" si="2">SUM(E12,E18)</f>
-        <v>26.61498453673612</v>
+        <v>31.356353843832508</v>
       </c>
       <c r="F21" s="170">
         <f t="shared" si="2"/>
-        <v>30.111463425627313</v>
+        <v>35.249311079859346</v>
       </c>
       <c r="G21" s="170">
         <f t="shared" si="2"/>
-        <v>33.556275699660937</v>
+        <v>39.085948083074328</v>
       </c>
       <c r="H21" s="108"/>
       <c r="I21" s="123"/>
@@ -22188,24 +22184,24 @@
     </row>
     <row r="23" spans="2:17" ht="16" x14ac:dyDescent="0.15">
       <c r="B23" s="153" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C23" s="108"/>
       <c r="D23" s="305">
         <f>(D21-C21)/C21</f>
-        <v>0.11435561892295089</v>
+        <v>0.32407417194654692</v>
       </c>
       <c r="E23" s="305">
         <f t="shared" ref="E23:G23" si="3">(E21-D21)/D21</f>
-        <v>0.14457009574582658</v>
+        <v>0.13488858166749476</v>
       </c>
       <c r="F23" s="305">
         <f t="shared" si="3"/>
-        <v>0.13137256886492174</v>
+        <v>0.12415210184881062</v>
       </c>
       <c r="G23" s="305">
         <f t="shared" si="3"/>
-        <v>0.11440202109545453</v>
+        <v>0.10884289325606561</v>
       </c>
       <c r="H23" s="108"/>
       <c r="I23" s="123"/>
@@ -22238,7 +22234,7 @@
     </row>
     <row r="25" spans="2:17" ht="16" x14ac:dyDescent="0.15">
       <c r="B25" s="129" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C25" s="108"/>
       <c r="D25" s="108"/>
@@ -22276,7 +22272,7 @@
     </row>
     <row r="27" spans="2:17" ht="16" x14ac:dyDescent="0.15">
       <c r="B27" s="125" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C27" s="108">
         <f>'Noname co'!G58</f>
@@ -22284,19 +22280,19 @@
       </c>
       <c r="D27" s="108" cm="1">
         <f t="array" ref="D27">_xlfn.IFS(OPT=0,Calcul!D34, OPT=1,Calcul!D34, OPT=2,Calcul!D34+Projects!D134,OPT=3,Calcul!D34)</f>
-        <v>5.4222870205479436</v>
+        <v>5.7600767328117879</v>
       </c>
       <c r="E27" s="108" cm="1">
         <f t="array" ref="E27">_xlfn.IFS(OPT=0,Calcul!E34, OPT=1,Calcul!E34, OPT=2,Calcul!E34+Projects!E134,OPT=3,Calcul!E34)</f>
-        <v>6.1271843332191764</v>
+        <v>6.4852414282188517</v>
       </c>
       <c r="F27" s="108" cm="1">
         <f t="array" ref="F27">_xlfn.IFS(OPT=0,Calcul!F34, OPT=1,Calcul!F34, OPT=2,Calcul!F34+Projects!F134,OPT=3,Calcul!F34)</f>
-        <v>6.8011746098732857</v>
+        <v>7.177134559622945</v>
       </c>
       <c r="G27" s="108" cm="1">
         <f t="array" ref="G27">_xlfn.IFS(OPT=0,Calcul!G34, OPT=1,Calcul!G34, OPT=2,Calcul!G34+Projects!G134,OPT=3,Calcul!G34)</f>
-        <v>7.4132803247618826</v>
+        <v>7.7997671531045327</v>
       </c>
       <c r="H27" s="108"/>
       <c r="I27" s="123"/>
@@ -22311,7 +22307,7 @@
     </row>
     <row r="28" spans="2:17" ht="16" x14ac:dyDescent="0.15">
       <c r="B28" s="125" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C28" s="108">
         <f>'Noname co'!G59</f>
@@ -22319,19 +22315,19 @@
       </c>
       <c r="D28" s="108" cm="1">
         <f t="array" ref="D28">_xlfn.IFS(OPT=0, Calcul!D22, OPT=1, Calcul!D22+Calcul!D64, OPT=2, Calcul!D22+Projects!D135,OPT=3, Calcul!D22)</f>
-        <v>1.6467686506849313</v>
+        <v>1.9792587797260273</v>
       </c>
       <c r="E28" s="108" cm="1">
         <f t="array" ref="E28">_xlfn.IFS(OPT=0, Calcul!E22, OPT=1, Calcul!E22+Calcul!E64, OPT=2, Calcul!E22+Projects!E135,OPT=3, Calcul!E22)</f>
-        <v>1.7700754740410951</v>
+        <v>2.1053228382986293</v>
       </c>
       <c r="F28" s="108" cm="1">
         <f t="array" ref="F28">_xlfn.IFS(OPT=0, Calcul!F22, OPT=1, Calcul!F22+Calcul!F64, OPT=2, Calcul!F22+Projects!F135,OPT=3, Calcul!F22)</f>
-        <v>1.9647837761856155</v>
+        <v>2.3167935086560263</v>
       </c>
       <c r="G28" s="108" cm="1">
         <f t="array" ref="G28">_xlfn.IFS(OPT=0, Calcul!G22, OPT=1, Calcul!G22+Calcul!G64, OPT=2, Calcul!G22+Projects!G135,OPT=3, Calcul!G22)</f>
-        <v>2.1416143160423218</v>
+        <v>2.5034803210219043</v>
       </c>
       <c r="H28" s="108"/>
       <c r="I28" s="123"/>
@@ -22346,7 +22342,7 @@
     </row>
     <row r="29" spans="2:17" ht="16" x14ac:dyDescent="0.15">
       <c r="B29" s="100" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C29" s="108">
         <f>'Noname co'!G60</f>
@@ -22381,7 +22377,7 @@
     </row>
     <row r="30" spans="2:17" ht="16" x14ac:dyDescent="0.15">
       <c r="B30" s="125" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C30" s="273">
         <f>'Noname co'!G61</f>
@@ -22389,19 +22385,19 @@
       </c>
       <c r="D30" s="275" cm="1">
         <f t="array" ref="D30">_xlfn.IFS(OPT=0, Calcul!D15, OPT=1, Calcul!D15, OPT=2,Calcul!D15+Projects!D137,OPT=3, Calcul!D15)</f>
-        <v>0.54076123836687873</v>
+        <v>0.64995135716687868</v>
       </c>
       <c r="E30" s="275" cm="1">
         <f t="array" ref="E30">_xlfn.IFS(OPT=0, Calcul!E15, OPT=1, Calcul!E15, OPT=2,Calcul!E15+Projects!E137,OPT=3, Calcul!E15)</f>
-        <v>0.6110601993545729</v>
+        <v>0.72680172528257292</v>
       </c>
       <c r="F30" s="275" cm="1">
         <f t="array" ref="F30">_xlfn.IFS(OPT=0, Calcul!F15, OPT=1, Calcul!F15, OPT=2,Calcul!F15+Projects!F137,OPT=3, Calcul!F15)</f>
-        <v>0.67827682128357603</v>
+        <v>0.79980542350797612</v>
       </c>
       <c r="G30" s="275" cm="1">
         <f t="array" ref="G30">_xlfn.IFS(OPT=0, Calcul!G15, OPT=1, Calcul!G15, OPT=2,Calcul!G15+Projects!G137,OPT=3, Calcul!G15)</f>
-        <v>0.73932173519909794</v>
+        <v>0.86425313828578121</v>
       </c>
       <c r="H30" s="108"/>
       <c r="I30" s="123"/>
@@ -22416,7 +22412,7 @@
     </row>
     <row r="31" spans="2:17" ht="16" x14ac:dyDescent="0.15">
       <c r="B31" s="126" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C31" s="108">
         <f>'Noname co'!G62</f>
@@ -22424,19 +22420,19 @@
       </c>
       <c r="D31" s="108">
         <f>SUM(D27:D30)</f>
-        <v>8.1549016350564081</v>
+        <v>8.93437159516135</v>
       </c>
       <c r="E31" s="170">
         <f t="shared" ref="E31:F31" si="4">SUM(E27:E30)</f>
-        <v>9.1242657463808623</v>
+        <v>9.9333117315660733</v>
       </c>
       <c r="F31" s="170">
         <f t="shared" si="4"/>
-        <v>10.127934978482761</v>
+        <v>10.977433262927232</v>
       </c>
       <c r="G31" s="170">
         <f>SUM(G27:G30)</f>
-        <v>11.039449126546209</v>
+        <v>11.912733362955125</v>
       </c>
       <c r="H31" s="108"/>
       <c r="I31" s="123"/>
@@ -22469,7 +22465,7 @@
     </row>
     <row r="33" spans="2:17" ht="16" x14ac:dyDescent="0.15">
       <c r="B33" s="125" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C33" s="273">
         <f>'Noname co'!G64</f>
@@ -22504,7 +22500,7 @@
     </row>
     <row r="34" spans="2:17" ht="16" x14ac:dyDescent="0.15">
       <c r="B34" s="126" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C34" s="108">
         <f>'Noname co'!G65</f>
@@ -22512,19 +22508,19 @@
       </c>
       <c r="D34" s="108">
         <f>SUM(D31:D33)</f>
-        <v>16.290494552319913</v>
+        <v>17.069964512424857</v>
       </c>
       <c r="E34" s="170">
         <f t="shared" ref="E34:F34" si="5">SUM(E31:E33)</f>
-        <v>18.317485742888621</v>
+        <v>19.126531728073832</v>
       </c>
       <c r="F34" s="170">
         <f t="shared" si="5"/>
-        <v>20.332409174606376</v>
+        <v>21.181907459050848</v>
       </c>
       <c r="G34" s="170">
         <f>SUM(G31:G33)</f>
-        <v>22.162326000320952</v>
+        <v>23.035610236729866</v>
       </c>
       <c r="H34" s="108"/>
       <c r="I34" s="123"/>
@@ -22557,7 +22553,7 @@
     </row>
     <row r="36" spans="2:17" ht="16" x14ac:dyDescent="0.15">
       <c r="B36" s="125" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C36" s="108">
         <f>'Noname co'!G67</f>
@@ -22565,19 +22561,19 @@
       </c>
       <c r="D36" s="247" cm="1">
         <f t="array" ref="D36">_xlfn.IFS(OPT=0,C36, OPT=1, C36,OPT=2, $C$36+Projects!$C$167,OPT=3,C36+Projects!C16)</f>
-        <v>2.408455</v>
+        <v>5.8137312800000007</v>
       </c>
       <c r="E36" s="247" cm="1">
         <f t="array" ref="E36">_xlfn.IFS(OPT=0,D36, OPT=1, D36,OPT=2, $C$36+Projects!$C$167,OPT=3,D36+Projects!D16)</f>
-        <v>2.408455</v>
+        <v>5.8137312800000007</v>
       </c>
       <c r="F36" s="247" cm="1">
         <f t="array" ref="F36">_xlfn.IFS(OPT=0,E36, OPT=1, E36,OPT=2, $C$36+Projects!$C$167,OPT=3,E36+Projects!E16)</f>
-        <v>2.408455</v>
+        <v>5.8137312800000007</v>
       </c>
       <c r="G36" s="247" cm="1">
         <f t="array" ref="G36">_xlfn.IFS(OPT=0,F36, OPT=1, F36,OPT=2, $C$36+Projects!$C$167,OPT=3,F36+Projects!F16)</f>
-        <v>2.408455</v>
+        <v>5.8137312800000007</v>
       </c>
       <c r="H36" s="108"/>
       <c r="I36" s="123"/>
@@ -22592,7 +22588,7 @@
     </row>
     <row r="37" spans="2:17" ht="16" x14ac:dyDescent="0.15">
       <c r="B37" s="125" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C37" s="273">
         <f>'Noname co'!G68</f>
@@ -22600,19 +22596,19 @@
       </c>
       <c r="D37" s="275" cm="1">
         <f t="array" ref="D37">_xlfn.IFS(OPT=0,C37+PL!D21, OPT=1,C37+PL!D21, OPT=2,C37+PL!D21,OPT=3,C37+PL!D21)</f>
-        <v>4.5543091477453039</v>
+        <v>4.7457599535837378</v>
       </c>
       <c r="E37" s="275" cm="1">
         <f t="array" ref="E37">_xlfn.IFS(OPT=0,D37+PL!E21, OPT=1,D37+PL!E21, OPT=2,D37+PL!E21,OPT=3,D37+PL!E21)</f>
-        <v>5.8890437938474989</v>
+        <v>6.4160908357586761</v>
       </c>
       <c r="F37" s="275" cm="1">
         <f t="array" ref="F37">_xlfn.IFS(OPT=0,E37+PL!F21, OPT=1,E37+PL!F21, OPT=2,E37+PL!F21,OPT=3,E37+PL!F21)</f>
-        <v>7.3705992510209386</v>
+        <v>8.253672340808496</v>
       </c>
       <c r="G37" s="275" cm="1">
         <f t="array" ref="G37">_xlfn.IFS(OPT=0,F37+PL!G21, OPT=1,F37+PL!G21, OPT=2,F37+PL!G21,OPT=3,F37+PL!G21)</f>
-        <v>8.9854946993399842</v>
+        <v>10.236606566344463</v>
       </c>
       <c r="H37" s="247"/>
       <c r="I37" s="123"/>
@@ -22627,7 +22623,7 @@
     </row>
     <row r="38" spans="2:17" ht="16" x14ac:dyDescent="0.15">
       <c r="B38" s="126" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C38" s="108">
         <f>'Noname co'!G69</f>
@@ -22635,19 +22631,19 @@
       </c>
       <c r="D38" s="247">
         <f>SUM(D36:D37)</f>
-        <v>6.9627641477453039</v>
+        <v>10.559491233583739</v>
       </c>
       <c r="E38" s="170">
         <f t="shared" ref="E38:F38" si="6">SUM(E36:E37)</f>
-        <v>8.2974987938474989</v>
+        <v>12.229822115758676</v>
       </c>
       <c r="F38" s="170">
         <f t="shared" si="6"/>
-        <v>9.7790542510209377</v>
+        <v>14.067403620808497</v>
       </c>
       <c r="G38" s="170">
         <f t="shared" ref="G38" si="7">SUM(G36:G37)</f>
-        <v>11.393949699339984</v>
+        <v>16.050337846344462</v>
       </c>
       <c r="H38" s="108"/>
       <c r="I38" s="123"/>
@@ -22680,7 +22676,7 @@
     </row>
     <row r="40" spans="2:17" ht="16" x14ac:dyDescent="0.15">
       <c r="B40" s="125" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C40" s="108">
         <f>'Noname co'!G71</f>
@@ -22688,19 +22684,19 @@
       </c>
       <c r="D40" s="170">
         <f>SUM(D38+D34)</f>
-        <v>23.253258700065217</v>
+        <v>27.629455746008595</v>
       </c>
       <c r="E40" s="170">
         <f t="shared" ref="E40:G40" si="8">SUM(E38+E34)</f>
-        <v>26.61498453673612</v>
+        <v>31.356353843832508</v>
       </c>
       <c r="F40" s="170">
         <f t="shared" si="8"/>
-        <v>30.111463425627313</v>
+        <v>35.249311079859346</v>
       </c>
       <c r="G40" s="170">
         <f t="shared" si="8"/>
-        <v>33.556275699660937</v>
+        <v>39.085948083074328</v>
       </c>
       <c r="H40" s="108"/>
       <c r="I40" s="123"/>
@@ -22723,7 +22719,7 @@
     </row>
     <row r="42" spans="2:17" ht="17" x14ac:dyDescent="0.15">
       <c r="B42" s="87" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C42" s="236"/>
       <c r="D42" s="108">
@@ -22853,9 +22849,9 @@
   </sheetPr>
   <dimension ref="B1:L91"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <pane ySplit="9" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J17" sqref="J17"/>
+      <selection pane="bottomLeft" activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.75" defaultRowHeight="16" outlineLevelRow="1" x14ac:dyDescent="0.2"/>
@@ -22887,14 +22883,14 @@
     </row>
     <row r="4" spans="2:12" s="264" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="B4" s="283" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C4" s="284">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D4" s="285"/>
       <c r="H4" s="322" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="I4" s="323" t="str">
         <f>C20</f>
@@ -22909,14 +22905,14 @@
     </row>
     <row r="5" spans="2:12" s="264" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="B5" s="320" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C5" s="321">
         <v>0</v>
       </c>
       <c r="D5" s="283"/>
       <c r="H5" s="324" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="I5" s="325">
         <f>C26</f>
@@ -22924,18 +22920,18 @@
       </c>
       <c r="J5" s="331">
         <f>D26</f>
-        <v>0.60649411960606414</v>
+        <v>0.52265793826279361</v>
       </c>
       <c r="K5" s="326" t="s">
+        <v>296</v>
+      </c>
+      <c r="L5" s="354" t="s">
         <v>297</v>
-      </c>
-      <c r="L5" s="354" t="s">
-        <v>298</v>
       </c>
     </row>
     <row r="6" spans="2:12" s="264" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="B6" s="320" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C6" s="321">
         <v>1</v>
@@ -22950,16 +22946,16 @@
       </c>
       <c r="J6" s="332">
         <f>D27</f>
-        <v>3.3396591075966766</v>
+        <v>2.6165517954250488</v>
       </c>
       <c r="K6" s="329" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="L6" s="354"/>
     </row>
     <row r="7" spans="2:12" s="264" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="B7" s="320" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C7" s="321">
         <v>2</v>
@@ -22968,7 +22964,7 @@
     </row>
     <row r="8" spans="2:12" s="264" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="B8" s="320" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C8" s="321">
         <v>3</v>
@@ -22983,7 +22979,7 @@
     </row>
     <row r="11" spans="2:12" ht="18" x14ac:dyDescent="0.2">
       <c r="B11" s="255" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C11" s="256" t="str">
         <f>Input!C7</f>
@@ -23011,32 +23007,32 @@
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B12" s="257" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D12" s="272">
         <f>SUM(CF!D13,CF!D16)</f>
-        <v>-0.16776563634247382</v>
+        <v>-0.26947652105233899</v>
       </c>
       <c r="E12" s="272">
         <f>SUM(CF!E13,CF!E16)</f>
-        <v>-9.5053841557396712E-2</v>
+        <v>0.13115789917798537</v>
       </c>
       <c r="F12" s="272">
         <f>SUM(CF!F13,CF!F16)</f>
-        <v>9.9590782921014309E-2</v>
+        <v>0.34141831722989102</v>
       </c>
       <c r="G12" s="272">
         <f>SUM(CF!G13,CF!G16)</f>
-        <v>0.54603211221909831</v>
+        <v>0.88575314280814865</v>
       </c>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B13" s="257" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C13" s="258">
         <f>Calcul!D121</f>
-        <v>7.1231037029726274E-2</v>
+        <v>7.567439903697612E-2</v>
       </c>
       <c r="D13" s="272"/>
       <c r="E13" s="272"/>
@@ -23045,7 +23041,7 @@
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B14" s="257" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D14" s="272">
         <f>0.5</f>
@@ -23066,23 +23062,23 @@
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B15" s="257" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D15" s="272">
         <f>1/(1+$C$13)^D14</f>
-        <v>0.96618085236327167</v>
+        <v>0.9641832525702988</v>
       </c>
       <c r="E15" s="272">
         <f t="shared" ref="E15:G15" si="1">1/(1+$C$13)^E14</f>
-        <v>0.90193508119617749</v>
+        <v>0.89635232876557025</v>
       </c>
       <c r="F15" s="272">
         <f t="shared" si="1"/>
-        <v>0.84196130434853078</v>
+        <v>0.8332933549111623</v>
       </c>
       <c r="G15" s="272">
         <f t="shared" si="1"/>
-        <v>0.78597545743548758</v>
+        <v>0.77467062120023367</v>
       </c>
       <c r="H15" s="259"/>
       <c r="I15" s="259"/>
@@ -23090,23 +23086,23 @@
     </row>
     <row r="16" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B16" s="257" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D16" s="272">
         <f>D15*D12</f>
-        <v>-0.16209194551863804</v>
+        <v>-0.25982474855957283</v>
       </c>
       <c r="E16" s="272">
         <f t="shared" ref="E16:G16" si="2">E15*E12</f>
-        <v>-8.573239430307919E-2</v>
+        <v>0.11756368836418706</v>
       </c>
       <c r="F16" s="272">
         <f t="shared" si="2"/>
-        <v>8.385158548926859E-2</v>
+        <v>0.28450161499261939</v>
       </c>
       <c r="G16" s="272">
         <f t="shared" si="2"/>
-        <v>0.42916783917587126</v>
+        <v>0.68616693736924783</v>
       </c>
       <c r="H16" s="260"/>
       <c r="I16" s="260"/>
@@ -23114,16 +23110,16 @@
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B17" s="288" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C17" s="289">
         <f>SUM(D16:G16)</f>
-        <v>0.26519508484342263</v>
+        <v>0.82840749216648146</v>
       </c>
     </row>
     <row r="20" spans="2:9" ht="18" x14ac:dyDescent="0.2">
       <c r="B20" s="255" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C20" s="256" t="str">
         <f>C11</f>
@@ -23150,7 +23146,7 @@
     </row>
     <row r="21" spans="2:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B21" s="257" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C21" s="261">
         <f>BS!C38/BS!C21</f>
@@ -23158,26 +23154,26 @@
       </c>
       <c r="D21" s="261">
         <f>BS!D38/BS!D21</f>
-        <v>0.2994317586861826</v>
+        <v>0.38218238284006673</v>
       </c>
       <c r="E21" s="261">
         <f>BS!E38/BS!E21</f>
-        <v>0.31176042136694204</v>
+        <v>0.39002692011539997</v>
       </c>
       <c r="F21" s="261">
         <f>BS!F38/BS!F21</f>
-        <v>0.3247618394627132</v>
+        <v>0.39908307963630785</v>
       </c>
       <c r="G21" s="261">
         <f>BS!G38/BS!G21</f>
-        <v>0.33954750525115968</v>
+        <v>0.41064215232110118</v>
       </c>
       <c r="H21" s="261"/>
       <c r="I21" s="261"/>
     </row>
     <row r="22" spans="2:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B22" s="257" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C22" s="262">
         <f>BS!C38/BS!C34</f>
@@ -23185,26 +23181,26 @@
       </c>
       <c r="D22" s="262">
         <f>BS!D38/BS!D34</f>
-        <v>0.42741269305134411</v>
+        <v>0.61860065531464425</v>
       </c>
       <c r="E22" s="262">
         <f>BS!E38/BS!E34</f>
-        <v>0.45298240764668418</v>
+        <v>0.63941661194160992</v>
       </c>
       <c r="F22" s="262">
         <f>BS!F38/BS!F34</f>
-        <v>0.48095895410339412</v>
+        <v>0.66412355204571605</v>
       </c>
       <c r="G22" s="262">
         <f>BS!G38/BS!G34</f>
-        <v>0.51411344184608498</v>
+        <v>0.69676199941742745</v>
       </c>
       <c r="H22" s="269"/>
       <c r="I22" s="269"/>
     </row>
     <row r="23" spans="2:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B23" s="257" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C23" s="262">
         <f>'Noname co'!G14/'Noname co'!G64</f>
@@ -23212,26 +23208,26 @@
       </c>
       <c r="D23" s="262">
         <f>PL!D13/BS!D33</f>
-        <v>0.29632725291408707</v>
+        <v>0.35615708178459554</v>
       </c>
       <c r="E23" s="262">
         <f>PL!E13/BS!E33</f>
-        <v>0.33637147628085584</v>
+        <v>0.40007929692938654</v>
       </c>
       <c r="F23" s="262">
         <f>PL!F13/BS!F33</f>
-        <v>0.33637147628085623</v>
+        <v>0.39663563094838511</v>
       </c>
       <c r="G23" s="262">
         <f>PL!G13/BS!G33</f>
-        <v>0.33637147628085573</v>
+        <v>0.39320776160032367</v>
       </c>
       <c r="H23" s="270"/>
       <c r="I23" s="270"/>
     </row>
     <row r="24" spans="2:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B24" s="257" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C24" s="262">
         <f>'Noname co'!G14/SUM('Noname co'!G58,'Noname co'!G60)</f>
@@ -23239,26 +23235,26 @@
       </c>
       <c r="D24" s="262">
         <f>PL!D13/SUM(BS!D29,BS!D27)</f>
-        <v>0.40399660061636467</v>
+        <v>0.45955191650171251</v>
       </c>
       <c r="E24" s="262">
         <f>PL!E13/SUM(BS!E29,BS!E27)</f>
-        <v>0.45859073583479248</v>
+        <v>0.51794395862455844</v>
       </c>
       <c r="F24" s="262">
         <f>PL!F13/SUM(BS!F29,BS!F27)</f>
-        <v>0.45859073583479321</v>
+        <v>0.51488911875885168</v>
       </c>
       <c r="G24" s="262">
         <f>PL!G13/SUM(BS!G29,BS!G27)</f>
-        <v>0.45859073583479237</v>
+        <v>0.51183166382788337</v>
       </c>
       <c r="H24" s="269"/>
       <c r="I24" s="269"/>
     </row>
     <row r="25" spans="2:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B25" s="257" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C25" s="262">
         <f>'Noname co'!G50/'Noname co'!G51</f>
@@ -23266,25 +23262,25 @@
       </c>
       <c r="D25" s="262">
         <f>BS!D18/BS!D21</f>
-        <v>0.4132446606278477</v>
+        <v>0.41808959959946962</v>
       </c>
       <c r="E25" s="262">
         <f>BS!E18/BS!E21</f>
-        <v>0.40798415775940955</v>
+        <v>0.41194906821542615</v>
       </c>
       <c r="F25" s="262">
         <f>BS!F18/BS!F21</f>
-        <v>0.40027699767132452</v>
+        <v>0.40325603705633384</v>
       </c>
       <c r="G25" s="262">
         <f>BS!G18/BS!G21</f>
-        <v>0.39151214660653616</v>
+        <v>0.39297325676444766</v>
       </c>
       <c r="I25" s="269"/>
     </row>
     <row r="26" spans="2:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B26" s="288" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C26" s="313">
         <f>SUM('Noname co'!G58,'Noname co'!G60,'Noname co'!G64)/'Noname co'!G51</f>
@@ -23292,19 +23288,19 @@
       </c>
       <c r="D26" s="313">
         <f>SUM(BS!D27,BS!D29,BS!D33)/BS!D21</f>
-        <v>0.60649411960606414</v>
+        <v>0.52265793826279361</v>
       </c>
       <c r="E26" s="313">
         <f>SUM(BS!E27,BS!E29,BS!E33)/BS!E21</f>
-        <v>0.59877359866568158</v>
+        <v>0.51965248401154862</v>
       </c>
       <c r="F26" s="313">
         <f>SUM(BS!F27,BS!F29,BS!F33)/BS!F21</f>
-        <v>0.58746226734639884</v>
+        <v>0.51250103827444593</v>
       </c>
       <c r="G26" s="313">
         <f>SUM(BS!G27,BS!G29,BS!G33)/BS!G21</f>
-        <v>0.57459862714366594</v>
+        <v>0.50319559181779461</v>
       </c>
     </row>
     <row r="27" spans="2:9" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -23317,19 +23313,19 @@
       </c>
       <c r="D27" s="314">
         <f>BS!D40/BS!D38</f>
-        <v>3.3396591075966766</v>
+        <v>2.6165517954250488</v>
       </c>
       <c r="E27" s="314">
         <f>BS!E40/BS!E38</f>
-        <v>3.2075912510491511</v>
+        <v>2.563925586736739</v>
       </c>
       <c r="F27" s="314">
         <f>BS!F40/BS!F38</f>
-        <v>3.0791795047546304</v>
+        <v>2.5057439190639688</v>
       </c>
       <c r="G27" s="314">
         <f>BS!G40/BS!G38</f>
-        <v>2.9450960013984218</v>
+        <v>2.4352103025654586</v>
       </c>
     </row>
     <row r="28" spans="2:9" outlineLevel="1" x14ac:dyDescent="0.2"/>
@@ -23422,7 +23418,7 @@
     <row r="43" spans="2:9" outlineLevel="1" x14ac:dyDescent="0.2"/>
     <row r="47" spans="2:9" ht="18" x14ac:dyDescent="0.2">
       <c r="B47" s="255" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C47" s="256" t="str">
         <f t="shared" ref="C47:G47" si="4">C20</f>
@@ -23449,7 +23445,7 @@
     </row>
     <row r="48" spans="2:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B48" s="257" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C48" s="272">
         <f>SUM('Noname co'!G64,'Noname co'!G69)-'Noname co'!G50</f>
@@ -23457,24 +23453,24 @@
       </c>
       <c r="D48" s="272">
         <f>SUM(BS!D38,BS!D33)-BS!D18</f>
-        <v>5.4890720650088127</v>
+        <v>7.1434960608472444</v>
       </c>
       <c r="E48" s="272">
         <f>SUM(BS!E38,BS!E33)-BS!E18</f>
-        <v>6.6322267403552644</v>
+        <v>8.5058213636664384</v>
       </c>
       <c r="F48" s="272">
         <f>SUM(BS!F38,BS!F33)-BS!F18</f>
-        <v>7.9306022716445561</v>
+        <v>10.057380321902112</v>
       </c>
       <c r="G48" s="272">
         <f>SUM(BS!G38,BS!G33)-BS!G18</f>
-        <v>9.3791370418197282</v>
+        <v>11.813482408187365</v>
       </c>
     </row>
     <row r="49" spans="2:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B49" s="257" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C49" s="272">
         <f>'Noname co'!G46-'Noname co'!G62</f>
@@ -23482,24 +23478,24 @@
       </c>
       <c r="D49" s="272">
         <f>BS!D12-BS!D31</f>
-        <v>5.4890720650088127</v>
+        <v>7.1434960608472462</v>
       </c>
       <c r="E49" s="272">
         <f>BS!E12-BS!E31</f>
-        <v>6.6322267403552626</v>
+        <v>8.5058213636664366</v>
       </c>
       <c r="F49" s="272">
         <f>BS!F12-BS!F31</f>
-        <v>7.9306022716445543</v>
+        <v>10.057380321902116</v>
       </c>
       <c r="G49" s="272">
         <f>BS!G12-BS!G31</f>
-        <v>9.3791370418197282</v>
+        <v>11.813482408187364</v>
       </c>
     </row>
     <row r="50" spans="2:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B50" s="257" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C50" s="262">
         <f>('Noname co'!G43+'Noname co'!G44-'Noname co'!G59)/('Noname co'!G58+'Noname co'!G60)</f>
@@ -23507,26 +23503,26 @@
       </c>
       <c r="D50" s="282">
         <f>SUM(BS!D9,BS!D10,-BS!D28)/SUM(BS!D27,BS!D29)</f>
-        <v>1.6852199924359514</v>
+        <v>1.9169618656924248</v>
       </c>
       <c r="E50" s="282">
         <f>SUM(BS!E9,BS!E10,-BS!E28)/SUM(BS!E27,BS!E29)</f>
-        <v>1.6577359586102363</v>
+        <v>1.8722888572833676</v>
       </c>
       <c r="F50" s="282">
         <f>SUM(BS!F9,BS!F10,-BS!F28)/SUM(BS!F27,BS!F29)</f>
-        <v>1.6577359586102363</v>
+        <v>1.8612460744762518</v>
       </c>
       <c r="G50" s="282">
         <f>SUM(BS!G9,BS!G10,-BS!G28)/SUM(BS!G27,BS!G29)</f>
-        <v>1.657735958610236</v>
+        <v>1.8501938386048282</v>
       </c>
       <c r="H50" s="262"/>
       <c r="I50" s="262"/>
     </row>
     <row r="51" spans="2:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B51" s="257" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C51" s="260">
         <f>'Noname co'!G46/('Noname co'!G58+'Noname co'!G60)</f>
@@ -23534,19 +23530,19 @@
       </c>
       <c r="D51" s="272">
         <f>BS!D12/SUM(BS!D27,BS!D29)</f>
-        <v>2.2864293160888498</v>
+        <v>2.5499533616105028</v>
       </c>
       <c r="E51" s="272">
         <f>BS!E12/SUM(BS!E27,BS!E29)</f>
-        <v>2.3366733721867381</v>
+        <v>2.5966268257741256</v>
       </c>
       <c r="F51" s="272">
         <f>BS!F12/SUM(BS!F27,BS!F29)</f>
-        <v>2.4126707184205154</v>
+        <v>2.6759008903813175</v>
       </c>
       <c r="G51" s="272">
         <f>BS!G12/SUM(BS!G27,BS!G29)</f>
-        <v>2.5027337677709278</v>
+        <v>2.7766197821740097</v>
       </c>
       <c r="H51" s="260"/>
       <c r="I51" s="260"/>
@@ -23569,7 +23565,7 @@
     <row r="67" spans="2:9" outlineLevel="1" x14ac:dyDescent="0.2"/>
     <row r="71" spans="2:9" ht="18" x14ac:dyDescent="0.2">
       <c r="B71" s="255" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C71" s="256" t="str">
         <f>C47</f>
@@ -23596,7 +23592,7 @@
     </row>
     <row r="72" spans="2:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B72" s="257" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C72" s="282">
         <f>'Noname co'!G20/'Noname co'!G8</f>
@@ -23604,26 +23600,26 @@
       </c>
       <c r="D72" s="262">
         <f>PL!D19/PL!D6</f>
-        <v>2.8956627568471224E-2</v>
+        <v>2.8981713730391372E-2</v>
       </c>
       <c r="E72" s="262">
         <f>PL!E19/PL!E6</f>
-        <v>3.6256627568471249E-2</v>
+        <v>3.8147674244140235E-2</v>
       </c>
       <c r="F72" s="262">
         <f>PL!F19/PL!F6</f>
-        <v>3.6256627568471339E-2</v>
+        <v>3.8136737697418509E-2</v>
       </c>
       <c r="G72" s="262">
         <f>PL!G19/PL!G6</f>
-        <v>3.6256627568471235E-2</v>
+        <v>3.80845109587509E-2</v>
       </c>
       <c r="H72" s="269"/>
       <c r="I72" s="269"/>
     </row>
     <row r="73" spans="2:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B73" s="257" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C73" s="282">
         <f>'Noname co'!G20/'Noname co'!G51</f>
@@ -23631,26 +23627,26 @@
       </c>
       <c r="D73" s="262">
         <f>PL!D19/BS!D21</f>
-        <v>4.0568900897432432E-2</v>
+        <v>4.1072468600749576E-2</v>
       </c>
       <c r="E73" s="262">
         <f>PL!E19/BS!E21</f>
-        <v>5.0149743437193715E-2</v>
+        <v>5.3269295610512329E-2</v>
       </c>
       <c r="F73" s="262">
         <f>PL!F19/BS!F21</f>
-        <v>4.9202373070732761E-2</v>
+        <v>5.2130990613878173E-2</v>
       </c>
       <c r="G73" s="262">
         <f>PL!G19/BS!G21</f>
-        <v>4.8124990471912307E-2</v>
+        <v>5.0732662831188963E-2</v>
       </c>
       <c r="H73" s="269"/>
       <c r="I73" s="269"/>
     </row>
     <row r="74" spans="2:9" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B74" s="257" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C74" s="287">
         <f>'Noname co'!G20/'Noname co'!G69</f>
@@ -23658,19 +23654,19 @@
       </c>
       <c r="D74" s="287">
         <f>PL!D21/BS!D38</f>
-        <v>0.1354862993672972</v>
+        <v>0.10746824145983025</v>
       </c>
       <c r="E74" s="287">
         <f>PL!E21/BS!E38</f>
-        <v>0.16085987829150214</v>
+        <v>0.13657851000323562</v>
       </c>
       <c r="F74" s="287">
         <f>PL!F21/BS!F38</f>
-        <v>0.15150293874469145</v>
+        <v>0.13062691272550606</v>
       </c>
       <c r="G74" s="287">
         <f>PL!G21/BS!G38</f>
-        <v>0.14173271700616608</v>
+        <v>0.12354470320309108</v>
       </c>
     </row>
     <row r="75" spans="2:9" outlineLevel="1" x14ac:dyDescent="0.2">
